--- a/rand_wc_model_gen/model_gen/model_2.xlsx
+++ b/rand_wc_model_gen/model_gen/model_2.xlsx
@@ -41,18 +41,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'dFBA objective species'!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA objectives'!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Functions!$A$1:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Initial species concentrations'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Initial species concentrations'!$A$1:$L$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Observables!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'Observation sets'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">Observations!$A$2:$W$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Parameters!$A$1:$K$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Parameters!$A$1:$K$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Rate laws'!$A$1:$L$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Reactions!$A$2:$N$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Reactions!$A$2:$N$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">References!$A$1:$R$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$2:$N$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Species!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$2:$N$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Species!$A$1:$J$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'Stop conditions'!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Submodels!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Submodels!$A$1:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$24</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4215,7 +4215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="294">
   <si>
     <t>'Model'!A1</t>
   </si>
@@ -4412,7 +4412,7 @@
     <t>Created</t>
   </si>
   <si>
-    <t>2019-08-19 17:26:14</t>
+    <t>2019-08-20 11:04:41</t>
   </si>
   <si>
     <t>Updated</t>
@@ -4433,6 +4433,12 @@
     <t>Evidence</t>
   </si>
   <si>
+    <t>rna_submodel</t>
+  </si>
+  <si>
+    <t>stochastic_simulation_algorithm</t>
+  </si>
+  <si>
     <t>Initial volume</t>
   </si>
   <si>
@@ -4553,6 +4559,15 @@
     <t>C10H12N5O13P3</t>
   </si>
   <si>
+    <t>atp_synthase</t>
+  </si>
+  <si>
+    <t>ATP synthase</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
     <t>cmp</t>
   </si>
   <si>
@@ -4577,6 +4592,12 @@
     <t>C9H12N3O14P3</t>
   </si>
   <si>
+    <t>ctp_synthase</t>
+  </si>
+  <si>
+    <t>CTP synthase</t>
+  </si>
+  <si>
     <t>gmp</t>
   </si>
   <si>
@@ -4601,6 +4622,12 @@
     <t>C10H12N5O14P3</t>
   </si>
   <si>
+    <t>gtp_synthase</t>
+  </si>
+  <si>
+    <t>GTP synthase</t>
+  </si>
+  <si>
     <t>h</t>
   </si>
   <si>
@@ -4631,6 +4658,63 @@
     <t>HO7P2</t>
   </si>
   <si>
+    <t>rna_1</t>
+  </si>
+  <si>
+    <t>RNA 1</t>
+  </si>
+  <si>
+    <t>UACGGUGAUAUGUUC</t>
+  </si>
+  <si>
+    <t>bpforms</t>
+  </si>
+  <si>
+    <t>rna</t>
+  </si>
+  <si>
+    <t>C142H160N53O109P15</t>
+  </si>
+  <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>rna_2</t>
+  </si>
+  <si>
+    <t>RNA 2</t>
+  </si>
+  <si>
+    <t>CAUCCUAUCUUCAUA</t>
+  </si>
+  <si>
+    <t>C139H160N47O108P15</t>
+  </si>
+  <si>
+    <t>rna_3</t>
+  </si>
+  <si>
+    <t>RNA 3</t>
+  </si>
+  <si>
+    <t>GCGAUU</t>
+  </si>
+  <si>
+    <t>C57H65N22O44P6</t>
+  </si>
+  <si>
+    <t>rna_pol</t>
+  </si>
+  <si>
+    <t>RNA polymerase</t>
+  </si>
+  <si>
+    <t>rna_se</t>
+  </si>
+  <si>
+    <t>RNAse</t>
+  </si>
+  <si>
     <t>ump</t>
   </si>
   <si>
@@ -4655,12 +4739,141 @@
     <t>C9H11N2O15P3</t>
   </si>
   <si>
+    <t>utp_synthase</t>
+  </si>
+  <si>
+    <t>UTP synthase</t>
+  </si>
+  <si>
     <t>Species type</t>
   </si>
   <si>
     <t>Compartment</t>
   </si>
   <si>
+    <t>amp[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>atp[c]</t>
+  </si>
+  <si>
+    <t>atp_synthase[c]</t>
+  </si>
+  <si>
+    <t>cmp[c]</t>
+  </si>
+  <si>
+    <t>ctp[c]</t>
+  </si>
+  <si>
+    <t>ctp_synthase[c]</t>
+  </si>
+  <si>
+    <t>gmp[c]</t>
+  </si>
+  <si>
+    <t>gtp[c]</t>
+  </si>
+  <si>
+    <t>gtp_synthase[c]</t>
+  </si>
+  <si>
+    <t>h2o[c]</t>
+  </si>
+  <si>
+    <t>h[c]</t>
+  </si>
+  <si>
+    <t>ppi[c]</t>
+  </si>
+  <si>
+    <t>rna_1[c]</t>
+  </si>
+  <si>
+    <t>rna_2[c]</t>
+  </si>
+  <si>
+    <t>rna_3[c]</t>
+  </si>
+  <si>
+    <t>rna_pol[c]</t>
+  </si>
+  <si>
+    <t>rna_se[c]</t>
+  </si>
+  <si>
+    <t>ump[c]</t>
+  </si>
+  <si>
+    <t>utp[c]</t>
+  </si>
+  <si>
+    <t>utp_synthase[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-amp[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-atp[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-atp_synthase[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-cmp[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-ctp[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-ctp_synthase[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-gmp[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-gtp[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-gtp_synthase[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-h2o[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-h[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-ppi[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-rna_1[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-rna_2[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-rna_3[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-rna_pol[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-rna_se[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-ump[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-utp[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-utp_synthase[c]</t>
+  </si>
+  <si>
     <t>Expression</t>
   </si>
   <si>
@@ -4691,6 +4904,45 @@
     <t>Maximum</t>
   </si>
   <si>
+    <t>syn_atp</t>
+  </si>
+  <si>
+    <t>synthesis ATP</t>
+  </si>
+  <si>
+    <t>[c]: amp + h + ppi ==&gt; atp + h2o</t>
+  </si>
+  <si>
+    <t>1 / second</t>
+  </si>
+  <si>
+    <t>syn_ctp</t>
+  </si>
+  <si>
+    <t>synthesis CTP</t>
+  </si>
+  <si>
+    <t>[c]: cmp + h + ppi ==&gt; ctp + h2o</t>
+  </si>
+  <si>
+    <t>syn_gtp</t>
+  </si>
+  <si>
+    <t>synthesis GTP</t>
+  </si>
+  <si>
+    <t>[c]: gmp + h + ppi ==&gt; gtp + h2o</t>
+  </si>
+  <si>
+    <t>syn_utp</t>
+  </si>
+  <si>
+    <t>synthesis UTP</t>
+  </si>
+  <si>
+    <t>[c]: h + ppi + ump ==&gt; h2o + utp</t>
+  </si>
+  <si>
     <t>Reaction</t>
   </si>
   <si>
@@ -4722,6 +4974,15 @@
   </si>
   <si>
     <t>gram / liter</t>
+  </si>
+  <si>
+    <t>half_life_rna_1</t>
+  </si>
+  <si>
+    <t>half_life_rna_2</t>
+  </si>
+  <si>
+    <t>half_life_rna_3</t>
   </si>
   <si>
     <t>Genotype</t>
@@ -5274,7 +5535,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.01" customHeight="1">
@@ -5292,7 +5553,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.01" customHeight="1">
@@ -5301,7 +5562,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.01" customHeight="1">
@@ -5310,7 +5571,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.01" customHeight="1">
@@ -5337,7 +5598,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.01" customHeight="1">
@@ -5382,7 +5643,7 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.01" customHeight="1">
@@ -5503,10 +5764,10 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>62</v>
@@ -5575,10 +5836,10 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>62</v>
@@ -5598,14 +5859,14 @@
     </row>
     <row r="2" spans="1:9" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -5641,7 +5902,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -5662,13 +5923,13 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -5684,25 +5945,25 @@
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>62</v>
@@ -5720,47 +5981,159 @@
         <v>46</v>
       </c>
     </row>
+    <row r="3" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:N2"/>
+  <autoFilter ref="A2:N6"/>
   <mergeCells count="1">
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A2:A3">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A3:A6">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B6">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Submodel" error="Value must be a value from &quot;Submodels:A&quot; or blank." promptTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." sqref="C2:C3">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Submodel" error="Value must be a value from &quot;Submodels:A&quot; or blank." promptTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." sqref="C3:C6">
       <formula1>'Submodels'!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Participants" error="Value must be a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" promptTitle="Participants" prompt="Enter a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" sqref="D2:D3"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reversible" error="Enter a Boolean value&#10;&#10;Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="Reversible" prompt="Enter a Boolean value&#10;&#10;Select &quot;True&quot; or &quot;False&quot;." sqref="E2:E3">
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Participants" error="Value must be a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" promptTitle="Participants" prompt="Enter a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" sqref="D3:D6"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reversible" error="Enter a Boolean value&#10;&#10;Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="Reversible" prompt="Enter a Boolean value&#10;&#10;Select &quot;True&quot; or &quot;False&quot;." sqref="E3:E6">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Rate units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="F2:F3">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Rate units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="F3:F6">
       <formula1>"1 / second"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Minimum" error="Value must be a float or blank." promptTitle="Minimum" prompt="Enter a float or blank." sqref="G2:G3">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Minimum" error="Value must be a float or blank." promptTitle="Minimum" prompt="Enter a float or blank." sqref="G3:G6">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Maximum" error="Value must be a float or blank." promptTitle="Maximum" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="H2:H3">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Maximum" error="Value must be a float or blank." promptTitle="Maximum" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="H3:H6">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot; or blank." sqref="I2:I3">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot; or blank." sqref="I3:I6">
       <formula1>"molar / second"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J2:J3"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="K2:K3"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="L2:L3"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="M2:M3">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J3:J6"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="K3:K6"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="L3:L6"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="M3:M6">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N2:N3"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N3:N6"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5790,19 +6163,19 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>158</v>
+        <v>242</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>62</v>
@@ -5879,19 +6252,19 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>62</v>
@@ -5968,13 +6341,13 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>62</v>
@@ -6048,16 +6421,16 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>62</v>
@@ -6113,7 +6486,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6134,16 +6507,16 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>62</v>
@@ -6163,7 +6536,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6172,7 +6545,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -6182,7 +6555,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6201,7 +6574,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.01" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6210,7 +6583,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -6218,35 +6591,92 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
+    <row r="5" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>180</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>180</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>180</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:K4"/>
+  <autoFilter ref="A1:K7"/>
   <dataValidations count="11">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A2:A4">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A2:A7">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B4">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B7">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C2:C4">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C2:C7">
       <formula1>"kinetic_constant,K_i,K_m,k_cat,v_max"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D2:D4">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D2:D7">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="E2:E4">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="E2:E7">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." sqref="F2:F4"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G2:G4"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="H2:H4"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I2:I4"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="J2:J4">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." sqref="F2:F7"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G2:G7"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="H2:H7"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I2:I7"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="J2:J7">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K2:K4"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K2:K7"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6276,10 +6706,10 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>62</v>
@@ -6348,10 +6778,10 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5" t="s">
-        <v>169</v>
+        <v>256</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>169</v>
+        <v>256</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>28</v>
@@ -6374,16 +6804,16 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="5" t="s">
-        <v>170</v>
+        <v>257</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>170</v>
+        <v>257</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
@@ -6397,22 +6827,22 @@
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>68</v>
@@ -6421,22 +6851,22 @@
         <v>69</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>174</v>
+        <v>261</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>51</v>
@@ -6766,10 +7196,10 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -6786,16 +7216,16 @@
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>51</v>
@@ -6819,7 +7249,7 @@
         <v>47</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -6892,46 +7322,46 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>182</v>
+        <v>269</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>185</v>
+        <v>272</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>186</v>
+        <v>273</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>187</v>
+        <v>274</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>190</v>
+        <v>277</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>191</v>
+        <v>278</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>192</v>
+        <v>279</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>62</v>
@@ -7026,28 +7456,28 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>194</v>
+        <v>281</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>195</v>
+        <v>282</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>196</v>
+        <v>283</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>197</v>
+        <v>284</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>198</v>
+        <v>285</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>199</v>
+        <v>286</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>62</v>
@@ -7127,28 +7557,28 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>201</v>
+        <v>288</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>202</v>
+        <v>289</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>204</v>
+        <v>291</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>205</v>
+        <v>292</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>62</v>
@@ -7169,7 +7599,7 @@
         <v>47</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -7369,7 +7799,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7408,27 +7838,41 @@
         <v>46</v>
       </c>
     </row>
+    <row r="2" spans="1:8" ht="15.01" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:H2"/>
   <dataValidations count="8">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A1:A2">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A2">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B1:B2">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Framework" error="Value must be a comma-separated list of WC ontology terms &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." promptTitle="Framework" prompt="Enter a comma-separated list of WC ontology terms &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." sqref="C1:C2">
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Framework" error="Value must be a comma-separated list of WC ontology terms &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." promptTitle="Framework" prompt="Enter a comma-separated list of WC ontology terms &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." sqref="C2">
       <formula1>"dynamic_flux_balance_analysis,ordinary_differential_equations,stochastic_simulation_algorithm"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="D1:D2"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="E1:E2"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="F1:F2"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="G1:G2">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="D2"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="E2"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="F2"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="G2">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="H1:H2"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="H2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7459,29 +7903,29 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
@@ -7497,46 +7941,46 @@
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>62</v>
@@ -7556,26 +8000,26 @@
     </row>
     <row r="3" spans="1:21" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I3" s="3">
         <v>5e-17</v>
@@ -7584,13 +8028,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="N3" s="3">
         <v>7.75</v>
@@ -7599,7 +8043,7 @@
         <v>7.75</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -7676,7 +8120,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -7693,22 +8137,22 @@
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -7725,25 +8169,25 @@
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>62</v>
@@ -7763,20 +8207,20 @@
     </row>
     <row r="3" spans="1:14" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G3" s="3">
         <v>345.207761998</v>
@@ -7785,7 +8229,7 @@
         <v>-2</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -7795,20 +8239,20 @@
     </row>
     <row r="4" spans="1:14" ht="15.01" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G4" s="3">
         <v>503.149285994</v>
@@ -7817,7 +8261,7 @@
         <v>-4</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -7827,29 +8271,19 @@
     </row>
     <row r="5" spans="1:14" ht="15.01" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>105</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="3">
-        <v>321.181761998</v>
-      </c>
-      <c r="H5" s="3">
-        <v>-2</v>
-      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -7859,29 +8293,29 @@
     </row>
     <row r="6" spans="1:14" ht="15.01" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G6" s="3">
-        <v>479.123285994</v>
+        <v>321.181761998</v>
       </c>
       <c r="H6" s="3">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -7891,29 +8325,29 @@
     </row>
     <row r="7" spans="1:14" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G7" s="3">
-        <v>361.206761998</v>
+        <v>479.123285994</v>
       </c>
       <c r="H7" s="3">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -7923,29 +8357,19 @@
     </row>
     <row r="8" spans="1:14" ht="15.01" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="3">
-        <v>519.1482859939999</v>
-      </c>
-      <c r="H8" s="3">
-        <v>-4</v>
-      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -7955,29 +8379,29 @@
     </row>
     <row r="9" spans="1:14" ht="15.01" customHeight="1">
       <c r="A9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G9" s="3">
-        <v>1.008</v>
+        <v>361.206761998</v>
       </c>
       <c r="H9" s="3">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -7996,20 +8420,20 @@
         <v>133</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G10" s="3">
-        <v>18.015</v>
+        <v>519.1482859939999</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -8019,29 +8443,19 @@
     </row>
     <row r="11" spans="1:14" ht="15.01" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="3">
-        <v>174.948523996</v>
-      </c>
-      <c r="H11" s="3">
-        <v>-3</v>
-      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -8051,29 +8465,29 @@
     </row>
     <row r="12" spans="1:14" ht="15.01" customHeight="1">
       <c r="A12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G12" s="3">
-        <v>322.165761998</v>
+        <v>1.008</v>
       </c>
       <c r="H12" s="3">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -8083,29 +8497,29 @@
     </row>
     <row r="13" spans="1:14" ht="15.01" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G13" s="3">
-        <v>480.1072859940001</v>
+        <v>18.015</v>
       </c>
       <c r="H13" s="3">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -8113,45 +8527,309 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
+    <row r="14" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="3">
+        <v>174.948523996</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4817.710429969999</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-16</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4681.63642997</v>
+      </c>
+      <c r="H16" s="3">
+        <v>-16</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1948.099571988</v>
+      </c>
+      <c r="H17" s="3">
+        <v>-7</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="3">
+        <v>322.165761998</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-2</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" s="3">
+        <v>480.1072859940001</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:N13"/>
+  <autoFilter ref="A2:N22"/>
   <mergeCells count="1">
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A3:A13">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A3:A22">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B13">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B22">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Value" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="C3:C13">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Value" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="C3:C22">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Format" error="Value must be one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." promptTitle="Format" prompt="Select one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." sqref="D3:D13">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Format" error="Value must be one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." promptTitle="Format" prompt="Select one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." sqref="D3:D22">
       <formula1>"smiles,bpforms"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Alphabet" error="Value must be one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." promptTitle="Alphabet" prompt="Select one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." sqref="E3:E13">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Alphabet" error="Value must be one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." promptTitle="Alphabet" prompt="Select one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." sqref="E3:E22">
       <formula1>"dna,rna,protein,canonical_dna,canonical_rna,canonical_protein"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Empirical formula" error="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Value must be an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="Empirical formula" prompt="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Enter an empirical formula (e.g. &quot;H2O&quot;)." sqref="F3:F13"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Molecular weight" error="Value must be a float or blank." promptTitle="Molecular weight" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="G3:G13">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Empirical formula" error="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Value must be an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="Empirical formula" prompt="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Enter an empirical formula (e.g. &quot;H2O&quot;)." sqref="F3:F22"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Molecular weight" error="Value must be a float or blank." promptTitle="Molecular weight" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="G3:G22">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Charge" error="Value must be an integer." promptTitle="Charge" prompt="Enter an integer." sqref="H3:H13">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Charge" error="Value must be an integer." promptTitle="Charge" prompt="Enter an integer." sqref="H3:H22">
       <formula1>-32768</formula1>
       <formula2>32767</formula2>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;I ..." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;Ion&quot;, &quot;am ..." sqref="I3:I13"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J3:J13"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="K3:K13"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="L3:L13"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="M3:M13">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;I ..." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;Ion&quot;, &quot;am ..." sqref="I3:I22"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J3:J22"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="K3:K22"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="L3:L22"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="M3:M22">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N3:N13"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N3:N22"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8160,7 +8838,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8181,13 +8859,13 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>62</v>
@@ -8205,32 +8883,432 @@
         <v>46</v>
       </c>
     </row>
+    <row r="2" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:J1"/>
+  <autoFilter ref="A1:J21"/>
   <dataValidations count="10">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A1:A2">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A21">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B1:B2">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B21">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species type" error="Value must be a value from &quot;Species types:A&quot;." promptTitle="Species type" prompt="Select a value from &quot;Species types:A&quot;." sqref="C1:C2">
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species type" error="Value must be a value from &quot;Species types:A&quot;." promptTitle="Species type" prompt="Select a value from &quot;Species types:A&quot;." sqref="C2:C21">
       <formula1>'Species types'!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Compartment" error="Value must be a value from &quot;Compartments:A&quot;." promptTitle="Compartment" prompt="Select a value from &quot;Compartments:A&quot;." sqref="D1:D2">
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Compartment" error="Value must be a value from &quot;Compartments:A&quot;." promptTitle="Compartment" prompt="Select a value from &quot;Compartments:A&quot;." sqref="D2:D21">
       <formula1>'Compartments'!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." sqref="E1:E2">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." sqref="E2:E21">
       <formula1>"molecule"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="F1:F2"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="G1:G2"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="H1:H2"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="I1:I2">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="F2:F21"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="G2:G21"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="H2:H21"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="I2:I21">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="J1:J2"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="J2:J21"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8239,7 +9317,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8263,16 +9341,16 @@
         <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>62</v>
@@ -8290,36 +9368,516 @@
         <v>46</v>
       </c>
     </row>
+    <row r="2" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1656088735.675</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1505.53521425</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1505.53521425</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:L21"/>
   <dataValidations count="12">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A1:A2">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A21">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B1:B2">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B21">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species" error="Value must be a value from &quot;Species:A&quot;." promptTitle="Species" prompt="Select a value from &quot;Species:A&quot;." sqref="C1:C2">
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species" error="Value must be a value from &quot;Species:A&quot;." promptTitle="Species" prompt="Select a value from &quot;Species:A&quot;." sqref="C2:C21">
       <formula1>'Species'!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Distribution" error="Value must be a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;W ..." promptTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_d ..." sqref="D1:D2"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="E1:E2">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Distribution" error="Value must be a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;W ..." promptTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_d ..." sqref="D2:D21"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="E2:E21">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard deviation" error="Value must be a float or blank." promptTitle="Standard deviation" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="F1:F2">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard deviation" error="Value must be a float or blank." promptTitle="Standard deviation" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="F2:F21">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." sqref="G1:G2">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." sqref="G2:G21">
       <formula1>"molecule,molar,millimolar,micromolar,nanomolar,picomolar,femtomolar,attomolar"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H1:H2"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="I1:I2"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J1:J2"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="K1:K2">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H2:H21"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="I2:I21"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J2:J21"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="K2:K21">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L1:L2"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L2:L21"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/rand_wc_model_gen/model_gen/model_2.xlsx
+++ b/rand_wc_model_gen/model_gen/model_2.xlsx
@@ -45,8 +45,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Observables!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'Observation sets'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">Observations!$A$2:$W$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Parameters!$A$1:$K$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Rate laws'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Parameters!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Rate laws'!$A$1:$L$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Reactions!$A$2:$N$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">References!$A$1:$R$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$2:$N$22</definedName>
@@ -4215,7 +4215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="318">
   <si>
     <t>'Model'!A1</t>
   </si>
@@ -4412,7 +4412,7 @@
     <t>Created</t>
   </si>
   <si>
-    <t>2019-08-20 11:04:41</t>
+    <t>2019-08-20 15:45:20</t>
   </si>
   <si>
     <t>Updated</t>
@@ -4664,7 +4664,7 @@
     <t>RNA 1</t>
   </si>
   <si>
-    <t>UACGGUGAUAUGUUC</t>
+    <t>CUGCUG</t>
   </si>
   <si>
     <t>bpforms</t>
@@ -4673,7 +4673,7 @@
     <t>rna</t>
   </si>
   <si>
-    <t>C142H160N53O109P15</t>
+    <t>C56H65N20O45P6</t>
   </si>
   <si>
     <t>RNA</t>
@@ -4685,10 +4685,10 @@
     <t>RNA 2</t>
   </si>
   <si>
-    <t>CAUCCUAUCUUCAUA</t>
-  </si>
-  <si>
-    <t>C139H160N47O108P15</t>
+    <t>GGCGUCAGUGCAUCUACCCACGCGGUG</t>
+  </si>
+  <si>
+    <t>C256H293N102O191P27</t>
   </si>
   <si>
     <t>rna_3</t>
@@ -4697,10 +4697,10 @@
     <t>RNA 3</t>
   </si>
   <si>
-    <t>GCGAUU</t>
-  </si>
-  <si>
-    <t>C57H65N22O44P6</t>
+    <t>AGAUAAGGCUCGGGACGGUAGCGACAC</t>
+  </si>
+  <si>
+    <t>C261H295N114O185P27</t>
   </si>
   <si>
     <t>rna_pol</t>
@@ -4949,6 +4949,33 @@
     <t>Direction</t>
   </si>
   <si>
+    <t>syn_atp-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>kcat_syn_atp* (amp[c] / (km_syn_atp_amp * Avogadro * volume_c + amp[c])) * (ppi[c] / (km_syn_atp_ppi * Avogadro * volume_c + ppi[c]))</t>
+  </si>
+  <si>
+    <t>syn_ctp-forward</t>
+  </si>
+  <si>
+    <t>kcat_syn_ctp* (cmp[c] / (km_syn_ctp_cmp * Avogadro * volume_c + cmp[c])) * (ppi[c] / (km_syn_ctp_ppi * Avogadro * volume_c + ppi[c]))</t>
+  </si>
+  <si>
+    <t>syn_gtp-forward</t>
+  </si>
+  <si>
+    <t>kcat_syn_gtp* (gmp[c] / (km_syn_gtp_gmp * Avogadro * volume_c + gmp[c])) * (ppi[c] / (km_syn_gtp_ppi * Avogadro * volume_c + ppi[c]))</t>
+  </si>
+  <si>
+    <t>syn_utp-forward</t>
+  </si>
+  <si>
+    <t>kcat_syn_utp* (ump[c] / (km_syn_utp_ump * Avogadro * volume_c + ump[c])) * (ppi[c] / (km_syn_utp_ppi * Avogadro * volume_c + ppi[c]))</t>
+  </si>
+  <si>
     <t>Reaction rate units</t>
   </si>
   <si>
@@ -4983,6 +5010,51 @@
   </si>
   <si>
     <t>half_life_rna_3</t>
+  </si>
+  <si>
+    <t>kcat_syn_atp</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>kcat_syn_ctp</t>
+  </si>
+  <si>
+    <t>kcat_syn_gtp</t>
+  </si>
+  <si>
+    <t>kcat_syn_utp</t>
+  </si>
+  <si>
+    <t>km_syn_atp_amp</t>
+  </si>
+  <si>
+    <t>K_m</t>
+  </si>
+  <si>
+    <t>molar</t>
+  </si>
+  <si>
+    <t>km_syn_atp_ppi</t>
+  </si>
+  <si>
+    <t>km_syn_ctp_cmp</t>
+  </si>
+  <si>
+    <t>km_syn_ctp_ppi</t>
+  </si>
+  <si>
+    <t>km_syn_gtp_gmp</t>
+  </si>
+  <si>
+    <t>km_syn_gtp_ppi</t>
+  </si>
+  <si>
+    <t>km_syn_utp_ppi</t>
+  </si>
+  <si>
+    <t>km_syn_utp_ump</t>
   </si>
   <si>
     <t>Genotype</t>
@@ -5607,7 +5679,7 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.01" customHeight="1">
@@ -5643,7 +5715,7 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.01" customHeight="1">
@@ -6142,7 +6214,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6193,36 +6265,132 @@
         <v>46</v>
       </c>
     </row>
+    <row r="2" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:L5"/>
   <dataValidations count="12">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A1:A2">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A5">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B1:B2">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B5">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reaction" error="Value must be a value from &quot;Reactions:A&quot; or blank." promptTitle="Reaction" prompt="Select a value from &quot;Reactions:A&quot; or blank." sqref="C1:C2">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reaction" error="Value must be a value from &quot;Reactions:A&quot; or blank." promptTitle="Reaction" prompt="Select a value from &quot;Reactions:A&quot; or blank." sqref="C2:C5">
       <formula1>'Reactions'!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Direction" error="Value must be one of &quot;backward&quot;, &quot;forward&quot;." promptTitle="Direction" prompt="Select one of &quot;backward&quot;, &quot;forward&quot;." sqref="D1:D2">
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Direction" error="Value must be one of &quot;backward&quot;, &quot;forward&quot;." promptTitle="Direction" prompt="Select one of &quot;backward&quot;, &quot;forward&quot;." sqref="D2:D5">
       <formula1>"backward,forward"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." sqref="E1:E2">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." sqref="E2:E5">
       <formula1>"Michaelis_Menten_rate_law,hill_rate_law,mass_action_rate_law,modular_rate_law"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="F1:F2"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="G1:G2">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="F2:F5"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="G2:G5">
       <formula1>"1 / second"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H1:H2"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="I1:I2"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J1:J2"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="K1:K2">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H2:H5"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="I2:I5"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J2:J5"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="K2:K5">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L1:L2"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L2:L5"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6261,10 +6429,10 @@
         <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>62</v>
@@ -6347,7 +6515,7 @@
         <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>62</v>
@@ -6421,7 +6589,7 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>32</v>
@@ -6486,7 +6654,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6513,7 +6681,7 @@
         <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>84</v>
@@ -6536,7 +6704,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6545,7 +6713,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -6555,7 +6723,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6583,7 +6751,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -6593,7 +6761,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.01" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6612,7 +6780,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.01" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6631,7 +6799,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6648,35 +6816,287 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
+    <row r="8" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.003080654</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.003080654</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.003080654</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.003080654</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5e-05</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5e-05</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5e-05</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5e-05</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:K7"/>
+  <autoFilter ref="A1:K19"/>
   <dataValidations count="11">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A2:A7">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A2:A19">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B7">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B19">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C2:C7">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C2:C19">
       <formula1>"kinetic_constant,K_i,K_m,k_cat,v_max"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D2:D7">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D2:D19">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="E2:E7">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="E2:E19">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." sqref="F2:F7"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G2:G7"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="H2:H7"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I2:I7"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="J2:J7">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." sqref="F2:F19"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G2:G19"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="H2:H19"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I2:I19"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="J2:J19">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K2:K7"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K2:K19"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6778,10 +7198,10 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>28</v>
@@ -6804,16 +7224,16 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="5" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
@@ -6830,7 +7250,7 @@
         <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>84</v>
@@ -6842,7 +7262,7 @@
         <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>68</v>
@@ -6854,19 +7274,19 @@
         <v>75</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>51</v>
@@ -7196,10 +7616,10 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -7219,7 +7639,7 @@
         <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>84</v>
@@ -7249,7 +7669,7 @@
         <v>47</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -7322,46 +7742,46 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>103</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>62</v>
@@ -7456,28 +7876,28 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>62</v>
@@ -7560,25 +7980,25 @@
         <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>62</v>
@@ -7599,7 +8019,7 @@
         <v>47</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -8579,10 +8999,10 @@
         <v>152</v>
       </c>
       <c r="G15" s="3">
-        <v>4817.710429969999</v>
+        <v>1924.073571988</v>
       </c>
       <c r="H15" s="3">
-        <v>-16</v>
+        <v>-7</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>153</v>
@@ -8613,10 +9033,10 @@
         <v>157</v>
       </c>
       <c r="G16" s="3">
-        <v>4681.63642997</v>
+        <v>8690.974573946</v>
       </c>
       <c r="H16" s="3">
-        <v>-16</v>
+        <v>-28</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>153</v>
@@ -8647,10 +9067,10 @@
         <v>161</v>
       </c>
       <c r="G17" s="3">
-        <v>1948.099571988</v>
+        <v>8825.135573946</v>
       </c>
       <c r="H17" s="3">
-        <v>-7</v>
+        <v>-28</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>153</v>

--- a/rand_wc_model_gen/model_gen/model_2.xlsx
+++ b/rand_wc_model_gen/model_gen/model_2.xlsx
@@ -45,9 +45,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Observables!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'Observation sets'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">Observations!$A$2:$W$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Parameters!$A$1:$K$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Rate laws'!$A$1:$L$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Reactions!$A$2:$N$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Parameters!$A$1:$K$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Rate laws'!$A$1:$L$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Reactions!$A$2:$N$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">References!$A$1:$R$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$2:$N$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Species!$A$1:$J$21</definedName>
@@ -4215,7 +4215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="341">
   <si>
     <t>'Model'!A1</t>
   </si>
@@ -4412,7 +4412,7 @@
     <t>Created</t>
   </si>
   <si>
-    <t>2019-08-20 15:45:20</t>
+    <t>2019-08-21 10:50:22</t>
   </si>
   <si>
     <t>Updated</t>
@@ -4664,7 +4664,7 @@
     <t>RNA 1</t>
   </si>
   <si>
-    <t>CUGCUG</t>
+    <t>GGGGCCGUACCUAUC</t>
   </si>
   <si>
     <t>bpforms</t>
@@ -4673,7 +4673,7 @@
     <t>rna</t>
   </si>
   <si>
-    <t>C56H65N20O45P6</t>
+    <t>C142H163N56O107P15</t>
   </si>
   <si>
     <t>RNA</t>
@@ -4685,10 +4685,10 @@
     <t>RNA 2</t>
   </si>
   <si>
-    <t>GGCGUCAGUGCAUCUACCCACGCGGUG</t>
-  </si>
-  <si>
-    <t>C256H293N102O191P27</t>
+    <t>AACUUCGUUGAUUCC</t>
+  </si>
+  <si>
+    <t>C140H160N49O109P15</t>
   </si>
   <si>
     <t>rna_3</t>
@@ -4697,10 +4697,10 @@
     <t>RNA 3</t>
   </si>
   <si>
-    <t>AGAUAAGGCUCGGGACGGUAGCGACAC</t>
-  </si>
-  <si>
-    <t>C261H295N114O185P27</t>
+    <t>GAUCCC</t>
+  </si>
+  <si>
+    <t>C56H66N21O43P6</t>
   </si>
   <si>
     <t>rna_pol</t>
@@ -4943,6 +4943,33 @@
     <t>[c]: h + ppi + ump ==&gt; h2o + utp</t>
   </si>
   <si>
+    <t>transcription_rna_1</t>
+  </si>
+  <si>
+    <t>transcription RNA 1</t>
+  </si>
+  <si>
+    <t>[c]: (2) atp + (5) ctp + (5) gtp + h2o + (3) utp ==&gt; h + (15) ppi + rna_1</t>
+  </si>
+  <si>
+    <t>transcription_rna_2</t>
+  </si>
+  <si>
+    <t>transcription RNA 2</t>
+  </si>
+  <si>
+    <t>[c]: (3) atp + (4) ctp + (2) gtp + h2o + (6) utp ==&gt; h + (15) ppi + rna_2</t>
+  </si>
+  <si>
+    <t>transcription_rna_3</t>
+  </si>
+  <si>
+    <t>transcription RNA 3</t>
+  </si>
+  <si>
+    <t>[c]: atp + (3) ctp + gtp + h2o + utp ==&gt; h + (6) ppi + rna_3</t>
+  </si>
+  <si>
     <t>Reaction</t>
   </si>
   <si>
@@ -4976,6 +5003,24 @@
     <t>kcat_syn_utp* (ump[c] / (km_syn_utp_ump * Avogadro * volume_c + ump[c])) * (ppi[c] / (km_syn_utp_ppi * Avogadro * volume_c + ppi[c]))</t>
   </si>
   <si>
+    <t>transcription_rna_1-forward</t>
+  </si>
+  <si>
+    <t>k_trans_rna_1 * (atp[c] / (km_atp_trans * Avogadro * volume_c + atp[c])) * (gtp[c] / (km_gtp_trans * Avogadro * volume_c + gtp[c])) * (ctp[c] / (km_ctp_trans * Avogadro * volume_c + ctp[c])) * (utp[c] / (km_utp_trans * Avogadro * volume_c + utp[c])) * rna_pol[c] / (Avogadro * volume_c)</t>
+  </si>
+  <si>
+    <t>transcription_rna_2-forward</t>
+  </si>
+  <si>
+    <t>k_trans_rna_2 * (atp[c] / (km_atp_trans * Avogadro * volume_c + atp[c])) * (gtp[c] / (km_gtp_trans * Avogadro * volume_c + gtp[c])) * (ctp[c] / (km_ctp_trans * Avogadro * volume_c + ctp[c])) * (utp[c] / (km_utp_trans * Avogadro * volume_c + utp[c])) * rna_pol[c] / (Avogadro * volume_c)</t>
+  </si>
+  <si>
+    <t>transcription_rna_3-forward</t>
+  </si>
+  <si>
+    <t>k_trans_rna_3 * (atp[c] / (km_atp_trans * Avogadro * volume_c + atp[c])) * (gtp[c] / (km_gtp_trans * Avogadro * volume_c + gtp[c])) * (ctp[c] / (km_ctp_trans * Avogadro * volume_c + ctp[c])) * (utp[c] / (km_utp_trans * Avogadro * volume_c + utp[c])) * rna_pol[c] / (Avogadro * volume_c)</t>
+  </si>
+  <si>
     <t>Reaction rate units</t>
   </si>
   <si>
@@ -5012,12 +5057,24 @@
     <t>half_life_rna_3</t>
   </si>
   <si>
+    <t>k_trans_rna_1</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>1 / molar / second</t>
+  </si>
+  <si>
+    <t>k_trans_rna_2</t>
+  </si>
+  <si>
+    <t>k_trans_rna_3</t>
+  </si>
+  <si>
     <t>kcat_syn_atp</t>
   </si>
   <si>
-    <t>k_cat</t>
-  </si>
-  <si>
     <t>kcat_syn_ctp</t>
   </si>
   <si>
@@ -5027,15 +5084,24 @@
     <t>kcat_syn_utp</t>
   </si>
   <si>
+    <t>km_atp_trans</t>
+  </si>
+  <si>
+    <t>K_m</t>
+  </si>
+  <si>
+    <t>molar</t>
+  </si>
+  <si>
+    <t>km_ctp_trans</t>
+  </si>
+  <si>
+    <t>km_gtp_trans</t>
+  </si>
+  <si>
     <t>km_syn_atp_amp</t>
   </si>
   <si>
-    <t>K_m</t>
-  </si>
-  <si>
-    <t>molar</t>
-  </si>
-  <si>
     <t>km_syn_atp_ppi</t>
   </si>
   <si>
@@ -5055,6 +5121,9 @@
   </si>
   <si>
     <t>km_syn_utp_ump</t>
+  </si>
+  <si>
+    <t>km_utp_trans</t>
   </si>
   <si>
     <t>Genotype</t>
@@ -5670,7 +5739,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.01" customHeight="1">
@@ -5679,7 +5748,7 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.01" customHeight="1">
@@ -5715,7 +5784,7 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.01" customHeight="1">
@@ -5974,7 +6043,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -6165,47 +6234,131 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
+    <row r="7" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:N6"/>
+  <autoFilter ref="A2:N9"/>
   <mergeCells count="1">
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A3:A6">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A3:A9">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B6">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B9">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Submodel" error="Value must be a value from &quot;Submodels:A&quot; or blank." promptTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." sqref="C3:C6">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Submodel" error="Value must be a value from &quot;Submodels:A&quot; or blank." promptTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." sqref="C3:C9">
       <formula1>'Submodels'!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Participants" error="Value must be a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" promptTitle="Participants" prompt="Enter a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" sqref="D3:D6"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reversible" error="Enter a Boolean value&#10;&#10;Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="Reversible" prompt="Enter a Boolean value&#10;&#10;Select &quot;True&quot; or &quot;False&quot;." sqref="E3:E6">
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Participants" error="Value must be a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" promptTitle="Participants" prompt="Enter a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" sqref="D3:D9"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reversible" error="Enter a Boolean value&#10;&#10;Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="Reversible" prompt="Enter a Boolean value&#10;&#10;Select &quot;True&quot; or &quot;False&quot;." sqref="E3:E9">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Rate units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="F3:F6">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Rate units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="F3:F9">
       <formula1>"1 / second"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Minimum" error="Value must be a float or blank." promptTitle="Minimum" prompt="Enter a float or blank." sqref="G3:G6">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Minimum" error="Value must be a float or blank." promptTitle="Minimum" prompt="Enter a float or blank." sqref="G3:G9">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Maximum" error="Value must be a float or blank." promptTitle="Maximum" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="H3:H6">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Maximum" error="Value must be a float or blank." promptTitle="Maximum" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="H3:H9">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot; or blank." sqref="I3:I6">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot; or blank." sqref="I3:I9">
       <formula1>"molar / second"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J3:J6"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="K3:K6"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="L3:L6"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="M3:M6">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J3:J9"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="K3:K9"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="L3:L9"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="M3:M9">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N3:N6"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N3:N9"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6214,7 +6367,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6235,10 +6388,10 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>103</v>
@@ -6267,18 +6420,18 @@
     </row>
     <row r="2" spans="1:12" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
         <v>229</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>232</v>
@@ -6291,18 +6444,18 @@
     </row>
     <row r="3" spans="1:12" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>233</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>232</v>
@@ -6315,18 +6468,18 @@
     </row>
     <row r="4" spans="1:12" ht="15.01" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>236</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>232</v>
@@ -6339,18 +6492,18 @@
     </row>
     <row r="5" spans="1:12" ht="15.01" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>232</v>
@@ -6361,36 +6514,108 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
+    <row r="6" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:L5"/>
+  <autoFilter ref="A1:L8"/>
   <dataValidations count="12">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A5">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A8">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B5">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B8">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reaction" error="Value must be a value from &quot;Reactions:A&quot; or blank." promptTitle="Reaction" prompt="Select a value from &quot;Reactions:A&quot; or blank." sqref="C2:C5">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reaction" error="Value must be a value from &quot;Reactions:A&quot; or blank." promptTitle="Reaction" prompt="Select a value from &quot;Reactions:A&quot; or blank." sqref="C2:C8">
       <formula1>'Reactions'!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Direction" error="Value must be one of &quot;backward&quot;, &quot;forward&quot;." promptTitle="Direction" prompt="Select one of &quot;backward&quot;, &quot;forward&quot;." sqref="D2:D5">
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Direction" error="Value must be one of &quot;backward&quot;, &quot;forward&quot;." promptTitle="Direction" prompt="Select one of &quot;backward&quot;, &quot;forward&quot;." sqref="D2:D8">
       <formula1>"backward,forward"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." sqref="E2:E5">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." sqref="E2:E8">
       <formula1>"Michaelis_Menten_rate_law,hill_rate_law,mass_action_rate_law,modular_rate_law"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="F2:F5"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="G2:G5">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="F2:F8"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="G2:G8">
       <formula1>"1 / second"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H2:H5"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="I2:I5"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J2:J5"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="K2:K5">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H2:H8"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="I2:I8"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J2:J8"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="K2:K8">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L2:L5"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L2:L8"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6429,10 +6654,10 @@
         <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>62</v>
@@ -6515,7 +6740,7 @@
         <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>62</v>
@@ -6589,7 +6814,7 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>32</v>
@@ -6654,7 +6879,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6681,7 +6906,7 @@
         <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>84</v>
@@ -6704,7 +6929,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6713,7 +6938,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -6723,7 +6948,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6751,7 +6976,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -6761,7 +6986,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.01" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6780,7 +7005,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.01" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6799,7 +7024,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6818,18 +7043,18 @@
     </row>
     <row r="8" spans="1:11" ht="15.01" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="D8" s="3">
-        <v>0.003080654</v>
+        <v>0.03080654135821979</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -6839,18 +7064,18 @@
     </row>
     <row r="9" spans="1:11" ht="15.01" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="D9" s="3">
-        <v>0.003080654</v>
+        <v>0.03080654135821979</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -6860,18 +7085,18 @@
     </row>
     <row r="10" spans="1:11" ht="15.01" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="D10" s="3">
-        <v>0.003080654</v>
+        <v>0.03080654135821979</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -6881,11 +7106,11 @@
     </row>
     <row r="11" spans="1:11" ht="15.01" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="D11" s="3">
         <v>0.003080654</v>
@@ -6902,18 +7127,18 @@
     </row>
     <row r="12" spans="1:11" ht="15.01" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="D12" s="3">
-        <v>0.001</v>
+        <v>0.003080654</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -6923,18 +7148,18 @@
     </row>
     <row r="13" spans="1:11" ht="15.01" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="D13" s="3">
-        <v>5e-05</v>
+        <v>0.003080654</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -6944,18 +7169,18 @@
     </row>
     <row r="14" spans="1:11" ht="15.01" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="D14" s="3">
-        <v>0.001</v>
+        <v>0.003080654</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -6965,18 +7190,18 @@
     </row>
     <row r="15" spans="1:11" ht="15.01" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D15" s="3">
-        <v>5e-05</v>
+        <v>0.001</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -6986,18 +7211,18 @@
     </row>
     <row r="16" spans="1:11" ht="15.01" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D16" s="3">
         <v>0.001</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -7007,18 +7232,18 @@
     </row>
     <row r="17" spans="1:11" ht="15.01" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D17" s="3">
-        <v>5e-05</v>
+        <v>0.001</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -7028,18 +7253,18 @@
     </row>
     <row r="18" spans="1:11" ht="15.01" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D18" s="3">
-        <v>5e-05</v>
+        <v>0.001</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -7049,18 +7274,18 @@
     </row>
     <row r="19" spans="1:11" ht="15.01" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D19" s="3">
-        <v>0.001</v>
+        <v>5e-05</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -7068,35 +7293,182 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
+    <row r="20" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5e-05</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5e-05</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5e-05</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:K19"/>
+  <autoFilter ref="A1:K26"/>
   <dataValidations count="11">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A2:A19">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A2:A26">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B19">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B26">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C2:C19">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C2:C26">
       <formula1>"kinetic_constant,K_i,K_m,k_cat,v_max"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D2:D19">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D2:D26">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="E2:E19">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="E2:E26">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." sqref="F2:F19"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G2:G19"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="H2:H19"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I2:I19"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="J2:J19">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." sqref="F2:F26"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G2:G26"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="H2:H26"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I2:I26"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="J2:J26">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K2:K19"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K2:K26"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7198,10 +7570,10 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>28</v>
@@ -7224,16 +7596,16 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="5" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
@@ -7250,7 +7622,7 @@
         <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>84</v>
@@ -7262,7 +7634,7 @@
         <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>68</v>
@@ -7274,19 +7646,19 @@
         <v>75</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>51</v>
@@ -7616,10 +7988,10 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -7639,7 +8011,7 @@
         <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>84</v>
@@ -7669,7 +8041,7 @@
         <v>47</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -7742,46 +8114,46 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>103</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>62</v>
@@ -7876,28 +8248,28 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>62</v>
@@ -7980,25 +8352,25 @@
         <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>62</v>
@@ -8019,7 +8391,7 @@
         <v>47</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -8999,10 +9371,10 @@
         <v>152</v>
       </c>
       <c r="G15" s="3">
-        <v>1924.073571988</v>
+        <v>4830.75742997</v>
       </c>
       <c r="H15" s="3">
-        <v>-7</v>
+        <v>-16</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>153</v>
@@ -9033,10 +9405,10 @@
         <v>157</v>
       </c>
       <c r="G16" s="3">
-        <v>8690.974573946</v>
+        <v>4737.66042997</v>
       </c>
       <c r="H16" s="3">
-        <v>-28</v>
+        <v>-16</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>153</v>
@@ -9067,10 +9439,10 @@
         <v>161</v>
       </c>
       <c r="G17" s="3">
-        <v>8825.135573946</v>
+        <v>1907.090571988</v>
       </c>
       <c r="H17" s="3">
-        <v>-28</v>
+        <v>-7</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>153</v>

--- a/rand_wc_model_gen/model_gen/model_2.xlsx
+++ b/rand_wc_model_gen/model_gen/model_2.xlsx
@@ -41,16 +41,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'dFBA objective species'!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA objectives'!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Functions!$A$1:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Initial species concentrations'!$A$1:$L$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Initial species concentrations'!$A$1:$L$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Observables!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'Observation sets'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">Observations!$A$2:$W$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Parameters!$A$1:$K$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Rate laws'!$A$1:$L$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Reactions!$A$2:$N$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Parameters!$A$1:$K$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Rate laws'!$A$1:$L$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Reactions!$A$2:$N$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">References!$A$1:$R$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$2:$N$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Species!$A$1:$J$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$2:$N$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Species!$A$1:$J$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'Stop conditions'!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Submodels!$A$1:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$24</definedName>
@@ -4215,7 +4215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="397">
   <si>
     <t>'Model'!A1</t>
   </si>
@@ -4412,7 +4412,7 @@
     <t>Created</t>
   </si>
   <si>
-    <t>2019-08-21 10:50:22</t>
+    <t>2019-08-21 12:37:12</t>
   </si>
   <si>
     <t>Updated</t>
@@ -4664,7 +4664,7 @@
     <t>RNA 1</t>
   </si>
   <si>
-    <t>GGGGCCGUACCUAUC</t>
+    <t>UAAUCUGAUCCUGUU</t>
   </si>
   <si>
     <t>bpforms</t>
@@ -4673,7 +4673,7 @@
     <t>rna</t>
   </si>
   <si>
-    <t>C142H163N56O107P15</t>
+    <t>C140H159N48O110P15</t>
   </si>
   <si>
     <t>RNA</t>
@@ -4685,10 +4685,10 @@
     <t>RNA 2</t>
   </si>
   <si>
-    <t>AACUUCGUUGAUUCC</t>
-  </si>
-  <si>
-    <t>C140H160N49O109P15</t>
+    <t>GUUCGCACGUAA</t>
+  </si>
+  <si>
+    <t>C114H130N45O85P12</t>
   </si>
   <si>
     <t>rna_3</t>
@@ -4697,10 +4697,34 @@
     <t>RNA 3</t>
   </si>
   <si>
-    <t>GAUCCC</t>
-  </si>
-  <si>
-    <t>C56H66N21O43P6</t>
+    <t>AACGAAACAACACUUCUC</t>
+  </si>
+  <si>
+    <t>C171H196N69O122P18</t>
+  </si>
+  <si>
+    <t>rna_4</t>
+  </si>
+  <si>
+    <t>RNA 4</t>
+  </si>
+  <si>
+    <t>CCCUUACCGUAGAAA</t>
+  </si>
+  <si>
+    <t>C142H163N56O104P15</t>
+  </si>
+  <si>
+    <t>rna_5</t>
+  </si>
+  <si>
+    <t>RNA 5</t>
+  </si>
+  <si>
+    <t>UCUCCCCAAUGCGGU</t>
+  </si>
+  <si>
+    <t>C140H162N51O108P15</t>
   </si>
   <si>
     <t>rna_pol</t>
@@ -4799,6 +4823,12 @@
     <t>rna_3[c]</t>
   </si>
   <si>
+    <t>rna_4[c]</t>
+  </si>
+  <si>
+    <t>rna_5[c]</t>
+  </si>
+  <si>
     <t>rna_pol[c]</t>
   </si>
   <si>
@@ -4859,6 +4889,12 @@
     <t>dist-init-conc-rna_3[c]</t>
   </si>
   <si>
+    <t>dist-init-conc-rna_4[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-rna_5[c]</t>
+  </si>
+  <si>
     <t>dist-init-conc-rna_pol[c]</t>
   </si>
   <si>
@@ -4904,6 +4940,54 @@
     <t>Maximum</t>
   </si>
   <si>
+    <t>degradation_rna_1</t>
+  </si>
+  <si>
+    <t>transcription RNA 1</t>
+  </si>
+  <si>
+    <t>[c]: (14) h2o + rna_1 ==&gt; (3) amp + (3) cmp + (2) gmp + (14) h + (7) ump</t>
+  </si>
+  <si>
+    <t>1 / second</t>
+  </si>
+  <si>
+    <t>degradation_rna_2</t>
+  </si>
+  <si>
+    <t>transcription RNA 2</t>
+  </si>
+  <si>
+    <t>[c]: (11) h2o + rna_2 ==&gt; (3) amp + (3) cmp + (3) gmp + (11) h + (3) ump</t>
+  </si>
+  <si>
+    <t>degradation_rna_3</t>
+  </si>
+  <si>
+    <t>transcription RNA 3</t>
+  </si>
+  <si>
+    <t>[c]: (17) h2o + rna_3 ==&gt; (8) amp + (6) cmp + gmp + (17) h + (3) ump</t>
+  </si>
+  <si>
+    <t>degradation_rna_4</t>
+  </si>
+  <si>
+    <t>transcription RNA 4</t>
+  </si>
+  <si>
+    <t>[c]: (14) h2o + rna_4 ==&gt; (5) amp + (5) cmp + (2) gmp + (14) h + (3) ump</t>
+  </si>
+  <si>
+    <t>degradation_rna_5</t>
+  </si>
+  <si>
+    <t>transcription RNA 5</t>
+  </si>
+  <si>
+    <t>[c]: (14) h2o + rna_5 ==&gt; (2) amp + (6) cmp + (3) gmp + (14) h + (4) ump</t>
+  </si>
+  <si>
     <t>syn_atp</t>
   </si>
   <si>
@@ -4913,9 +4997,6 @@
     <t>[c]: amp + h + ppi ==&gt; atp + h2o</t>
   </si>
   <si>
-    <t>1 / second</t>
-  </si>
-  <si>
     <t>syn_ctp</t>
   </si>
   <si>
@@ -4946,28 +5027,31 @@
     <t>transcription_rna_1</t>
   </si>
   <si>
-    <t>transcription RNA 1</t>
-  </si>
-  <si>
-    <t>[c]: (2) atp + (5) ctp + (5) gtp + h2o + (3) utp ==&gt; h + (15) ppi + rna_1</t>
+    <t>[c]: (3) atp + (3) ctp + (2) gtp + h2o + (7) utp ==&gt; h + (15) ppi + rna_1</t>
   </si>
   <si>
     <t>transcription_rna_2</t>
   </si>
   <si>
-    <t>transcription RNA 2</t>
-  </si>
-  <si>
-    <t>[c]: (3) atp + (4) ctp + (2) gtp + h2o + (6) utp ==&gt; h + (15) ppi + rna_2</t>
+    <t>[c]: (3) atp + (3) ctp + (3) gtp + h2o + (3) utp ==&gt; h + (12) ppi + rna_2</t>
   </si>
   <si>
     <t>transcription_rna_3</t>
   </si>
   <si>
-    <t>transcription RNA 3</t>
-  </si>
-  <si>
-    <t>[c]: atp + (3) ctp + gtp + h2o + utp ==&gt; h + (6) ppi + rna_3</t>
+    <t>[c]: (8) atp + (6) ctp + gtp + h2o + (3) utp ==&gt; h + (18) ppi + rna_3</t>
+  </si>
+  <si>
+    <t>transcription_rna_4</t>
+  </si>
+  <si>
+    <t>[c]: (5) atp + (5) ctp + (2) gtp + h2o + (3) utp ==&gt; h + (15) ppi + rna_4</t>
+  </si>
+  <si>
+    <t>transcription_rna_5</t>
+  </si>
+  <si>
+    <t>[c]: (2) atp + (6) ctp + (3) gtp + h2o + (4) utp ==&gt; h + (15) ppi + rna_5</t>
   </si>
   <si>
     <t>Reaction</t>
@@ -4976,12 +5060,42 @@
     <t>Direction</t>
   </si>
   <si>
+    <t>degradation_rna_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>k_deg_rna_1 * rna_1[c] / (km_deg_rna_1 * Avogadro * volume_c + rna_1[c]) * rna_se[c] / (Avogadro * volume_c)</t>
+  </si>
+  <si>
+    <t>degradation_rna_2-forward</t>
+  </si>
+  <si>
+    <t>k_deg_rna_2 * rna_2[c] / (km_deg_rna_2 * Avogadro * volume_c + rna_2[c]) * rna_se[c] / (Avogadro * volume_c)</t>
+  </si>
+  <si>
+    <t>degradation_rna_3-forward</t>
+  </si>
+  <si>
+    <t>k_deg_rna_3 * rna_3[c] / (km_deg_rna_3 * Avogadro * volume_c + rna_3[c]) * rna_se[c] / (Avogadro * volume_c)</t>
+  </si>
+  <si>
+    <t>degradation_rna_4-forward</t>
+  </si>
+  <si>
+    <t>k_deg_rna_4 * rna_4[c] / (km_deg_rna_4 * Avogadro * volume_c + rna_4[c]) * rna_se[c] / (Avogadro * volume_c)</t>
+  </si>
+  <si>
+    <t>degradation_rna_5-forward</t>
+  </si>
+  <si>
+    <t>k_deg_rna_5 * rna_5[c] / (km_deg_rna_5 * Avogadro * volume_c + rna_5[c]) * rna_se[c] / (Avogadro * volume_c)</t>
+  </si>
+  <si>
     <t>syn_atp-forward</t>
   </si>
   <si>
-    <t>forward</t>
-  </si>
-  <si>
     <t>kcat_syn_atp* (amp[c] / (km_syn_atp_amp * Avogadro * volume_c + amp[c])) * (ppi[c] / (km_syn_atp_ppi * Avogadro * volume_c + ppi[c]))</t>
   </si>
   <si>
@@ -5021,6 +5135,18 @@
     <t>k_trans_rna_3 * (atp[c] / (km_atp_trans * Avogadro * volume_c + atp[c])) * (gtp[c] / (km_gtp_trans * Avogadro * volume_c + gtp[c])) * (ctp[c] / (km_ctp_trans * Avogadro * volume_c + ctp[c])) * (utp[c] / (km_utp_trans * Avogadro * volume_c + utp[c])) * rna_pol[c] / (Avogadro * volume_c)</t>
   </si>
   <si>
+    <t>transcription_rna_4-forward</t>
+  </si>
+  <si>
+    <t>k_trans_rna_4 * (atp[c] / (km_atp_trans * Avogadro * volume_c + atp[c])) * (gtp[c] / (km_gtp_trans * Avogadro * volume_c + gtp[c])) * (ctp[c] / (km_ctp_trans * Avogadro * volume_c + ctp[c])) * (utp[c] / (km_utp_trans * Avogadro * volume_c + utp[c])) * rna_pol[c] / (Avogadro * volume_c)</t>
+  </si>
+  <si>
+    <t>transcription_rna_5-forward</t>
+  </si>
+  <si>
+    <t>k_trans_rna_5 * (atp[c] / (km_atp_trans * Avogadro * volume_c + atp[c])) * (gtp[c] / (km_gtp_trans * Avogadro * volume_c + gtp[c])) * (ctp[c] / (km_ctp_trans * Avogadro * volume_c + ctp[c])) * (utp[c] / (km_utp_trans * Avogadro * volume_c + utp[c])) * rna_pol[c] / (Avogadro * volume_c)</t>
+  </si>
+  <si>
     <t>Reaction rate units</t>
   </si>
   <si>
@@ -5057,21 +5183,48 @@
     <t>half_life_rna_3</t>
   </si>
   <si>
+    <t>half_life_rna_4</t>
+  </si>
+  <si>
+    <t>half_life_rna_5</t>
+  </si>
+  <si>
+    <t>k_deg_rna_1</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>1 / molar / second</t>
+  </si>
+  <si>
+    <t>k_deg_rna_2</t>
+  </si>
+  <si>
+    <t>k_deg_rna_3</t>
+  </si>
+  <si>
+    <t>k_deg_rna_4</t>
+  </si>
+  <si>
+    <t>k_deg_rna_5</t>
+  </si>
+  <si>
     <t>k_trans_rna_1</t>
   </si>
   <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>1 / molar / second</t>
-  </si>
-  <si>
     <t>k_trans_rna_2</t>
   </si>
   <si>
     <t>k_trans_rna_3</t>
   </si>
   <si>
+    <t>k_trans_rna_4</t>
+  </si>
+  <si>
+    <t>k_trans_rna_5</t>
+  </si>
+  <si>
     <t>kcat_syn_atp</t>
   </si>
   <si>
@@ -5094,6 +5247,21 @@
   </si>
   <si>
     <t>km_ctp_trans</t>
+  </si>
+  <si>
+    <t>km_deg_rna_1</t>
+  </si>
+  <si>
+    <t>km_deg_rna_2</t>
+  </si>
+  <si>
+    <t>km_deg_rna_3</t>
+  </si>
+  <si>
+    <t>km_deg_rna_4</t>
+  </si>
+  <si>
+    <t>km_deg_rna_5</t>
   </si>
   <si>
     <t>km_gtp_trans</t>
@@ -5694,7 +5862,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.01" customHeight="1">
@@ -5703,7 +5871,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.01" customHeight="1">
@@ -5712,7 +5880,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.01" customHeight="1">
@@ -5739,7 +5907,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.01" customHeight="1">
@@ -5748,7 +5916,7 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.01" customHeight="1">
@@ -5784,7 +5952,7 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.01" customHeight="1">
@@ -5905,7 +6073,7 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>84</v>
@@ -5977,7 +6145,7 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>84</v>
@@ -6000,11 +6168,11 @@
     </row>
     <row r="2" spans="1:9" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>93</v>
@@ -6043,7 +6211,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -6064,13 +6232,13 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -6086,22 +6254,22 @@
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>84</v>
@@ -6124,22 +6292,22 @@
     </row>
     <row r="3" spans="1:14" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -6152,22 +6320,22 @@
     </row>
     <row r="4" spans="1:14" ht="15.01" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -6180,22 +6348,22 @@
     </row>
     <row r="5" spans="1:14" ht="15.01" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -6208,22 +6376,22 @@
     </row>
     <row r="6" spans="1:14" ht="15.01" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -6236,22 +6404,22 @@
     </row>
     <row r="7" spans="1:14" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -6264,22 +6432,22 @@
     </row>
     <row r="8" spans="1:14" ht="15.01" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -6292,22 +6460,22 @@
     </row>
     <row r="9" spans="1:14" ht="15.01" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -6318,47 +6486,243 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
+    <row r="10" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:N9"/>
+  <autoFilter ref="A2:N16"/>
   <mergeCells count="1">
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A3:A9">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A3:A16">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B9">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B16">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Submodel" error="Value must be a value from &quot;Submodels:A&quot; or blank." promptTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." sqref="C3:C9">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Submodel" error="Value must be a value from &quot;Submodels:A&quot; or blank." promptTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." sqref="C3:C16">
       <formula1>'Submodels'!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Participants" error="Value must be a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" promptTitle="Participants" prompt="Enter a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" sqref="D3:D9"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reversible" error="Enter a Boolean value&#10;&#10;Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="Reversible" prompt="Enter a Boolean value&#10;&#10;Select &quot;True&quot; or &quot;False&quot;." sqref="E3:E9">
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Participants" error="Value must be a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" promptTitle="Participants" prompt="Enter a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" sqref="D3:D16"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reversible" error="Enter a Boolean value&#10;&#10;Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="Reversible" prompt="Enter a Boolean value&#10;&#10;Select &quot;True&quot; or &quot;False&quot;." sqref="E3:E16">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Rate units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="F3:F9">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Rate units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="F3:F16">
       <formula1>"1 / second"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Minimum" error="Value must be a float or blank." promptTitle="Minimum" prompt="Enter a float or blank." sqref="G3:G9">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Minimum" error="Value must be a float or blank." promptTitle="Minimum" prompt="Enter a float or blank." sqref="G3:G16">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Maximum" error="Value must be a float or blank." promptTitle="Maximum" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="H3:H9">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Maximum" error="Value must be a float or blank." promptTitle="Maximum" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="H3:H16">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot; or blank." sqref="I3:I9">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot; or blank." sqref="I3:I16">
       <formula1>"molar / second"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J3:J9"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="K3:K9"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="L3:L9"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="M3:M9">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J3:J16"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="K3:K16"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="L3:L16"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="M3:M16">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N3:N9"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N3:N16"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6367,7 +6731,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6388,16 +6752,16 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>84</v>
@@ -6420,21 +6784,21 @@
     </row>
     <row r="2" spans="1:12" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -6444,21 +6808,21 @@
     </row>
     <row r="3" spans="1:12" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -6468,21 +6832,21 @@
     </row>
     <row r="4" spans="1:12" ht="15.01" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -6492,21 +6856,21 @@
     </row>
     <row r="5" spans="1:12" ht="15.01" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -6516,21 +6880,21 @@
     </row>
     <row r="6" spans="1:12" ht="15.01" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -6540,21 +6904,21 @@
     </row>
     <row r="7" spans="1:12" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -6564,21 +6928,21 @@
     </row>
     <row r="8" spans="1:12" ht="15.01" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -6586,36 +6950,204 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
+    <row r="9" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:L8"/>
+  <autoFilter ref="A1:L15"/>
   <dataValidations count="12">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A8">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A15">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B8">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B15">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reaction" error="Value must be a value from &quot;Reactions:A&quot; or blank." promptTitle="Reaction" prompt="Select a value from &quot;Reactions:A&quot; or blank." sqref="C2:C8">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reaction" error="Value must be a value from &quot;Reactions:A&quot; or blank." promptTitle="Reaction" prompt="Select a value from &quot;Reactions:A&quot; or blank." sqref="C2:C15">
       <formula1>'Reactions'!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Direction" error="Value must be one of &quot;backward&quot;, &quot;forward&quot;." promptTitle="Direction" prompt="Select one of &quot;backward&quot;, &quot;forward&quot;." sqref="D2:D8">
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Direction" error="Value must be one of &quot;backward&quot;, &quot;forward&quot;." promptTitle="Direction" prompt="Select one of &quot;backward&quot;, &quot;forward&quot;." sqref="D2:D15">
       <formula1>"backward,forward"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." sqref="E2:E8">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." sqref="E2:E15">
       <formula1>"Michaelis_Menten_rate_law,hill_rate_law,mass_action_rate_law,modular_rate_law"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="F2:F8"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="G2:G8">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="F2:F15"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="G2:G15">
       <formula1>"1 / second"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H2:H8"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="I2:I8"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J2:J8"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="K2:K8">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H2:H15"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="I2:I15"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J2:J15"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="K2:K15">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L2:L8"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L2:L15"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6645,19 +7177,19 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>62</v>
@@ -6734,13 +7266,13 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>62</v>
@@ -6814,7 +7346,7 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>32</v>
@@ -6879,7 +7411,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6906,7 +7438,7 @@
         <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>84</v>
@@ -6929,7 +7461,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6938,7 +7470,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -6948,7 +7480,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6976,7 +7508,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -6986,7 +7518,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.01" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -7005,7 +7537,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.01" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7024,7 +7556,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -7043,18 +7575,16 @@
     </row>
     <row r="8" spans="1:11" ht="15.01" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>281</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3">
-        <v>0.03080654135821979</v>
+        <v>180</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>282</v>
+        <v>61</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -7064,18 +7594,16 @@
     </row>
     <row r="9" spans="1:11" ht="15.01" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>281</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3">
-        <v>0.03080654135821979</v>
+        <v>180</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>282</v>
+        <v>61</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -7085,18 +7613,18 @@
     </row>
     <row r="10" spans="1:11" ht="15.01" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="D10" s="3">
-        <v>0.03080654135821979</v>
+        <v>0.003850817669777474</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -7106,18 +7634,18 @@
     </row>
     <row r="11" spans="1:11" ht="15.01" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="D11" s="3">
-        <v>0.003080654</v>
+        <v>0.003850817669777474</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>232</v>
+        <v>326</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -7127,18 +7655,18 @@
     </row>
     <row r="12" spans="1:11" ht="15.01" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="D12" s="3">
-        <v>0.003080654</v>
+        <v>0.003850817669777474</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>232</v>
+        <v>326</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -7148,18 +7676,18 @@
     </row>
     <row r="13" spans="1:11" ht="15.01" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="D13" s="3">
-        <v>0.003080654</v>
+        <v>0.003850817669777474</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>232</v>
+        <v>326</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -7169,18 +7697,18 @@
     </row>
     <row r="14" spans="1:11" ht="15.01" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="D14" s="3">
-        <v>0.003080654</v>
+        <v>0.003850817669777474</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>232</v>
+        <v>326</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -7190,18 +7718,18 @@
     </row>
     <row r="15" spans="1:11" ht="15.01" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="D15" s="3">
-        <v>0.001</v>
+        <v>0.03080654135821979</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -7211,18 +7739,18 @@
     </row>
     <row r="16" spans="1:11" ht="15.01" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="D16" s="3">
-        <v>0.001</v>
+        <v>0.03080654135821979</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -7232,18 +7760,18 @@
     </row>
     <row r="17" spans="1:11" ht="15.01" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="D17" s="3">
-        <v>0.001</v>
+        <v>0.03080654135821979</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -7253,18 +7781,18 @@
     </row>
     <row r="18" spans="1:11" ht="15.01" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="D18" s="3">
-        <v>0.001</v>
+        <v>0.03080654135821979</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -7274,18 +7802,18 @@
     </row>
     <row r="19" spans="1:11" ht="15.01" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="D19" s="3">
-        <v>5e-05</v>
+        <v>0.03080654135821979</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -7295,18 +7823,18 @@
     </row>
     <row r="20" spans="1:11" ht="15.01" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="D20" s="3">
-        <v>0.001</v>
+        <v>0.003080654</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -7316,18 +7844,18 @@
     </row>
     <row r="21" spans="1:11" ht="15.01" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="D21" s="3">
-        <v>5e-05</v>
+        <v>0.003080654</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -7337,18 +7865,18 @@
     </row>
     <row r="22" spans="1:11" ht="15.01" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="D22" s="3">
-        <v>0.001</v>
+        <v>0.003080654</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -7358,18 +7886,18 @@
     </row>
     <row r="23" spans="1:11" ht="15.01" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="D23" s="3">
-        <v>5e-05</v>
+        <v>0.003080654</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -7379,18 +7907,18 @@
     </row>
     <row r="24" spans="1:11" ht="15.01" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="D24" s="3">
-        <v>5e-05</v>
+        <v>0.001</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -7400,18 +7928,18 @@
     </row>
     <row r="25" spans="1:11" ht="15.01" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="D25" s="3">
         <v>0.001</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -7421,18 +7949,18 @@
     </row>
     <row r="26" spans="1:11" ht="15.01" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="D26" s="3">
-        <v>0.001</v>
+        <v>3.321078080854329e-08</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -7440,35 +7968,329 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
+    <row r="27" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3.321078080854329e-08</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3.321078080854329e-08</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3.321078080854329e-08</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D30" s="3">
+        <v>3.321078080854329e-08</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D33" s="3">
+        <v>5e-05</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5e-05</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D37" s="3">
+        <v>5e-05</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5e-05</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A40" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:K26"/>
+  <autoFilter ref="A1:K40"/>
   <dataValidations count="11">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A2:A26">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A2:A40">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B26">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B40">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C2:C26">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C2:C40">
       <formula1>"kinetic_constant,K_i,K_m,k_cat,v_max"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D2:D26">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D2:D40">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="E2:E26">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="E2:E40">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." sqref="F2:F26"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G2:G26"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="H2:H26"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I2:I26"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="J2:J26">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." sqref="F2:F40"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G2:G40"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="H2:H40"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I2:I40"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="J2:J40">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K2:K26"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K2:K40"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7498,7 +8320,7 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>84</v>
@@ -7570,10 +8392,10 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5" t="s">
-        <v>303</v>
+        <v>359</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>303</v>
+        <v>359</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>28</v>
@@ -7596,16 +8418,16 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="5" t="s">
-        <v>304</v>
+        <v>360</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>304</v>
+        <v>360</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>305</v>
+        <v>361</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>305</v>
+        <v>361</v>
       </c>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
@@ -7622,7 +8444,7 @@
         <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>84</v>
@@ -7634,7 +8456,7 @@
         <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>306</v>
+        <v>362</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>68</v>
@@ -7646,19 +8468,19 @@
         <v>75</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>307</v>
+        <v>363</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>308</v>
+        <v>364</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>309</v>
+        <v>365</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>310</v>
+        <v>366</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>311</v>
+        <v>367</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>51</v>
@@ -7988,10 +8810,10 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5" t="s">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -8011,7 +8833,7 @@
         <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>84</v>
@@ -8041,7 +8863,7 @@
         <v>47</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>313</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -8114,46 +8936,46 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>314</v>
+        <v>370</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>103</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>318</v>
+        <v>374</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>323</v>
+        <v>379</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>325</v>
+        <v>381</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>62</v>
@@ -8248,28 +9070,28 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>327</v>
+        <v>383</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>329</v>
+        <v>385</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>314</v>
+        <v>370</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>331</v>
+        <v>387</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>332</v>
+        <v>388</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>62</v>
@@ -8352,25 +9174,25 @@
         <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>334</v>
+        <v>390</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>335</v>
+        <v>391</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>338</v>
+        <v>394</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>339</v>
+        <v>395</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>62</v>
@@ -8391,7 +9213,7 @@
         <v>47</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>313</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -8912,7 +9734,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -9371,7 +10193,7 @@
         <v>152</v>
       </c>
       <c r="G15" s="3">
-        <v>4830.75742997</v>
+        <v>4738.644429970001</v>
       </c>
       <c r="H15" s="3">
         <v>-16</v>
@@ -9405,10 +10227,10 @@
         <v>157</v>
       </c>
       <c r="G16" s="3">
-        <v>4737.66042997</v>
+        <v>3862.209143976</v>
       </c>
       <c r="H16" s="3">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>153</v>
@@ -9439,10 +10261,10 @@
         <v>161</v>
       </c>
       <c r="G17" s="3">
-        <v>1907.090571988</v>
+        <v>5727.337715963999</v>
       </c>
       <c r="H17" s="3">
-        <v>-7</v>
+        <v>-19</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>153</v>
@@ -9460,14 +10282,26 @@
       <c r="B18" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4782.76042997</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-16</v>
+      </c>
       <c r="I18" s="3" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -9477,19 +10311,31 @@
     </row>
     <row r="19" spans="1:14" ht="15.01" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4751.69142997</v>
+      </c>
+      <c r="H19" s="3">
+        <v>-16</v>
+      </c>
       <c r="I19" s="3" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -9499,29 +10345,19 @@
     </row>
     <row r="20" spans="1:14" ht="15.01" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G20" s="3">
-        <v>322.165761998</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2</v>
-      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -9531,29 +10367,19 @@
     </row>
     <row r="21" spans="1:14" ht="15.01" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G21" s="3">
-        <v>480.1072859940001</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-4</v>
-      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -9568,14 +10394,24 @@
       <c r="B22" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="3">
+        <v>322.165761998</v>
+      </c>
+      <c r="H22" s="3">
+        <v>-2</v>
+      </c>
       <c r="I22" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -9583,45 +10419,99 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
+    <row r="23" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" s="3">
+        <v>480.1072859940001</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-4</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:N22"/>
+  <autoFilter ref="A2:N24"/>
   <mergeCells count="1">
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A3:A22">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A3:A24">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B22">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B24">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Value" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="C3:C22">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Value" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="C3:C24">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Format" error="Value must be one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." promptTitle="Format" prompt="Select one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." sqref="D3:D22">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Format" error="Value must be one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." promptTitle="Format" prompt="Select one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." sqref="D3:D24">
       <formula1>"smiles,bpforms"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Alphabet" error="Value must be one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." promptTitle="Alphabet" prompt="Select one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." sqref="E3:E22">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Alphabet" error="Value must be one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." promptTitle="Alphabet" prompt="Select one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." sqref="E3:E24">
       <formula1>"dna,rna,protein,canonical_dna,canonical_rna,canonical_protein"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Empirical formula" error="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Value must be an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="Empirical formula" prompt="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Enter an empirical formula (e.g. &quot;H2O&quot;)." sqref="F3:F22"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Molecular weight" error="Value must be a float or blank." promptTitle="Molecular weight" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="G3:G22">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Empirical formula" error="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Value must be an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="Empirical formula" prompt="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Enter an empirical formula (e.g. &quot;H2O&quot;)." sqref="F3:F24"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Molecular weight" error="Value must be a float or blank." promptTitle="Molecular weight" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="G3:G24">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Charge" error="Value must be an integer." promptTitle="Charge" prompt="Enter an integer." sqref="H3:H22">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Charge" error="Value must be an integer." promptTitle="Charge" prompt="Enter an integer." sqref="H3:H24">
       <formula1>-32768</formula1>
       <formula2>32767</formula2>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;I ..." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;Ion&quot;, &quot;am ..." sqref="I3:I22"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J3:J22"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="K3:K22"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="L3:L22"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="M3:M22">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;I ..." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;Ion&quot;, &quot;am ..." sqref="I3:I24"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J3:J24"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="K3:K24"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="L3:L24"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="M3:M24">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N3:N22"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N3:N24"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9630,7 +10520,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9651,10 +10541,10 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>84</v>
@@ -9677,7 +10567,7 @@
     </row>
     <row r="2" spans="1:10" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
@@ -9687,7 +10577,7 @@
         <v>86</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -9697,7 +10587,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -9707,7 +10597,7 @@
         <v>86</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -9717,7 +10607,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.01" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -9727,7 +10617,7 @@
         <v>86</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -9737,7 +10627,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.01" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
@@ -9747,7 +10637,7 @@
         <v>86</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -9757,7 +10647,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.01" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
@@ -9767,7 +10657,7 @@
         <v>86</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -9777,7 +10667,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -9787,7 +10677,7 @@
         <v>86</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -9797,7 +10687,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.01" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
@@ -9807,7 +10697,7 @@
         <v>86</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -9817,7 +10707,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.01" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
@@ -9827,7 +10717,7 @@
         <v>86</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -9837,7 +10727,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.01" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -9847,7 +10737,7 @@
         <v>86</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -9857,7 +10747,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.01" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -9867,7 +10757,7 @@
         <v>86</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -9877,7 +10767,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.01" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
@@ -9887,7 +10777,7 @@
         <v>86</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -9897,7 +10787,7 @@
     </row>
     <row r="13" spans="1:10" ht="15.01" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
@@ -9907,7 +10797,7 @@
         <v>86</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -9917,7 +10807,7 @@
     </row>
     <row r="14" spans="1:10" ht="15.01" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -9927,7 +10817,7 @@
         <v>86</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -9937,7 +10827,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.01" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
@@ -9947,7 +10837,7 @@
         <v>86</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -9957,7 +10847,7 @@
     </row>
     <row r="16" spans="1:10" ht="15.01" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
@@ -9967,7 +10857,7 @@
         <v>86</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -9977,7 +10867,7 @@
     </row>
     <row r="17" spans="1:10" ht="15.01" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
@@ -9987,7 +10877,7 @@
         <v>86</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -9997,17 +10887,17 @@
     </row>
     <row r="18" spans="1:10" ht="15.01" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -10017,17 +10907,17 @@
     </row>
     <row r="19" spans="1:10" ht="15.01" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -10037,17 +10927,17 @@
     </row>
     <row r="20" spans="1:10" ht="15.01" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -10057,7 +10947,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.01" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
@@ -10067,7 +10957,7 @@
         <v>86</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -10075,32 +10965,72 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
+    <row r="22" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:J21"/>
+  <autoFilter ref="A1:J23"/>
   <dataValidations count="10">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A21">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A23">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B21">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B23">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species type" error="Value must be a value from &quot;Species types:A&quot;." promptTitle="Species type" prompt="Select a value from &quot;Species types:A&quot;." sqref="C2:C21">
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species type" error="Value must be a value from &quot;Species types:A&quot;." promptTitle="Species type" prompt="Select a value from &quot;Species types:A&quot;." sqref="C2:C23">
       <formula1>'Species types'!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Compartment" error="Value must be a value from &quot;Compartments:A&quot;." promptTitle="Compartment" prompt="Select a value from &quot;Compartments:A&quot;." sqref="D2:D21">
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Compartment" error="Value must be a value from &quot;Compartments:A&quot;." promptTitle="Compartment" prompt="Select a value from &quot;Compartments:A&quot;." sqref="D2:D23">
       <formula1>'Compartments'!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." sqref="E2:E21">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." sqref="E2:E23">
       <formula1>"molecule"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="F2:F21"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="G2:G21"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="H2:H21"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="I2:I21">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="F2:F23"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="G2:G23"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="H2:H23"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="I2:I23">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="J2:J21"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="J2:J23"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -10109,7 +11039,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10162,11 +11092,11 @@
     </row>
     <row r="2" spans="1:12" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>92</v>
@@ -10176,7 +11106,7 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -10186,11 +11116,11 @@
     </row>
     <row r="3" spans="1:12" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>92</v>
@@ -10200,7 +11130,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -10210,11 +11140,11 @@
     </row>
     <row r="4" spans="1:12" ht="15.01" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>92</v>
@@ -10224,7 +11154,7 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -10234,11 +11164,11 @@
     </row>
     <row r="5" spans="1:12" ht="15.01" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>92</v>
@@ -10248,7 +11178,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -10258,11 +11188,11 @@
     </row>
     <row r="6" spans="1:12" ht="15.01" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>92</v>
@@ -10272,7 +11202,7 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -10282,11 +11212,11 @@
     </row>
     <row r="7" spans="1:12" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>92</v>
@@ -10296,7 +11226,7 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -10306,11 +11236,11 @@
     </row>
     <row r="8" spans="1:12" ht="15.01" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>92</v>
@@ -10320,7 +11250,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -10330,11 +11260,11 @@
     </row>
     <row r="9" spans="1:12" ht="15.01" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>92</v>
@@ -10344,7 +11274,7 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -10354,11 +11284,11 @@
     </row>
     <row r="10" spans="1:12" ht="15.01" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>92</v>
@@ -10368,7 +11298,7 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -10378,11 +11308,11 @@
     </row>
     <row r="11" spans="1:12" ht="15.01" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>92</v>
@@ -10392,7 +11322,7 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -10402,11 +11332,11 @@
     </row>
     <row r="12" spans="1:12" ht="15.01" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>92</v>
@@ -10416,7 +11346,7 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -10426,11 +11356,11 @@
     </row>
     <row r="13" spans="1:12" ht="15.01" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>92</v>
@@ -10440,7 +11370,7 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -10450,11 +11380,11 @@
     </row>
     <row r="14" spans="1:12" ht="15.01" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>92</v>
@@ -10464,7 +11394,7 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -10474,11 +11404,11 @@
     </row>
     <row r="15" spans="1:12" ht="15.01" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>92</v>
@@ -10488,7 +11418,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -10498,11 +11428,11 @@
     </row>
     <row r="16" spans="1:12" ht="15.01" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>92</v>
@@ -10512,7 +11442,7 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -10522,21 +11452,21 @@
     </row>
     <row r="17" spans="1:12" ht="15.01" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -10546,21 +11476,21 @@
     </row>
     <row r="18" spans="1:12" ht="15.01" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -10570,21 +11500,21 @@
     </row>
     <row r="19" spans="1:12" ht="15.01" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E19" s="3">
-        <v>30110.704285</v>
+        <v>100</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -10594,21 +11524,21 @@
     </row>
     <row r="20" spans="1:12" ht="15.01" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E20" s="3">
-        <v>30110.704285</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -10618,21 +11548,21 @@
     </row>
     <row r="21" spans="1:12" ht="15.01" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E21" s="3">
-        <v>1000</v>
+        <v>30110.704285</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -10640,36 +11570,84 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
+    <row r="22" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:L21"/>
+  <autoFilter ref="A1:L23"/>
   <dataValidations count="12">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A21">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A23">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B21">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B23">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species" error="Value must be a value from &quot;Species:A&quot;." promptTitle="Species" prompt="Select a value from &quot;Species:A&quot;." sqref="C2:C21">
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species" error="Value must be a value from &quot;Species:A&quot;." promptTitle="Species" prompt="Select a value from &quot;Species:A&quot;." sqref="C2:C23">
       <formula1>'Species'!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Distribution" error="Value must be a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;W ..." promptTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_d ..." sqref="D2:D21"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="E2:E21">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Distribution" error="Value must be a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;W ..." promptTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_d ..." sqref="D2:D23"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="E2:E23">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard deviation" error="Value must be a float or blank." promptTitle="Standard deviation" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="F2:F21">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard deviation" error="Value must be a float or blank." promptTitle="Standard deviation" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="F2:F23">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." sqref="G2:G21">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." sqref="G2:G23">
       <formula1>"molecule,molar,millimolar,micromolar,nanomolar,picomolar,femtomolar,attomolar"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H2:H21"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="I2:I21"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J2:J21"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="K2:K21">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H2:H23"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="I2:I23"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J2:J23"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="K2:K23">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L2:L21"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L2:L23"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/rand_wc_model_gen/model_gen/model_2.xlsx
+++ b/rand_wc_model_gen/model_gen/model_2.xlsx
@@ -41,7 +41,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'dFBA objective species'!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA objectives'!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Functions!$A$1:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Initial species concentrations'!$A$1:$L$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Initial species concentrations'!$A$1:$L$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Observables!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'Observation sets'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">Observations!$A$2:$W$2</definedName>
@@ -49,8 +49,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Rate laws'!$A$1:$L$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Reactions!$A$2:$N$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">References!$A$1:$R$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$2:$N$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Species!$A$1:$J$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$2:$N$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Species!$A$1:$J$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'Stop conditions'!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Submodels!$A$1:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$24</definedName>
@@ -4215,7 +4215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="516">
   <si>
     <t>'Model'!A1</t>
   </si>
@@ -4412,7 +4412,7 @@
     <t>Created</t>
   </si>
   <si>
-    <t>2019-08-21 12:37:12</t>
+    <t>2019-08-22 10:58:26</t>
   </si>
   <si>
     <t>Updated</t>
@@ -4529,6 +4529,24 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Ala</t>
+  </si>
+  <si>
+    <t>Alanine</t>
+  </si>
+  <si>
+    <t>CC(C(=O)O)N</t>
+  </si>
+  <si>
+    <t>smiles</t>
+  </si>
+  <si>
+    <t>C3H7NO2</t>
+  </si>
+  <si>
+    <t>metabolite</t>
+  </si>
+  <si>
     <t>amp</t>
   </si>
   <si>
@@ -4538,13 +4556,43 @@
     <t>C1=NC(=C2C(=N1)N(C=N2)C3C(C(C(O3)COP(=O)([O-])[O-])O)O)N</t>
   </si>
   <si>
-    <t>smiles</t>
-  </si>
-  <si>
     <t>C10H12N5O7P</t>
   </si>
   <si>
-    <t>metabolite</t>
+    <t>Arg</t>
+  </si>
+  <si>
+    <t>Arginine</t>
+  </si>
+  <si>
+    <t>C(CC(C(=O)O)N)CN=C(N)N</t>
+  </si>
+  <si>
+    <t>C6H14N4O2</t>
+  </si>
+  <si>
+    <t>Asn</t>
+  </si>
+  <si>
+    <t>Asparagine</t>
+  </si>
+  <si>
+    <t>C(C(C(=O)O)N)C(=O)N</t>
+  </si>
+  <si>
+    <t>C4H8N2O3</t>
+  </si>
+  <si>
+    <t>Asp</t>
+  </si>
+  <si>
+    <t>Aspartic acid</t>
+  </si>
+  <si>
+    <t>C(C(C(=O)O)N)C(=O)O</t>
+  </si>
+  <si>
+    <t>C4H7NO4</t>
   </si>
   <si>
     <t>atp</t>
@@ -4598,6 +4646,54 @@
     <t>CTP synthase</t>
   </si>
   <si>
+    <t>Cys</t>
+  </si>
+  <si>
+    <t>Cysteine</t>
+  </si>
+  <si>
+    <t>C(C(C(=O)O)N)S</t>
+  </si>
+  <si>
+    <t>C3H7NO2S</t>
+  </si>
+  <si>
+    <t>Gln</t>
+  </si>
+  <si>
+    <t>Glutamine</t>
+  </si>
+  <si>
+    <t>C(CC(=O)N)C(C(=O)O)N</t>
+  </si>
+  <si>
+    <t>C5H10N2O3</t>
+  </si>
+  <si>
+    <t>Glu</t>
+  </si>
+  <si>
+    <t>Glutamic acid</t>
+  </si>
+  <si>
+    <t>C(CC(=O)O)C(C(=O)O)N</t>
+  </si>
+  <si>
+    <t>C5H9NO4</t>
+  </si>
+  <si>
+    <t>Gly</t>
+  </si>
+  <si>
+    <t>Glycine</t>
+  </si>
+  <si>
+    <t>C(C(=O)O)N</t>
+  </si>
+  <si>
+    <t>C2H5NO2</t>
+  </si>
+  <si>
     <t>gmp</t>
   </si>
   <si>
@@ -4646,6 +4742,75 @@
     <t>O</t>
   </si>
   <si>
+    <t>His</t>
+  </si>
+  <si>
+    <t>Histidine</t>
+  </si>
+  <si>
+    <t>C1=C(NC=N1)CC(C(=O)O)N</t>
+  </si>
+  <si>
+    <t>C6H9N3O2</t>
+  </si>
+  <si>
+    <t>Ile</t>
+  </si>
+  <si>
+    <t>Isoleucine</t>
+  </si>
+  <si>
+    <t>CCC(C)C(C(=O)O)N</t>
+  </si>
+  <si>
+    <t>C6H13NO2</t>
+  </si>
+  <si>
+    <t>Leu</t>
+  </si>
+  <si>
+    <t>Leucine</t>
+  </si>
+  <si>
+    <t>CC(C)CC(C(=O)O)N</t>
+  </si>
+  <si>
+    <t>Lys</t>
+  </si>
+  <si>
+    <t>Lysine</t>
+  </si>
+  <si>
+    <t>C(CCN)CC(C(=O)O)N</t>
+  </si>
+  <si>
+    <t>C6H14N2O2</t>
+  </si>
+  <si>
+    <t>Met</t>
+  </si>
+  <si>
+    <t>Methionine</t>
+  </si>
+  <si>
+    <t>CSCCC(C(=O)O)N</t>
+  </si>
+  <si>
+    <t>C5H11NO2S</t>
+  </si>
+  <si>
+    <t>Phe</t>
+  </si>
+  <si>
+    <t>Phenylalanine</t>
+  </si>
+  <si>
+    <t>C1=CC=C(C=C1)CC(C(=O)O)N</t>
+  </si>
+  <si>
+    <t>C9H11NO2</t>
+  </si>
+  <si>
     <t>ppi</t>
   </si>
   <si>
@@ -4658,13 +4823,25 @@
     <t>HO7P2</t>
   </si>
   <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>Proline</t>
+  </si>
+  <si>
+    <t>C1CC(NC1)C(=O)O</t>
+  </si>
+  <si>
+    <t>C5H9NO2</t>
+  </si>
+  <si>
     <t>rna_1</t>
   </si>
   <si>
     <t>RNA 1</t>
   </si>
   <si>
-    <t>UAAUCUGAUCCUGUU</t>
+    <t>GGGGCGUCUGGCAUGACC</t>
   </si>
   <si>
     <t>bpforms</t>
@@ -4673,7 +4850,7 @@
     <t>rna</t>
   </si>
   <si>
-    <t>C140H159N48O110P15</t>
+    <t>C172H196N71O128P18</t>
   </si>
   <si>
     <t>RNA</t>
@@ -4685,10 +4862,10 @@
     <t>RNA 2</t>
   </si>
   <si>
-    <t>GUUCGCACGUAA</t>
-  </si>
-  <si>
-    <t>C114H130N45O85P12</t>
+    <t>GCCUCUGUU</t>
+  </si>
+  <si>
+    <t>C83H96N27O68P9</t>
   </si>
   <si>
     <t>rna_3</t>
@@ -4697,10 +4874,10 @@
     <t>RNA 3</t>
   </si>
   <si>
-    <t>AACGAAACAACACUUCUC</t>
-  </si>
-  <si>
-    <t>C171H196N69O122P18</t>
+    <t>ACCACAUAGGCCCACCCAAUA</t>
+  </si>
+  <si>
+    <t>C199H230N81O142P21</t>
   </si>
   <si>
     <t>rna_4</t>
@@ -4709,10 +4886,10 @@
     <t>RNA 4</t>
   </si>
   <si>
-    <t>CCCUUACCGUAGAAA</t>
-  </si>
-  <si>
-    <t>C142H163N56O104P15</t>
+    <t>ACCGCCAGACAAUGU</t>
+  </si>
+  <si>
+    <t>C143H164N59O103P15</t>
   </si>
   <si>
     <t>rna_5</t>
@@ -4721,10 +4898,10 @@
     <t>RNA 5</t>
   </si>
   <si>
-    <t>UCUCCCCAAUGCGGU</t>
-  </si>
-  <si>
-    <t>C140H162N51O108P15</t>
+    <t>GGGAACGUGUAC</t>
+  </si>
+  <si>
+    <t>C116H131N50O84P12</t>
   </si>
   <si>
     <t>rna_pol</t>
@@ -4739,6 +4916,54 @@
     <t>RNAse</t>
   </si>
   <si>
+    <t>Ser</t>
+  </si>
+  <si>
+    <t>Serine</t>
+  </si>
+  <si>
+    <t>C(C(C(=O)O)N)O</t>
+  </si>
+  <si>
+    <t>C3H7NO3</t>
+  </si>
+  <si>
+    <t>Thr</t>
+  </si>
+  <si>
+    <t>Threonine</t>
+  </si>
+  <si>
+    <t>CC(C(C(=O)O)N)O</t>
+  </si>
+  <si>
+    <t>C4H9NO3</t>
+  </si>
+  <si>
+    <t>Trp</t>
+  </si>
+  <si>
+    <t>Tryptophan</t>
+  </si>
+  <si>
+    <t>C1=CC=C2C(=C1)C(=CN2)CC(C(=O)O)N</t>
+  </si>
+  <si>
+    <t>C11H12N2O2</t>
+  </si>
+  <si>
+    <t>Tyr</t>
+  </si>
+  <si>
+    <t>Tyrosine</t>
+  </si>
+  <si>
+    <t>C1=CC(=CC=C1CC(C(=O)O)N)O</t>
+  </si>
+  <si>
+    <t>C9H11NO3</t>
+  </si>
+  <si>
     <t>ump</t>
   </si>
   <si>
@@ -4769,16 +4994,40 @@
     <t>UTP synthase</t>
   </si>
   <si>
+    <t>Val</t>
+  </si>
+  <si>
+    <t>Valine</t>
+  </si>
+  <si>
+    <t>CC(C)C(C(=O)O)N</t>
+  </si>
+  <si>
+    <t>C5H11NO2</t>
+  </si>
+  <si>
     <t>Species type</t>
   </si>
   <si>
     <t>Compartment</t>
   </si>
   <si>
+    <t>Ala[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
     <t>amp[c]</t>
   </si>
   <si>
-    <t>molecule</t>
+    <t>Arg[c]</t>
+  </si>
+  <si>
+    <t>Asn[c]</t>
+  </si>
+  <si>
+    <t>Asp[c]</t>
   </si>
   <si>
     <t>atp[c]</t>
@@ -4796,6 +5045,18 @@
     <t>ctp_synthase[c]</t>
   </si>
   <si>
+    <t>Cys[c]</t>
+  </si>
+  <si>
+    <t>Gln[c]</t>
+  </si>
+  <si>
+    <t>Glu[c]</t>
+  </si>
+  <si>
+    <t>Gly[c]</t>
+  </si>
+  <si>
     <t>gmp[c]</t>
   </si>
   <si>
@@ -4811,9 +5072,30 @@
     <t>h[c]</t>
   </si>
   <si>
+    <t>His[c]</t>
+  </si>
+  <si>
+    <t>Ile[c]</t>
+  </si>
+  <si>
+    <t>Leu[c]</t>
+  </si>
+  <si>
+    <t>Lys[c]</t>
+  </si>
+  <si>
+    <t>Met[c]</t>
+  </si>
+  <si>
+    <t>Phe[c]</t>
+  </si>
+  <si>
     <t>ppi[c]</t>
   </si>
   <si>
+    <t>Pro[c]</t>
+  </si>
+  <si>
     <t>rna_1[c]</t>
   </si>
   <si>
@@ -4835,6 +5117,18 @@
     <t>rna_se[c]</t>
   </si>
   <si>
+    <t>Ser[c]</t>
+  </si>
+  <si>
+    <t>Thr[c]</t>
+  </si>
+  <si>
+    <t>Trp[c]</t>
+  </si>
+  <si>
+    <t>Tyr[c]</t>
+  </si>
+  <si>
     <t>ump[c]</t>
   </si>
   <si>
@@ -4844,9 +5138,24 @@
     <t>utp_synthase[c]</t>
   </si>
   <si>
+    <t>Val[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-Ala[c]</t>
+  </si>
+  <si>
     <t>dist-init-conc-amp[c]</t>
   </si>
   <si>
+    <t>dist-init-conc-Arg[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-Asn[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-Asp[c]</t>
+  </si>
+  <si>
     <t>dist-init-conc-atp[c]</t>
   </si>
   <si>
@@ -4862,6 +5171,18 @@
     <t>dist-init-conc-ctp_synthase[c]</t>
   </si>
   <si>
+    <t>dist-init-conc-Cys[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-Gln[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-Glu[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-Gly[c]</t>
+  </si>
+  <si>
     <t>dist-init-conc-gmp[c]</t>
   </si>
   <si>
@@ -4877,9 +5198,30 @@
     <t>dist-init-conc-h[c]</t>
   </si>
   <si>
+    <t>dist-init-conc-His[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-Ile[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-Leu[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-Lys[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-Met[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-Phe[c]</t>
+  </si>
+  <si>
     <t>dist-init-conc-ppi[c]</t>
   </si>
   <si>
+    <t>dist-init-conc-Pro[c]</t>
+  </si>
+  <si>
     <t>dist-init-conc-rna_1[c]</t>
   </si>
   <si>
@@ -4901,6 +5243,18 @@
     <t>dist-init-conc-rna_se[c]</t>
   </si>
   <si>
+    <t>dist-init-conc-Ser[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-Thr[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-Trp[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-Tyr[c]</t>
+  </si>
+  <si>
     <t>dist-init-conc-ump[c]</t>
   </si>
   <si>
@@ -4910,6 +5264,9 @@
     <t>dist-init-conc-utp_synthase[c]</t>
   </si>
   <si>
+    <t>dist-init-conc-Val[c]</t>
+  </si>
+  <si>
     <t>Expression</t>
   </si>
   <si>
@@ -4946,7 +5303,7 @@
     <t>transcription RNA 1</t>
   </si>
   <si>
-    <t>[c]: (14) h2o + rna_1 ==&gt; (3) amp + (3) cmp + (2) gmp + (14) h + (7) ump</t>
+    <t>[c]: (17) h2o + rna_1 ==&gt; (2) amp + (5) cmp + (8) gmp + (17) h + (3) ump</t>
   </si>
   <si>
     <t>1 / second</t>
@@ -4958,7 +5315,7 @@
     <t>transcription RNA 2</t>
   </si>
   <si>
-    <t>[c]: (11) h2o + rna_2 ==&gt; (3) amp + (3) cmp + (3) gmp + (11) h + (3) ump</t>
+    <t>[c]: (8) h2o + rna_2 ==&gt; (3) cmp + (2) gmp + (8) h + (4) ump</t>
   </si>
   <si>
     <t>degradation_rna_3</t>
@@ -4967,7 +5324,7 @@
     <t>transcription RNA 3</t>
   </si>
   <si>
-    <t>[c]: (17) h2o + rna_3 ==&gt; (8) amp + (6) cmp + gmp + (17) h + (3) ump</t>
+    <t>[c]: (20) h2o + rna_3 ==&gt; (8) amp + (9) cmp + (2) gmp + (20) h + (2) ump</t>
   </si>
   <si>
     <t>degradation_rna_4</t>
@@ -4976,7 +5333,7 @@
     <t>transcription RNA 4</t>
   </si>
   <si>
-    <t>[c]: (14) h2o + rna_4 ==&gt; (5) amp + (5) cmp + (2) gmp + (14) h + (3) ump</t>
+    <t>[c]: (14) h2o + rna_4 ==&gt; (5) amp + (5) cmp + (3) gmp + (14) h + (2) ump</t>
   </si>
   <si>
     <t>degradation_rna_5</t>
@@ -4985,7 +5342,7 @@
     <t>transcription RNA 5</t>
   </si>
   <si>
-    <t>[c]: (14) h2o + rna_5 ==&gt; (2) amp + (6) cmp + (3) gmp + (14) h + (4) ump</t>
+    <t>[c]: (11) h2o + rna_5 ==&gt; (3) amp + (2) cmp + (5) gmp + (11) h + (2) ump</t>
   </si>
   <si>
     <t>syn_atp</t>
@@ -5027,31 +5384,31 @@
     <t>transcription_rna_1</t>
   </si>
   <si>
-    <t>[c]: (3) atp + (3) ctp + (2) gtp + h2o + (7) utp ==&gt; h + (15) ppi + rna_1</t>
+    <t>[c]: (2) atp + (5) ctp + (8) gtp + h2o + (3) utp ==&gt; h + (18) ppi + rna_1</t>
   </si>
   <si>
     <t>transcription_rna_2</t>
   </si>
   <si>
-    <t>[c]: (3) atp + (3) ctp + (3) gtp + h2o + (3) utp ==&gt; h + (12) ppi + rna_2</t>
+    <t>[c]: (3) ctp + (2) gtp + h2o + (4) utp ==&gt; h + (9) ppi + rna_2</t>
   </si>
   <si>
     <t>transcription_rna_3</t>
   </si>
   <si>
-    <t>[c]: (8) atp + (6) ctp + gtp + h2o + (3) utp ==&gt; h + (18) ppi + rna_3</t>
+    <t>[c]: (8) atp + (9) ctp + (2) gtp + h2o + (2) utp ==&gt; h + (21) ppi + rna_3</t>
   </si>
   <si>
     <t>transcription_rna_4</t>
   </si>
   <si>
-    <t>[c]: (5) atp + (5) ctp + (2) gtp + h2o + (3) utp ==&gt; h + (15) ppi + rna_4</t>
+    <t>[c]: (5) atp + (5) ctp + (3) gtp + h2o + (2) utp ==&gt; h + (15) ppi + rna_4</t>
   </si>
   <si>
     <t>transcription_rna_5</t>
   </si>
   <si>
-    <t>[c]: (2) atp + (6) ctp + (3) gtp + h2o + (4) utp ==&gt; h + (15) ppi + rna_5</t>
+    <t>[c]: (3) atp + (2) ctp + (5) gtp + h2o + (2) utp ==&gt; h + (12) ppi + rna_5</t>
   </si>
   <si>
     <t>Reaction</t>
@@ -5126,7 +5483,7 @@
     <t>transcription_rna_2-forward</t>
   </si>
   <si>
-    <t>k_trans_rna_2 * (atp[c] / (km_atp_trans * Avogadro * volume_c + atp[c])) * (gtp[c] / (km_gtp_trans * Avogadro * volume_c + gtp[c])) * (ctp[c] / (km_ctp_trans * Avogadro * volume_c + ctp[c])) * (utp[c] / (km_utp_trans * Avogadro * volume_c + utp[c])) * rna_pol[c] / (Avogadro * volume_c)</t>
+    <t>k_trans_rna_2 * (gtp[c] / (km_gtp_trans * Avogadro * volume_c + gtp[c])) * (ctp[c] / (km_ctp_trans * Avogadro * volume_c + ctp[c])) * (utp[c] / (km_utp_trans * Avogadro * volume_c + utp[c])) * rna_pol[c] / (Avogadro * volume_c)</t>
   </si>
   <si>
     <t>transcription_rna_3-forward</t>
@@ -5862,7 +6219,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.01" customHeight="1">
@@ -5871,7 +6228,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.01" customHeight="1">
@@ -5880,7 +6237,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.01" customHeight="1">
@@ -6073,7 +6430,7 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>84</v>
@@ -6145,7 +6502,7 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>84</v>
@@ -6168,11 +6525,11 @@
     </row>
     <row r="2" spans="1:9" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>232</v>
+        <v>351</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>233</v>
+        <v>352</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>93</v>
@@ -6232,13 +6589,13 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5" t="s">
-        <v>234</v>
+        <v>353</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>234</v>
+        <v>353</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>234</v>
+        <v>353</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -6254,22 +6611,22 @@
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>354</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>236</v>
+        <v>355</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>237</v>
+        <v>356</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>238</v>
+        <v>357</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>239</v>
+        <v>358</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>240</v>
+        <v>359</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>84</v>
@@ -6292,22 +6649,22 @@
     </row>
     <row r="3" spans="1:14" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>241</v>
+        <v>360</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>242</v>
+        <v>361</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>243</v>
+        <v>362</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -6320,22 +6677,22 @@
     </row>
     <row r="4" spans="1:14" ht="15.01" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>245</v>
+        <v>364</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>246</v>
+        <v>365</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>247</v>
+        <v>366</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -6348,22 +6705,22 @@
     </row>
     <row r="5" spans="1:14" ht="15.01" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>248</v>
+        <v>367</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>249</v>
+        <v>368</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>250</v>
+        <v>369</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -6376,22 +6733,22 @@
     </row>
     <row r="6" spans="1:14" ht="15.01" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>251</v>
+        <v>370</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>252</v>
+        <v>371</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>253</v>
+        <v>372</v>
       </c>
       <c r="E6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -6404,22 +6761,22 @@
     </row>
     <row r="7" spans="1:14" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>254</v>
+        <v>373</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>255</v>
+        <v>374</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>256</v>
+        <v>375</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -6432,22 +6789,22 @@
     </row>
     <row r="8" spans="1:14" ht="15.01" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>258</v>
+        <v>377</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>259</v>
+        <v>378</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -6460,22 +6817,22 @@
     </row>
     <row r="9" spans="1:14" ht="15.01" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>260</v>
+        <v>379</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>261</v>
+        <v>380</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>262</v>
+        <v>381</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -6488,22 +6845,22 @@
     </row>
     <row r="10" spans="1:14" ht="15.01" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>264</v>
+        <v>383</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>265</v>
+        <v>384</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -6516,22 +6873,22 @@
     </row>
     <row r="11" spans="1:14" ht="15.01" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>266</v>
+        <v>385</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>267</v>
+        <v>386</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>268</v>
+        <v>387</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -6544,22 +6901,22 @@
     </row>
     <row r="12" spans="1:14" ht="15.01" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>242</v>
+        <v>361</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>270</v>
+        <v>389</v>
       </c>
       <c r="E12" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -6572,22 +6929,22 @@
     </row>
     <row r="13" spans="1:14" ht="15.01" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>271</v>
+        <v>390</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>246</v>
+        <v>365</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>272</v>
+        <v>391</v>
       </c>
       <c r="E13" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -6600,22 +6957,22 @@
     </row>
     <row r="14" spans="1:14" ht="15.01" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>273</v>
+        <v>392</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>249</v>
+        <v>368</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>274</v>
+        <v>393</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -6628,22 +6985,22 @@
     </row>
     <row r="15" spans="1:14" ht="15.01" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>252</v>
+        <v>371</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
       <c r="E15" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -6656,22 +7013,22 @@
     </row>
     <row r="16" spans="1:14" ht="15.01" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>277</v>
+        <v>396</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>255</v>
+        <v>374</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>278</v>
+        <v>397</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -6752,16 +7109,16 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>279</v>
+        <v>398</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>280</v>
+        <v>399</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>84</v>
@@ -6784,21 +7141,21 @@
     </row>
     <row r="2" spans="1:12" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>281</v>
+        <v>400</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>241</v>
+        <v>360</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>282</v>
+        <v>401</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>283</v>
+        <v>402</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -6808,21 +7165,21 @@
     </row>
     <row r="3" spans="1:12" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>284</v>
+        <v>403</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>245</v>
+        <v>364</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>282</v>
+        <v>401</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>285</v>
+        <v>404</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -6832,21 +7189,21 @@
     </row>
     <row r="4" spans="1:12" ht="15.01" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>286</v>
+        <v>405</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>248</v>
+        <v>367</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>282</v>
+        <v>401</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>287</v>
+        <v>406</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -6856,21 +7213,21 @@
     </row>
     <row r="5" spans="1:12" ht="15.01" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>288</v>
+        <v>407</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>251</v>
+        <v>370</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>282</v>
+        <v>401</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>289</v>
+        <v>408</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -6880,21 +7237,21 @@
     </row>
     <row r="6" spans="1:12" ht="15.01" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>290</v>
+        <v>409</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>254</v>
+        <v>373</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>282</v>
+        <v>401</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>291</v>
+        <v>410</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -6904,21 +7261,21 @@
     </row>
     <row r="7" spans="1:12" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>292</v>
+        <v>411</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>282</v>
+        <v>401</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>293</v>
+        <v>412</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -6928,21 +7285,21 @@
     </row>
     <row r="8" spans="1:12" ht="15.01" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>294</v>
+        <v>413</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>260</v>
+        <v>379</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>282</v>
+        <v>401</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>295</v>
+        <v>414</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -6952,21 +7309,21 @@
     </row>
     <row r="9" spans="1:12" ht="15.01" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>296</v>
+        <v>415</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>282</v>
+        <v>401</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -6976,21 +7333,21 @@
     </row>
     <row r="10" spans="1:12" ht="15.01" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>298</v>
+        <v>417</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>266</v>
+        <v>385</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>282</v>
+        <v>401</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>299</v>
+        <v>418</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -7000,21 +7357,21 @@
     </row>
     <row r="11" spans="1:12" ht="15.01" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>300</v>
+        <v>419</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>282</v>
+        <v>401</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>301</v>
+        <v>420</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -7024,21 +7381,21 @@
     </row>
     <row r="12" spans="1:12" ht="15.01" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>302</v>
+        <v>421</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>271</v>
+        <v>390</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>282</v>
+        <v>401</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>303</v>
+        <v>422</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -7048,21 +7405,21 @@
     </row>
     <row r="13" spans="1:12" ht="15.01" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>304</v>
+        <v>423</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>273</v>
+        <v>392</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>282</v>
+        <v>401</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>305</v>
+        <v>424</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -7072,21 +7429,21 @@
     </row>
     <row r="14" spans="1:12" ht="15.01" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>306</v>
+        <v>425</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>282</v>
+        <v>401</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>307</v>
+        <v>426</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -7096,21 +7453,21 @@
     </row>
     <row r="15" spans="1:12" ht="15.01" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>308</v>
+        <v>427</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>277</v>
+        <v>396</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>282</v>
+        <v>401</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>309</v>
+        <v>428</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -7177,19 +7534,19 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>235</v>
+        <v>354</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>310</v>
+        <v>429</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>311</v>
+        <v>430</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>62</v>
@@ -7266,13 +7623,13 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>235</v>
+        <v>354</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>312</v>
+        <v>431</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>62</v>
@@ -7346,7 +7703,7 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>313</v>
+        <v>432</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>32</v>
@@ -7438,7 +7795,7 @@
         <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>314</v>
+        <v>433</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>84</v>
@@ -7461,7 +7818,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>315</v>
+        <v>434</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7470,7 +7827,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>316</v>
+        <v>435</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -7480,7 +7837,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>317</v>
+        <v>436</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7508,7 +7865,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>318</v>
+        <v>437</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -7518,7 +7875,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.01" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>319</v>
+        <v>438</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -7537,7 +7894,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.01" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>320</v>
+        <v>439</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7556,7 +7913,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>321</v>
+        <v>440</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -7575,7 +7932,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.01" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>322</v>
+        <v>441</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -7594,7 +7951,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.01" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>323</v>
+        <v>442</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -7613,18 +7970,18 @@
     </row>
     <row r="10" spans="1:11" ht="15.01" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>324</v>
+        <v>443</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>325</v>
+        <v>444</v>
       </c>
       <c r="D10" s="3">
         <v>0.003850817669777474</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>326</v>
+        <v>445</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -7634,18 +7991,18 @@
     </row>
     <row r="11" spans="1:11" ht="15.01" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>327</v>
+        <v>446</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>325</v>
+        <v>444</v>
       </c>
       <c r="D11" s="3">
         <v>0.003850817669777474</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>326</v>
+        <v>445</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -7655,18 +8012,18 @@
     </row>
     <row r="12" spans="1:11" ht="15.01" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>328</v>
+        <v>447</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>325</v>
+        <v>444</v>
       </c>
       <c r="D12" s="3">
         <v>0.003850817669777474</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>326</v>
+        <v>445</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -7676,18 +8033,18 @@
     </row>
     <row r="13" spans="1:11" ht="15.01" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>329</v>
+        <v>448</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>325</v>
+        <v>444</v>
       </c>
       <c r="D13" s="3">
         <v>0.003850817669777474</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>326</v>
+        <v>445</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -7697,18 +8054,18 @@
     </row>
     <row r="14" spans="1:11" ht="15.01" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>330</v>
+        <v>449</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>325</v>
+        <v>444</v>
       </c>
       <c r="D14" s="3">
         <v>0.003850817669777474</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>326</v>
+        <v>445</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -7718,18 +8075,18 @@
     </row>
     <row r="15" spans="1:11" ht="15.01" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>331</v>
+        <v>450</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>325</v>
+        <v>444</v>
       </c>
       <c r="D15" s="3">
         <v>0.03080654135821979</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>326</v>
+        <v>445</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -7739,18 +8096,18 @@
     </row>
     <row r="16" spans="1:11" ht="15.01" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>332</v>
+        <v>451</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>325</v>
+        <v>444</v>
       </c>
       <c r="D16" s="3">
         <v>0.03080654135821979</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>326</v>
+        <v>445</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -7760,18 +8117,18 @@
     </row>
     <row r="17" spans="1:11" ht="15.01" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>333</v>
+        <v>452</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>325</v>
+        <v>444</v>
       </c>
       <c r="D17" s="3">
         <v>0.03080654135821979</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>326</v>
+        <v>445</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -7781,18 +8138,18 @@
     </row>
     <row r="18" spans="1:11" ht="15.01" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>334</v>
+        <v>453</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>325</v>
+        <v>444</v>
       </c>
       <c r="D18" s="3">
         <v>0.03080654135821979</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>326</v>
+        <v>445</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -7802,18 +8159,18 @@
     </row>
     <row r="19" spans="1:11" ht="15.01" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>335</v>
+        <v>454</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>325</v>
+        <v>444</v>
       </c>
       <c r="D19" s="3">
         <v>0.03080654135821979</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>326</v>
+        <v>445</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -7823,18 +8180,18 @@
     </row>
     <row r="20" spans="1:11" ht="15.01" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>336</v>
+        <v>455</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>325</v>
+        <v>444</v>
       </c>
       <c r="D20" s="3">
         <v>0.003080654</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -7844,18 +8201,18 @@
     </row>
     <row r="21" spans="1:11" ht="15.01" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>337</v>
+        <v>456</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>325</v>
+        <v>444</v>
       </c>
       <c r="D21" s="3">
         <v>0.003080654</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -7865,18 +8222,18 @@
     </row>
     <row r="22" spans="1:11" ht="15.01" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>338</v>
+        <v>457</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>325</v>
+        <v>444</v>
       </c>
       <c r="D22" s="3">
         <v>0.003080654</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -7886,18 +8243,18 @@
     </row>
     <row r="23" spans="1:11" ht="15.01" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>339</v>
+        <v>458</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>325</v>
+        <v>444</v>
       </c>
       <c r="D23" s="3">
         <v>0.003080654</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -7907,18 +8264,18 @@
     </row>
     <row r="24" spans="1:11" ht="15.01" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="D24" s="3">
         <v>0.001</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -7928,18 +8285,18 @@
     </row>
     <row r="25" spans="1:11" ht="15.01" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>343</v>
+        <v>462</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="D25" s="3">
         <v>0.001</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -7949,18 +8306,18 @@
     </row>
     <row r="26" spans="1:11" ht="15.01" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>344</v>
+        <v>463</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="D26" s="3">
         <v>3.321078080854329e-08</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -7970,18 +8327,18 @@
     </row>
     <row r="27" spans="1:11" ht="15.01" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>345</v>
+        <v>464</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="D27" s="3">
         <v>3.321078080854329e-08</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -7991,18 +8348,18 @@
     </row>
     <row r="28" spans="1:11" ht="15.01" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>346</v>
+        <v>465</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="D28" s="3">
         <v>3.321078080854329e-08</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -8012,18 +8369,18 @@
     </row>
     <row r="29" spans="1:11" ht="15.01" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>347</v>
+        <v>466</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="D29" s="3">
         <v>3.321078080854329e-08</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -8033,18 +8390,18 @@
     </row>
     <row r="30" spans="1:11" ht="15.01" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>348</v>
+        <v>467</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="D30" s="3">
         <v>3.321078080854329e-08</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -8054,18 +8411,18 @@
     </row>
     <row r="31" spans="1:11" ht="15.01" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>349</v>
+        <v>468</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="D31" s="3">
         <v>0.001</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -8075,18 +8432,18 @@
     </row>
     <row r="32" spans="1:11" ht="15.01" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>350</v>
+        <v>469</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="D32" s="3">
         <v>0.001</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -8096,18 +8453,18 @@
     </row>
     <row r="33" spans="1:11" ht="15.01" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>351</v>
+        <v>470</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="D33" s="3">
         <v>5e-05</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -8117,18 +8474,18 @@
     </row>
     <row r="34" spans="1:11" ht="15.01" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>352</v>
+        <v>471</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="D34" s="3">
         <v>0.001</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -8138,18 +8495,18 @@
     </row>
     <row r="35" spans="1:11" ht="15.01" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>353</v>
+        <v>472</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="D35" s="3">
         <v>5e-05</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -8159,18 +8516,18 @@
     </row>
     <row r="36" spans="1:11" ht="15.01" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>354</v>
+        <v>473</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="D36" s="3">
         <v>0.001</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -8180,18 +8537,18 @@
     </row>
     <row r="37" spans="1:11" ht="15.01" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>355</v>
+        <v>474</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="D37" s="3">
         <v>5e-05</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -8201,18 +8558,18 @@
     </row>
     <row r="38" spans="1:11" ht="15.01" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>356</v>
+        <v>475</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="D38" s="3">
         <v>5e-05</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -8222,18 +8579,18 @@
     </row>
     <row r="39" spans="1:11" ht="15.01" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>357</v>
+        <v>476</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="D39" s="3">
         <v>0.001</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -8243,18 +8600,18 @@
     </row>
     <row r="40" spans="1:11" ht="15.01" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>358</v>
+        <v>477</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="D40" s="3">
         <v>0.001</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -8320,7 +8677,7 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>84</v>
@@ -8392,10 +8749,10 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5" t="s">
-        <v>359</v>
+        <v>478</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>359</v>
+        <v>478</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>28</v>
@@ -8418,16 +8775,16 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="5" t="s">
-        <v>360</v>
+        <v>479</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>360</v>
+        <v>479</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>361</v>
+        <v>480</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>361</v>
+        <v>480</v>
       </c>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
@@ -8444,7 +8801,7 @@
         <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>314</v>
+        <v>433</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>84</v>
@@ -8456,7 +8813,7 @@
         <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>362</v>
+        <v>481</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>68</v>
@@ -8468,19 +8825,19 @@
         <v>75</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>363</v>
+        <v>482</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>364</v>
+        <v>483</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>365</v>
+        <v>484</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>366</v>
+        <v>485</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>367</v>
+        <v>486</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>51</v>
@@ -8810,10 +9167,10 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5" t="s">
-        <v>368</v>
+        <v>487</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>368</v>
+        <v>487</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -8833,7 +9190,7 @@
         <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>314</v>
+        <v>433</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>84</v>
@@ -8863,7 +9220,7 @@
         <v>47</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>369</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -8936,46 +9293,46 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>370</v>
+        <v>489</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>371</v>
+        <v>490</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>372</v>
+        <v>491</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>373</v>
+        <v>492</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>103</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>374</v>
+        <v>493</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>375</v>
+        <v>494</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>376</v>
+        <v>495</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>377</v>
+        <v>496</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>378</v>
+        <v>497</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>379</v>
+        <v>498</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>380</v>
+        <v>499</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>381</v>
+        <v>500</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>382</v>
+        <v>501</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>62</v>
@@ -9070,28 +9427,28 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>383</v>
+        <v>502</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>384</v>
+        <v>503</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>385</v>
+        <v>504</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>370</v>
+        <v>489</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>386</v>
+        <v>505</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>387</v>
+        <v>506</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>388</v>
+        <v>507</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>389</v>
+        <v>508</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>62</v>
@@ -9174,25 +9531,25 @@
         <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>390</v>
+        <v>509</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>391</v>
+        <v>510</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>392</v>
+        <v>511</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>393</v>
+        <v>512</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>394</v>
+        <v>513</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>395</v>
+        <v>514</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>396</v>
+        <v>515</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>62</v>
@@ -9213,7 +9570,7 @@
         <v>47</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>369</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -9734,7 +10091,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -9837,10 +10194,10 @@
         <v>108</v>
       </c>
       <c r="G3" s="3">
-        <v>345.207761998</v>
+        <v>89.09399999999999</v>
       </c>
       <c r="H3" s="3">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>109</v>
@@ -9869,10 +10226,10 @@
         <v>113</v>
       </c>
       <c r="G4" s="3">
-        <v>503.149285994</v>
+        <v>345.207761998</v>
       </c>
       <c r="H4" s="3">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>109</v>
@@ -9890,14 +10247,24 @@
       <c r="B5" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="3">
+        <v>174.204</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
       <c r="I5" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -9907,26 +10274,26 @@
     </row>
     <row r="6" spans="1:14" ht="15.01" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G6" s="3">
-        <v>321.181761998</v>
+        <v>132.119</v>
       </c>
       <c r="H6" s="3">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>109</v>
@@ -9939,26 +10306,26 @@
     </row>
     <row r="7" spans="1:14" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G7" s="3">
-        <v>479.123285994</v>
+        <v>133.103</v>
       </c>
       <c r="H7" s="3">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>109</v>
@@ -9971,19 +10338,29 @@
     </row>
     <row r="8" spans="1:14" ht="15.01" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="3">
+        <v>503.149285994</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-4</v>
+      </c>
       <c r="I8" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -9993,29 +10370,19 @@
     </row>
     <row r="9" spans="1:14" ht="15.01" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="3">
-        <v>361.206761998</v>
-      </c>
-      <c r="H9" s="3">
-        <v>-2</v>
-      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -10025,26 +10392,26 @@
     </row>
     <row r="10" spans="1:14" ht="15.01" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G10" s="3">
-        <v>519.1482859939999</v>
+        <v>321.181761998</v>
       </c>
       <c r="H10" s="3">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>109</v>
@@ -10057,19 +10424,29 @@
     </row>
     <row r="11" spans="1:14" ht="15.01" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="3">
+        <v>479.123285994</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-4</v>
+      </c>
       <c r="I11" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -10079,29 +10456,19 @@
     </row>
     <row r="12" spans="1:14" ht="15.01" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1.008</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -10111,23 +10478,23 @@
     </row>
     <row r="13" spans="1:14" ht="15.01" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G13" s="3">
-        <v>18.015</v>
+        <v>121.154</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -10143,26 +10510,26 @@
     </row>
     <row r="14" spans="1:14" ht="15.01" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G14" s="3">
-        <v>174.948523996</v>
+        <v>146.146</v>
       </c>
       <c r="H14" s="3">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>109</v>
@@ -10175,31 +10542,29 @@
     </row>
     <row r="15" spans="1:14" ht="15.01" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G15" s="3">
-        <v>4738.644429970001</v>
+        <v>147.13</v>
       </c>
       <c r="H15" s="3">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -10209,31 +10574,29 @@
     </row>
     <row r="16" spans="1:14" ht="15.01" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G16" s="3">
-        <v>3862.209143976</v>
+        <v>75.06699999999999</v>
       </c>
       <c r="H16" s="3">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -10243,31 +10606,29 @@
     </row>
     <row r="17" spans="1:14" ht="15.01" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G17" s="3">
-        <v>5727.337715963999</v>
+        <v>361.206761998</v>
       </c>
       <c r="H17" s="3">
-        <v>-19</v>
+        <v>-2</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -10277,31 +10638,29 @@
     </row>
     <row r="18" spans="1:14" ht="15.01" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G18" s="3">
-        <v>4782.76042997</v>
+        <v>519.1482859939999</v>
       </c>
       <c r="H18" s="3">
-        <v>-16</v>
+        <v>-4</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -10311,31 +10670,19 @@
     </row>
     <row r="19" spans="1:14" ht="15.01" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="3">
-        <v>4751.69142997</v>
-      </c>
-      <c r="H19" s="3">
-        <v>-16</v>
-      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -10345,19 +10692,29 @@
     </row>
     <row r="20" spans="1:14" ht="15.01" customHeight="1">
       <c r="A20" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.008</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
       <c r="I20" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -10372,14 +10729,24 @@
       <c r="B21" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" s="3">
+        <v>18.015</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
       <c r="I21" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -10389,26 +10756,26 @@
     </row>
     <row r="22" spans="1:14" ht="15.01" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G22" s="3">
-        <v>322.165761998</v>
+        <v>155.157</v>
       </c>
       <c r="H22" s="3">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>109</v>
@@ -10421,26 +10788,26 @@
     </row>
     <row r="23" spans="1:14" ht="15.01" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G23" s="3">
-        <v>480.1072859940001</v>
+        <v>131.175</v>
       </c>
       <c r="H23" s="3">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>109</v>
@@ -10453,19 +10820,29 @@
     </row>
     <row r="24" spans="1:14" ht="15.01" customHeight="1">
       <c r="A24" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="3">
+        <v>131.175</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
       <c r="I24" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -10473,45 +10850,665 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
+    <row r="25" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" s="3">
+        <v>146.19</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" s="3">
+        <v>149.208</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" s="3">
+        <v>165.192</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" s="3">
+        <v>174.948523996</v>
+      </c>
+      <c r="H28" s="3">
+        <v>-3</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="3">
+        <v>115.132</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5863.356715964</v>
+      </c>
+      <c r="H30" s="3">
+        <v>-19</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2838.565857982</v>
+      </c>
+      <c r="H31" s="3">
+        <v>-10</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G32" s="3">
+        <v>6678.903001958</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-22</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G33" s="3">
+        <v>4821.80142997</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-16</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G34" s="3">
+        <v>3941.275143976</v>
+      </c>
+      <c r="H34" s="3">
+        <v>-13</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" s="3">
+        <v>105.093</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G38" s="3">
+        <v>119.12</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G39" s="3">
+        <v>204.229</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A40" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G40" s="3">
+        <v>181.191</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G41" s="3">
+        <v>322.165761998</v>
+      </c>
+      <c r="H41" s="3">
+        <v>-2</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A42" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G42" s="3">
+        <v>480.1072859940001</v>
+      </c>
+      <c r="H42" s="3">
+        <v>-4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A43" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G44" s="3">
+        <v>117.148</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:N24"/>
+  <autoFilter ref="A2:N44"/>
   <mergeCells count="1">
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A3:A24">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A3:A44">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B24">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B44">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Value" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="C3:C24">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Value" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="C3:C44">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Format" error="Value must be one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." promptTitle="Format" prompt="Select one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." sqref="D3:D24">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Format" error="Value must be one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." promptTitle="Format" prompt="Select one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." sqref="D3:D44">
       <formula1>"smiles,bpforms"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Alphabet" error="Value must be one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." promptTitle="Alphabet" prompt="Select one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." sqref="E3:E24">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Alphabet" error="Value must be one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." promptTitle="Alphabet" prompt="Select one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." sqref="E3:E44">
       <formula1>"dna,rna,protein,canonical_dna,canonical_rna,canonical_protein"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Empirical formula" error="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Value must be an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="Empirical formula" prompt="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Enter an empirical formula (e.g. &quot;H2O&quot;)." sqref="F3:F24"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Molecular weight" error="Value must be a float or blank." promptTitle="Molecular weight" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="G3:G24">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Empirical formula" error="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Value must be an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="Empirical formula" prompt="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Enter an empirical formula (e.g. &quot;H2O&quot;)." sqref="F3:F44"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Molecular weight" error="Value must be a float or blank." promptTitle="Molecular weight" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="G3:G44">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Charge" error="Value must be an integer." promptTitle="Charge" prompt="Enter an integer." sqref="H3:H24">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Charge" error="Value must be an integer." promptTitle="Charge" prompt="Enter an integer." sqref="H3:H44">
       <formula1>-32768</formula1>
       <formula2>32767</formula2>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;I ..." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;Ion&quot;, &quot;am ..." sqref="I3:I24"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J3:J24"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="K3:K24"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="L3:L24"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="M3:M24">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;I ..." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;Ion&quot;, &quot;am ..." sqref="I3:I44"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J3:J44"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="K3:K44"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="L3:L44"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="M3:M44">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N3:N24"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N3:N44"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -10520,7 +11517,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10541,10 +11538,10 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>84</v>
@@ -10567,7 +11564,7 @@
     </row>
     <row r="2" spans="1:10" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
@@ -10577,7 +11574,7 @@
         <v>86</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -10587,7 +11584,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -10597,7 +11594,7 @@
         <v>86</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -10607,7 +11604,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.01" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -10617,7 +11614,7 @@
         <v>86</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -10627,17 +11624,17 @@
     </row>
     <row r="5" spans="1:10" ht="15.01" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -10647,17 +11644,17 @@
     </row>
     <row r="6" spans="1:10" ht="15.01" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -10667,17 +11664,17 @@
     </row>
     <row r="7" spans="1:10" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -10687,17 +11684,17 @@
     </row>
     <row r="8" spans="1:10" ht="15.01" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -10707,17 +11704,17 @@
     </row>
     <row r="9" spans="1:10" ht="15.01" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -10727,17 +11724,17 @@
     </row>
     <row r="10" spans="1:10" ht="15.01" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>274</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -10747,17 +11744,17 @@
     </row>
     <row r="11" spans="1:10" ht="15.01" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -10767,17 +11764,17 @@
     </row>
     <row r="12" spans="1:10" ht="15.01" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -10787,17 +11784,17 @@
     </row>
     <row r="13" spans="1:10" ht="15.01" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -10807,17 +11804,17 @@
     </row>
     <row r="14" spans="1:10" ht="15.01" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -10827,17 +11824,17 @@
     </row>
     <row r="15" spans="1:10" ht="15.01" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -10847,17 +11844,17 @@
     </row>
     <row r="16" spans="1:10" ht="15.01" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -10867,17 +11864,17 @@
     </row>
     <row r="17" spans="1:10" ht="15.01" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -10887,17 +11884,17 @@
     </row>
     <row r="18" spans="1:10" ht="15.01" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -10907,17 +11904,17 @@
     </row>
     <row r="19" spans="1:10" ht="15.01" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -10927,17 +11924,17 @@
     </row>
     <row r="20" spans="1:10" ht="15.01" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -10947,17 +11944,17 @@
     </row>
     <row r="21" spans="1:10" ht="15.01" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -10967,17 +11964,17 @@
     </row>
     <row r="22" spans="1:10" ht="15.01" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -10987,17 +11984,17 @@
     </row>
     <row r="23" spans="1:10" ht="15.01" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -11005,32 +12002,432 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
+    <row r="24" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A40" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A42" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A43" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:J23"/>
+  <autoFilter ref="A1:J43"/>
   <dataValidations count="10">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A23">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A43">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B23">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B43">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species type" error="Value must be a value from &quot;Species types:A&quot;." promptTitle="Species type" prompt="Select a value from &quot;Species types:A&quot;." sqref="C2:C23">
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species type" error="Value must be a value from &quot;Species types:A&quot;." promptTitle="Species type" prompt="Select a value from &quot;Species types:A&quot;." sqref="C2:C43">
       <formula1>'Species types'!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Compartment" error="Value must be a value from &quot;Compartments:A&quot;." promptTitle="Compartment" prompt="Select a value from &quot;Compartments:A&quot;." sqref="D2:D23">
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Compartment" error="Value must be a value from &quot;Compartments:A&quot;." promptTitle="Compartment" prompt="Select a value from &quot;Compartments:A&quot;." sqref="D2:D43">
       <formula1>'Compartments'!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." sqref="E2:E23">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." sqref="E2:E43">
       <formula1>"molecule"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="F2:F23"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="G2:G23"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="H2:H23"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="I2:I23">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="F2:F43"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="G2:G43"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="H2:H43"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="I2:I43">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="J2:J23"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="J2:J43"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11039,7 +12436,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11092,11 +12489,11 @@
     </row>
     <row r="2" spans="1:12" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>209</v>
+        <v>308</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>92</v>
@@ -11106,7 +12503,7 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -11116,11 +12513,11 @@
     </row>
     <row r="3" spans="1:12" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>210</v>
+        <v>309</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>92</v>
@@ -11130,7 +12527,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -11140,21 +12537,21 @@
     </row>
     <row r="4" spans="1:12" ht="15.01" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>211</v>
+        <v>310</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E4" s="3">
-        <v>1000</v>
+        <v>30110.704285</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -11164,11 +12561,11 @@
     </row>
     <row r="5" spans="1:12" ht="15.01" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>92</v>
@@ -11178,7 +12575,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -11188,11 +12585,11 @@
     </row>
     <row r="6" spans="1:12" ht="15.01" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>213</v>
+        <v>312</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>92</v>
@@ -11202,7 +12599,7 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -11212,21 +12609,21 @@
     </row>
     <row r="7" spans="1:12" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>214</v>
+        <v>313</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E7" s="3">
-        <v>1000</v>
+        <v>30110.704285</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -11236,21 +12633,21 @@
     </row>
     <row r="8" spans="1:12" ht="15.01" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>215</v>
+        <v>314</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E8" s="3">
-        <v>30110.704285</v>
+        <v>1000</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -11260,11 +12657,11 @@
     </row>
     <row r="9" spans="1:12" ht="15.01" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>92</v>
@@ -11274,7 +12671,7 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -11284,21 +12681,21 @@
     </row>
     <row r="10" spans="1:12" ht="15.01" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>195</v>
+        <v>274</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E10" s="3">
-        <v>1000</v>
+        <v>30110.704285</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -11308,21 +12705,21 @@
     </row>
     <row r="11" spans="1:12" ht="15.01" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E11" s="3">
-        <v>1656088735.675</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -11332,21 +12729,21 @@
     </row>
     <row r="12" spans="1:12" ht="15.01" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>219</v>
+        <v>318</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E12" s="3">
-        <v>1505.53521425</v>
+        <v>30110.704285</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -11356,21 +12753,21 @@
     </row>
     <row r="13" spans="1:12" ht="15.01" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>220</v>
+        <v>319</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E13" s="3">
-        <v>1505.53521425</v>
+        <v>30110.704285</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -11380,21 +12777,21 @@
     </row>
     <row r="14" spans="1:12" ht="15.01" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>221</v>
+        <v>320</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>30110.704285</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -11404,21 +12801,21 @@
     </row>
     <row r="15" spans="1:12" ht="15.01" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>222</v>
+        <v>321</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E15" s="3">
-        <v>1</v>
+        <v>30110.704285</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -11428,21 +12825,21 @@
     </row>
     <row r="16" spans="1:12" ht="15.01" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>223</v>
+        <v>322</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>30110.704285</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -11452,21 +12849,21 @@
     </row>
     <row r="17" spans="1:12" ht="15.01" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>224</v>
+        <v>323</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E17" s="3">
-        <v>1</v>
+        <v>30110.704285</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -11476,21 +12873,21 @@
     </row>
     <row r="18" spans="1:12" ht="15.01" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>225</v>
+        <v>324</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -11500,21 +12897,21 @@
     </row>
     <row r="19" spans="1:12" ht="15.01" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>226</v>
+        <v>325</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E19" s="3">
-        <v>100</v>
+        <v>1656088735.675</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -11524,21 +12921,21 @@
     </row>
     <row r="20" spans="1:12" ht="15.01" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>227</v>
+        <v>326</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>1505.53521425</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -11548,11 +12945,11 @@
     </row>
     <row r="21" spans="1:12" ht="15.01" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>228</v>
+        <v>327</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>92</v>
@@ -11562,7 +12959,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -11572,11 +12969,11 @@
     </row>
     <row r="22" spans="1:12" ht="15.01" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>229</v>
+        <v>328</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>92</v>
@@ -11586,7 +12983,7 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -11596,21 +12993,21 @@
     </row>
     <row r="23" spans="1:12" ht="15.01" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>230</v>
+        <v>329</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E23" s="3">
-        <v>1000</v>
+        <v>30110.704285</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -11618,36 +13015,516 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
+    <row r="24" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1505.53521425</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="3">
+        <v>100</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A40" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A42" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A43" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:L23"/>
+  <autoFilter ref="A1:L43"/>
   <dataValidations count="12">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A23">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A43">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B23">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B43">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species" error="Value must be a value from &quot;Species:A&quot;." promptTitle="Species" prompt="Select a value from &quot;Species:A&quot;." sqref="C2:C23">
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species" error="Value must be a value from &quot;Species:A&quot;." promptTitle="Species" prompt="Select a value from &quot;Species:A&quot;." sqref="C2:C43">
       <formula1>'Species'!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Distribution" error="Value must be a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;W ..." promptTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_d ..." sqref="D2:D23"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="E2:E23">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Distribution" error="Value must be a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;W ..." promptTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_d ..." sqref="D2:D43"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="E2:E43">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard deviation" error="Value must be a float or blank." promptTitle="Standard deviation" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="F2:F23">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard deviation" error="Value must be a float or blank." promptTitle="Standard deviation" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="F2:F43">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." sqref="G2:G23">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." sqref="G2:G43">
       <formula1>"molecule,molar,millimolar,micromolar,nanomolar,picomolar,femtomolar,attomolar"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H2:H23"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="I2:I23"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J2:J23"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="K2:K23">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H2:H43"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="I2:I43"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J2:J43"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="K2:K43">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L2:L23"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L2:L43"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/rand_wc_model_gen/model_gen/model_2.xlsx
+++ b/rand_wc_model_gen/model_gen/model_2.xlsx
@@ -41,16 +41,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'dFBA objective species'!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA objectives'!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Functions!$A$1:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Initial species concentrations'!$A$1:$L$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Initial species concentrations'!$A$1:$L$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Observables!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'Observation sets'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">Observations!$A$2:$W$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Parameters!$A$1:$K$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Parameters!$A$1:$K$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Rate laws'!$A$1:$L$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Reactions!$A$2:$N$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">References!$A$1:$R$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$2:$N$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Species!$A$1:$J$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$2:$N$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Species!$A$1:$J$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'Stop conditions'!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Submodels!$A$1:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$24</definedName>
@@ -4215,7 +4215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="551">
   <si>
     <t>'Model'!A1</t>
   </si>
@@ -4412,7 +4412,7 @@
     <t>Created</t>
   </si>
   <si>
-    <t>2019-08-22 10:58:26</t>
+    <t>2019-08-22 11:51:55</t>
   </si>
   <si>
     <t>Updated</t>
@@ -4835,22 +4835,82 @@
     <t>C5H9NO2</t>
   </si>
   <si>
+    <t>prot_1</t>
+  </si>
+  <si>
+    <t>Protein 1</t>
+  </si>
+  <si>
+    <t>MYLSKV</t>
+  </si>
+  <si>
+    <t>bpforms</t>
+  </si>
+  <si>
+    <t>C34H59N7O9S</t>
+  </si>
+  <si>
+    <t>prot_2</t>
+  </si>
+  <si>
+    <t>Protein 2</t>
+  </si>
+  <si>
+    <t>MTGLTLGRS</t>
+  </si>
+  <si>
+    <t>C38H72N12O13S</t>
+  </si>
+  <si>
+    <t>prot_3</t>
+  </si>
+  <si>
+    <t>Protein 3</t>
+  </si>
+  <si>
+    <t>MDSLWAS</t>
+  </si>
+  <si>
+    <t>C35H53N8O11S</t>
+  </si>
+  <si>
+    <t>prot_4</t>
+  </si>
+  <si>
+    <t>Protein 4</t>
+  </si>
+  <si>
+    <t>MKRPFLDA</t>
+  </si>
+  <si>
+    <t>C44H75N12O10S</t>
+  </si>
+  <si>
+    <t>prot_5</t>
+  </si>
+  <si>
+    <t>Protein 5</t>
+  </si>
+  <si>
+    <t>MLLSG</t>
+  </si>
+  <si>
+    <t>C22H42N5O7S</t>
+  </si>
+  <si>
     <t>rna_1</t>
   </si>
   <si>
     <t>RNA 1</t>
   </si>
   <si>
-    <t>GGGGCGUCUGGCAUGACC</t>
-  </si>
-  <si>
-    <t>bpforms</t>
+    <t>AUGUACUUAAGUAAAGUCUGA</t>
   </si>
   <si>
     <t>rna</t>
   </si>
   <si>
-    <t>C172H196N71O128P18</t>
+    <t>C201H225N80O147P21</t>
   </si>
   <si>
     <t>RNA</t>
@@ -4862,10 +4922,10 @@
     <t>RNA 2</t>
   </si>
   <si>
-    <t>GCCUCUGUU</t>
-  </si>
-  <si>
-    <t>C83H96N27O68P9</t>
+    <t>AUGACUGGACUCACGCUCGGCCGAAGUUAG</t>
+  </si>
+  <si>
+    <t>C286H325N116O210P30</t>
   </si>
   <si>
     <t>rna_3</t>
@@ -4874,10 +4934,10 @@
     <t>RNA 3</t>
   </si>
   <si>
-    <t>ACCACAUAGGCCCACCCAAUA</t>
-  </si>
-  <si>
-    <t>C199H230N81O142P21</t>
+    <t>AUGGAUUCUUUGUGGGCCAGCUGA</t>
+  </si>
+  <si>
+    <t>C228H257N88O173P24</t>
   </si>
   <si>
     <t>rna_4</t>
@@ -4886,10 +4946,10 @@
     <t>RNA 4</t>
   </si>
   <si>
-    <t>ACCGCCAGACAAUGU</t>
-  </si>
-  <si>
-    <t>C143H164N59O103P15</t>
+    <t>AUGAAACGUCCCUUUCUGGACGCGUGA</t>
+  </si>
+  <si>
+    <t>C256H291N100O191P27</t>
   </si>
   <si>
     <t>rna_5</t>
@@ -4898,10 +4958,10 @@
     <t>RNA 5</t>
   </si>
   <si>
-    <t>GGGAACGUGUAC</t>
-  </si>
-  <si>
-    <t>C116H131N50O84P12</t>
+    <t>AUGUUAUUAUCAGGUUGA</t>
+  </si>
+  <si>
+    <t>C171H191N64O130P18</t>
   </si>
   <si>
     <t>rna_pol</t>
@@ -5096,6 +5156,21 @@
     <t>Pro[c]</t>
   </si>
   <si>
+    <t>prot_1[c]</t>
+  </si>
+  <si>
+    <t>prot_2[c]</t>
+  </si>
+  <si>
+    <t>prot_3[c]</t>
+  </si>
+  <si>
+    <t>prot_4[c]</t>
+  </si>
+  <si>
+    <t>prot_5[c]</t>
+  </si>
+  <si>
     <t>rna_1[c]</t>
   </si>
   <si>
@@ -5222,6 +5297,21 @@
     <t>dist-init-conc-Pro[c]</t>
   </si>
   <si>
+    <t>dist-init-conc-prot_1[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-prot_2[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-prot_3[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-prot_4[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-prot_5[c]</t>
+  </si>
+  <si>
     <t>dist-init-conc-rna_1[c]</t>
   </si>
   <si>
@@ -5303,7 +5393,7 @@
     <t>transcription RNA 1</t>
   </si>
   <si>
-    <t>[c]: (17) h2o + rna_1 ==&gt; (2) amp + (5) cmp + (8) gmp + (17) h + (3) ump</t>
+    <t>[c]: (20) h2o + rna_1 ==&gt; (8) amp + (2) cmp + (4) gmp + (20) h + (7) ump</t>
   </si>
   <si>
     <t>1 / second</t>
@@ -5315,7 +5405,7 @@
     <t>transcription RNA 2</t>
   </si>
   <si>
-    <t>[c]: (8) h2o + rna_2 ==&gt; (3) cmp + (2) gmp + (8) h + (4) ump</t>
+    <t>[c]: (29) h2o + rna_2 ==&gt; (7) amp + (8) cmp + (9) gmp + (29) h + (6) ump</t>
   </si>
   <si>
     <t>degradation_rna_3</t>
@@ -5324,7 +5414,7 @@
     <t>transcription RNA 3</t>
   </si>
   <si>
-    <t>[c]: (20) h2o + rna_3 ==&gt; (8) amp + (9) cmp + (2) gmp + (20) h + (2) ump</t>
+    <t>[c]: (23) h2o + rna_3 ==&gt; (4) amp + (4) cmp + (8) gmp + (23) h + (8) ump</t>
   </si>
   <si>
     <t>degradation_rna_4</t>
@@ -5333,7 +5423,7 @@
     <t>transcription RNA 4</t>
   </si>
   <si>
-    <t>[c]: (14) h2o + rna_4 ==&gt; (5) amp + (5) cmp + (3) gmp + (14) h + (2) ump</t>
+    <t>[c]: (26) h2o + rna_4 ==&gt; (6) amp + (7) cmp + (7) gmp + (26) h + (7) ump</t>
   </si>
   <si>
     <t>degradation_rna_5</t>
@@ -5342,7 +5432,7 @@
     <t>transcription RNA 5</t>
   </si>
   <si>
-    <t>[c]: (11) h2o + rna_5 ==&gt; (3) amp + (2) cmp + (5) gmp + (11) h + (2) ump</t>
+    <t>[c]: (17) h2o + rna_5 ==&gt; (5) amp + cmp + (4) gmp + (17) h + (8) ump</t>
   </si>
   <si>
     <t>syn_atp</t>
@@ -5384,31 +5474,31 @@
     <t>transcription_rna_1</t>
   </si>
   <si>
-    <t>[c]: (2) atp + (5) ctp + (8) gtp + h2o + (3) utp ==&gt; h + (18) ppi + rna_1</t>
+    <t>[c]: (8) atp + (2) ctp + (4) gtp + h2o + (7) utp ==&gt; h + (21) ppi + rna_1</t>
   </si>
   <si>
     <t>transcription_rna_2</t>
   </si>
   <si>
-    <t>[c]: (3) ctp + (2) gtp + h2o + (4) utp ==&gt; h + (9) ppi + rna_2</t>
+    <t>[c]: (7) atp + (8) ctp + (9) gtp + h2o + (6) utp ==&gt; h + (30) ppi + rna_2</t>
   </si>
   <si>
     <t>transcription_rna_3</t>
   </si>
   <si>
-    <t>[c]: (8) atp + (9) ctp + (2) gtp + h2o + (2) utp ==&gt; h + (21) ppi + rna_3</t>
+    <t>[c]: (4) atp + (4) ctp + (8) gtp + h2o + (8) utp ==&gt; h + (24) ppi + rna_3</t>
   </si>
   <si>
     <t>transcription_rna_4</t>
   </si>
   <si>
-    <t>[c]: (5) atp + (5) ctp + (3) gtp + h2o + (2) utp ==&gt; h + (15) ppi + rna_4</t>
+    <t>[c]: (6) atp + (7) ctp + (7) gtp + h2o + (7) utp ==&gt; h + (27) ppi + rna_4</t>
   </si>
   <si>
     <t>transcription_rna_5</t>
   </si>
   <si>
-    <t>[c]: (3) atp + (2) ctp + (5) gtp + h2o + (2) utp ==&gt; h + (12) ppi + rna_5</t>
+    <t>[c]: (5) atp + ctp + (4) gtp + h2o + (8) utp ==&gt; h + (18) ppi + rna_5</t>
   </si>
   <si>
     <t>Reaction</t>
@@ -5483,7 +5573,7 @@
     <t>transcription_rna_2-forward</t>
   </si>
   <si>
-    <t>k_trans_rna_2 * (gtp[c] / (km_gtp_trans * Avogadro * volume_c + gtp[c])) * (ctp[c] / (km_ctp_trans * Avogadro * volume_c + ctp[c])) * (utp[c] / (km_utp_trans * Avogadro * volume_c + utp[c])) * rna_pol[c] / (Avogadro * volume_c)</t>
+    <t>k_trans_rna_2 * (atp[c] / (km_atp_trans * Avogadro * volume_c + atp[c])) * (gtp[c] / (km_gtp_trans * Avogadro * volume_c + gtp[c])) * (ctp[c] / (km_ctp_trans * Avogadro * volume_c + ctp[c])) * (utp[c] / (km_utp_trans * Avogadro * volume_c + utp[c])) * rna_pol[c] / (Avogadro * volume_c)</t>
   </si>
   <si>
     <t>transcription_rna_3-forward</t>
@@ -5529,6 +5619,21 @@
   </si>
   <si>
     <t>gram / liter</t>
+  </si>
+  <si>
+    <t>half_life_prot_1</t>
+  </si>
+  <si>
+    <t>half_life_prot_2</t>
+  </si>
+  <si>
+    <t>half_life_prot_3</t>
+  </si>
+  <si>
+    <t>half_life_prot_4</t>
+  </si>
+  <si>
+    <t>half_life_prot_5</t>
   </si>
   <si>
     <t>half_life_rna_1</t>
@@ -6219,7 +6324,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.01" customHeight="1">
@@ -6228,7 +6333,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.01" customHeight="1">
@@ -6237,7 +6342,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.01" customHeight="1">
@@ -6309,7 +6414,7 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.01" customHeight="1">
@@ -6430,7 +6535,7 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>84</v>
@@ -6502,7 +6607,7 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>84</v>
@@ -6525,11 +6630,11 @@
     </row>
     <row r="2" spans="1:9" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>93</v>
@@ -6589,13 +6694,13 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -6611,22 +6716,22 @@
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>84</v>
@@ -6649,22 +6754,22 @@
     </row>
     <row r="3" spans="1:14" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -6677,22 +6782,22 @@
     </row>
     <row r="4" spans="1:14" ht="15.01" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -6705,22 +6810,22 @@
     </row>
     <row r="5" spans="1:14" ht="15.01" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -6733,22 +6838,22 @@
     </row>
     <row r="6" spans="1:14" ht="15.01" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="E6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -6761,22 +6866,22 @@
     </row>
     <row r="7" spans="1:14" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -6789,22 +6894,22 @@
     </row>
     <row r="8" spans="1:14" ht="15.01" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -6817,22 +6922,22 @@
     </row>
     <row r="9" spans="1:14" ht="15.01" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -6845,22 +6950,22 @@
     </row>
     <row r="10" spans="1:14" ht="15.01" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>384</v>
+        <v>414</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -6873,22 +6978,22 @@
     </row>
     <row r="11" spans="1:14" ht="15.01" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -6901,22 +7006,22 @@
     </row>
     <row r="12" spans="1:14" ht="15.01" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="E12" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -6929,22 +7034,22 @@
     </row>
     <row r="13" spans="1:14" ht="15.01" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="E13" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -6957,22 +7062,22 @@
     </row>
     <row r="14" spans="1:14" ht="15.01" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -6985,22 +7090,22 @@
     </row>
     <row r="15" spans="1:14" ht="15.01" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="E15" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -7013,22 +7118,22 @@
     </row>
     <row r="16" spans="1:14" ht="15.01" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -7109,16 +7214,16 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>84</v>
@@ -7141,21 +7246,21 @@
     </row>
     <row r="2" spans="1:12" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -7165,21 +7270,21 @@
     </row>
     <row r="3" spans="1:12" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -7189,21 +7294,21 @@
     </row>
     <row r="4" spans="1:12" ht="15.01" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -7213,21 +7318,21 @@
     </row>
     <row r="5" spans="1:12" ht="15.01" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -7237,21 +7342,21 @@
     </row>
     <row r="6" spans="1:12" ht="15.01" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -7261,21 +7366,21 @@
     </row>
     <row r="7" spans="1:12" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -7285,21 +7390,21 @@
     </row>
     <row r="8" spans="1:12" ht="15.01" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -7309,21 +7414,21 @@
     </row>
     <row r="9" spans="1:12" ht="15.01" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -7333,21 +7438,21 @@
     </row>
     <row r="10" spans="1:12" ht="15.01" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -7357,21 +7462,21 @@
     </row>
     <row r="11" spans="1:12" ht="15.01" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -7381,21 +7486,21 @@
     </row>
     <row r="12" spans="1:12" ht="15.01" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -7405,21 +7510,21 @@
     </row>
     <row r="13" spans="1:12" ht="15.01" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -7429,21 +7534,21 @@
     </row>
     <row r="14" spans="1:12" ht="15.01" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -7453,21 +7558,21 @@
     </row>
     <row r="15" spans="1:12" ht="15.01" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -7534,19 +7639,19 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>62</v>
@@ -7623,13 +7728,13 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>62</v>
@@ -7703,7 +7808,7 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>32</v>
@@ -7768,7 +7873,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7795,7 +7900,7 @@
         <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>84</v>
@@ -7818,7 +7923,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7827,7 +7932,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -7837,7 +7942,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7865,7 +7970,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -7875,12 +7980,12 @@
     </row>
     <row r="5" spans="1:11" ht="15.01" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
@@ -7894,12 +7999,12 @@
     </row>
     <row r="6" spans="1:11" ht="15.01" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
@@ -7913,12 +8018,12 @@
     </row>
     <row r="7" spans="1:11" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
@@ -7932,12 +8037,12 @@
     </row>
     <row r="8" spans="1:11" ht="15.01" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
@@ -7951,12 +8056,12 @@
     </row>
     <row r="9" spans="1:11" ht="15.01" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
@@ -7970,18 +8075,16 @@
     </row>
     <row r="10" spans="1:11" ht="15.01" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>444</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <v>0.003850817669777474</v>
+        <v>180</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>445</v>
+        <v>61</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -7991,18 +8094,16 @@
     </row>
     <row r="11" spans="1:11" ht="15.01" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>444</v>
-      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3">
-        <v>0.003850817669777474</v>
+        <v>180</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>445</v>
+        <v>61</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -8012,18 +8113,16 @@
     </row>
     <row r="12" spans="1:11" ht="15.01" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>444</v>
-      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3">
-        <v>0.003850817669777474</v>
+        <v>180</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>445</v>
+        <v>61</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -8033,18 +8132,16 @@
     </row>
     <row r="13" spans="1:11" ht="15.01" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>444</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3">
-        <v>0.003850817669777474</v>
+        <v>180</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>445</v>
+        <v>61</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -8054,18 +8151,16 @@
     </row>
     <row r="14" spans="1:11" ht="15.01" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>444</v>
-      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="3">
-        <v>0.003850817669777474</v>
+        <v>180</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>445</v>
+        <v>61</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -8075,18 +8170,18 @@
     </row>
     <row r="15" spans="1:11" ht="15.01" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="D15" s="3">
-        <v>0.03080654135821979</v>
+        <v>0.003850817669777474</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -8096,18 +8191,18 @@
     </row>
     <row r="16" spans="1:11" ht="15.01" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="D16" s="3">
-        <v>0.03080654135821979</v>
+        <v>0.003850817669777474</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -8117,18 +8212,18 @@
     </row>
     <row r="17" spans="1:11" ht="15.01" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="D17" s="3">
-        <v>0.03080654135821979</v>
+        <v>0.003850817669777474</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -8138,18 +8233,18 @@
     </row>
     <row r="18" spans="1:11" ht="15.01" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="D18" s="3">
-        <v>0.03080654135821979</v>
+        <v>0.003850817669777474</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -8159,18 +8254,18 @@
     </row>
     <row r="19" spans="1:11" ht="15.01" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="D19" s="3">
-        <v>0.03080654135821979</v>
+        <v>0.003850817669777474</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -8180,18 +8275,18 @@
     </row>
     <row r="20" spans="1:11" ht="15.01" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="D20" s="3">
-        <v>0.003080654</v>
+        <v>0.03080654135821979</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>363</v>
+        <v>480</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -8201,18 +8296,18 @@
     </row>
     <row r="21" spans="1:11" ht="15.01" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="D21" s="3">
-        <v>0.003080654</v>
+        <v>0.03080654135821979</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>363</v>
+        <v>480</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -8222,18 +8317,18 @@
     </row>
     <row r="22" spans="1:11" ht="15.01" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="D22" s="3">
-        <v>0.003080654</v>
+        <v>0.03080654135821979</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>363</v>
+        <v>480</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -8243,18 +8338,18 @@
     </row>
     <row r="23" spans="1:11" ht="15.01" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="D23" s="3">
-        <v>0.003080654</v>
+        <v>0.03080654135821979</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>363</v>
+        <v>480</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -8264,18 +8359,18 @@
     </row>
     <row r="24" spans="1:11" ht="15.01" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="D24" s="3">
-        <v>0.001</v>
+        <v>0.03080654135821979</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -8285,18 +8380,18 @@
     </row>
     <row r="25" spans="1:11" ht="15.01" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="D25" s="3">
-        <v>0.001</v>
+        <v>0.003080654</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>461</v>
+        <v>393</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -8306,18 +8401,18 @@
     </row>
     <row r="26" spans="1:11" ht="15.01" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="D26" s="3">
-        <v>3.321078080854329e-08</v>
+        <v>0.003080654</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>461</v>
+        <v>393</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -8327,18 +8422,18 @@
     </row>
     <row r="27" spans="1:11" ht="15.01" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="D27" s="3">
-        <v>3.321078080854329e-08</v>
+        <v>0.003080654</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>461</v>
+        <v>393</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -8348,18 +8443,18 @@
     </row>
     <row r="28" spans="1:11" ht="15.01" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="D28" s="3">
-        <v>3.321078080854329e-08</v>
+        <v>0.003080654</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>461</v>
+        <v>393</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -8369,18 +8464,18 @@
     </row>
     <row r="29" spans="1:11" ht="15.01" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="D29" s="3">
-        <v>3.321078080854329e-08</v>
+        <v>0.001</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -8390,18 +8485,18 @@
     </row>
     <row r="30" spans="1:11" ht="15.01" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="D30" s="3">
-        <v>3.321078080854329e-08</v>
+        <v>0.001</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -8411,18 +8506,18 @@
     </row>
     <row r="31" spans="1:11" ht="15.01" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="D31" s="3">
-        <v>0.001</v>
+        <v>3.321078080854329e-08</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -8432,18 +8527,18 @@
     </row>
     <row r="32" spans="1:11" ht="15.01" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="D32" s="3">
-        <v>0.001</v>
+        <v>3.321078080854329e-08</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -8453,18 +8548,18 @@
     </row>
     <row r="33" spans="1:11" ht="15.01" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="D33" s="3">
-        <v>5e-05</v>
+        <v>3.321078080854329e-08</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -8474,18 +8569,18 @@
     </row>
     <row r="34" spans="1:11" ht="15.01" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="D34" s="3">
-        <v>0.001</v>
+        <v>3.321078080854329e-08</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -8495,18 +8590,18 @@
     </row>
     <row r="35" spans="1:11" ht="15.01" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="D35" s="3">
-        <v>5e-05</v>
+        <v>3.321078080854329e-08</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -8516,18 +8611,18 @@
     </row>
     <row r="36" spans="1:11" ht="15.01" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="D36" s="3">
         <v>0.001</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -8537,18 +8632,18 @@
     </row>
     <row r="37" spans="1:11" ht="15.01" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="D37" s="3">
-        <v>5e-05</v>
+        <v>0.001</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -8558,18 +8653,18 @@
     </row>
     <row r="38" spans="1:11" ht="15.01" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="D38" s="3">
         <v>5e-05</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -8579,18 +8674,18 @@
     </row>
     <row r="39" spans="1:11" ht="15.01" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="D39" s="3">
         <v>0.001</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -8600,18 +8695,18 @@
     </row>
     <row r="40" spans="1:11" ht="15.01" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="D40" s="3">
-        <v>0.001</v>
+        <v>5e-05</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -8619,35 +8714,140 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
+    <row r="41" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A42" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D42" s="3">
+        <v>5e-05</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A43" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D43" s="3">
+        <v>5e-05</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.01" customHeight="1">
+      <c r="A45" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:K40"/>
+  <autoFilter ref="A1:K45"/>
   <dataValidations count="11">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A2:A40">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A2:A45">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B40">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B45">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C2:C40">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C2:C45">
       <formula1>"kinetic_constant,K_i,K_m,k_cat,v_max"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D2:D40">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D2:D45">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="E2:E40">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="E2:E45">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." sqref="F2:F40"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G2:G40"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="H2:H40"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I2:I40"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="J2:J40">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." sqref="F2:F45"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G2:G45"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="H2:H45"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I2:I45"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="J2:J45">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K2:K40"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K2:K45"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8677,7 +8877,7 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>84</v>
@@ -8749,10 +8949,10 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>28</v>
@@ -8775,16 +8975,16 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="5" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
@@ -8801,7 +9001,7 @@
         <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>84</v>
@@ -8813,7 +9013,7 @@
         <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>68</v>
@@ -8825,19 +9025,19 @@
         <v>75</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>484</v>
+        <v>519</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>485</v>
+        <v>520</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>486</v>
+        <v>521</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>51</v>
@@ -9167,10 +9367,10 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -9190,7 +9390,7 @@
         <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>84</v>
@@ -9220,7 +9420,7 @@
         <v>47</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>488</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -9293,46 +9493,46 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>103</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>493</v>
+        <v>528</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>495</v>
+        <v>530</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>496</v>
+        <v>531</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>497</v>
+        <v>532</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>500</v>
+        <v>535</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>501</v>
+        <v>536</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>62</v>
@@ -9427,28 +9627,28 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>502</v>
+        <v>537</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>503</v>
+        <v>538</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>505</v>
+        <v>540</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>507</v>
+        <v>542</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>508</v>
+        <v>543</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>62</v>
@@ -9531,25 +9731,25 @@
         <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>509</v>
+        <v>544</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>510</v>
+        <v>545</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>511</v>
+        <v>546</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>512</v>
+        <v>547</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>513</v>
+        <v>548</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>514</v>
+        <v>549</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>62</v>
@@ -9570,7 +9770,7 @@
         <v>47</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>488</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -10091,7 +10291,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -11024,19 +11224,19 @@
         <v>209</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="G30" s="3">
-        <v>5863.356715964</v>
+        <v>741.9459999999999</v>
       </c>
       <c r="H30" s="3">
-        <v>-19</v>
+        <v>2</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -11046,31 +11246,31 @@
     </row>
     <row r="31" spans="1:14" ht="15.01" customHeight="1">
       <c r="A31" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>209</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G31" s="3">
-        <v>2838.565857982</v>
+        <v>937.125</v>
       </c>
       <c r="H31" s="3">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -11080,31 +11280,31 @@
     </row>
     <row r="32" spans="1:14" ht="15.01" customHeight="1">
       <c r="A32" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>209</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G32" s="3">
-        <v>6678.903001958</v>
+        <v>793.914</v>
       </c>
       <c r="H32" s="3">
-        <v>-22</v>
+        <v>1</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -11114,31 +11314,31 @@
     </row>
     <row r="33" spans="1:14" ht="15.01" customHeight="1">
       <c r="A33" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>209</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G33" s="3">
-        <v>4821.80142997</v>
+        <v>964.2179999999998</v>
       </c>
       <c r="H33" s="3">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -11148,31 +11348,31 @@
     </row>
     <row r="34" spans="1:14" ht="15.01" customHeight="1">
       <c r="A34" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>209</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G34" s="3">
-        <v>3941.275143976</v>
+        <v>520.6659999999999</v>
       </c>
       <c r="H34" s="3">
-        <v>-13</v>
+        <v>1</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -11182,19 +11382,31 @@
     </row>
     <row r="35" spans="1:14" ht="15.01" customHeight="1">
       <c r="A35" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="D35" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G35" s="3">
+        <v>6763.873001958</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-22</v>
+      </c>
       <c r="I35" s="3" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -11204,19 +11416,31 @@
     </row>
     <row r="36" spans="1:14" ht="15.01" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G36" s="3">
+        <v>9676.560859939998</v>
+      </c>
+      <c r="H36" s="3">
+        <v>-31</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -11226,29 +11450,31 @@
     </row>
     <row r="37" spans="1:14" ht="15.01" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" s="3"/>
+        <v>209</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="F37" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G37" s="3">
-        <v>105.093</v>
+        <v>7741.377287952</v>
       </c>
       <c r="H37" s="3">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>109</v>
+        <v>232</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -11258,29 +11484,31 @@
     </row>
     <row r="38" spans="1:14" ht="15.01" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="3"/>
+        <v>209</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="F38" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G38" s="3">
-        <v>119.12</v>
+        <v>8660.944573946001</v>
       </c>
       <c r="H38" s="3">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>109</v>
+        <v>232</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -11290,29 +11518,31 @@
     </row>
     <row r="39" spans="1:14" ht="15.01" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" s="3"/>
+        <v>209</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="F39" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G39" s="3">
-        <v>204.229</v>
+        <v>5780.254715963999</v>
       </c>
       <c r="H39" s="3">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>109</v>
+        <v>232</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -11322,29 +11552,19 @@
     </row>
     <row r="40" spans="1:14" ht="15.01" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G40" s="3">
-        <v>181.191</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
       <c r="I40" s="3" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -11354,29 +11574,19 @@
     </row>
     <row r="41" spans="1:14" ht="15.01" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="G41" s="3">
-        <v>322.165761998</v>
-      </c>
-      <c r="H41" s="3">
-        <v>-2</v>
-      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
       <c r="I41" s="3" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -11402,10 +11612,10 @@
         <v>256</v>
       </c>
       <c r="G42" s="3">
-        <v>480.1072859940001</v>
+        <v>105.093</v>
       </c>
       <c r="H42" s="3">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>109</v>
@@ -11423,14 +11633,24 @@
       <c r="B43" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G43" s="3">
+        <v>119.12</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
       <c r="I43" s="3" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -11440,23 +11660,23 @@
     </row>
     <row r="44" spans="1:14" ht="15.01" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G44" s="3">
-        <v>117.148</v>
+        <v>204.229</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -11470,45 +11690,195 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
     </row>
+    <row r="45" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A45" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G45" s="3">
+        <v>181.191</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G46" s="3">
+        <v>322.165761998</v>
+      </c>
+      <c r="H46" s="3">
+        <v>-2</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G47" s="3">
+        <v>480.1072859940001</v>
+      </c>
+      <c r="H47" s="3">
+        <v>-4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.01" customHeight="1">
+      <c r="A49" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G49" s="3">
+        <v>117.148</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:N44"/>
+  <autoFilter ref="A2:N49"/>
   <mergeCells count="1">
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A3:A44">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." sqref="A3:A49">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B44">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B49">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Value" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="C3:C44">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Value" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="C3:C49">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Format" error="Value must be one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." promptTitle="Format" prompt="Select one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." sqref="D3:D44">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Format" error="Value must be one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." promptTitle="Format" prompt="Select one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." sqref="D3:D49">
       <formula1>"smiles,bpforms"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Alphabet" error="Value must be one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." promptTitle="Alphabet" prompt="Select one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." sqref="E3:E44">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Alphabet" error="Value must be one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." promptTitle="Alphabet" prompt="Select one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." sqref="E3:E49">
       <formula1>"dna,rna,protein,canonical_dna,canonical_rna,canonical_protein"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Empirical formula" error="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Value must be an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="Empirical formula" prompt="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Enter an empirical formula (e.g. &quot;H2O&quot;)." sqref="F3:F44"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Molecular weight" error="Value must be a float or blank." promptTitle="Molecular weight" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="G3:G44">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Empirical formula" error="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Value must be an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="Empirical formula" prompt="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Enter an empirical formula (e.g. &quot;H2O&quot;)." sqref="F3:F49"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Molecular weight" error="Value must be a float or blank." promptTitle="Molecular weight" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="G3:G49">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Charge" error="Value must be an integer." promptTitle="Charge" prompt="Enter an integer." sqref="H3:H44">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Charge" error="Value must be an integer." promptTitle="Charge" prompt="Enter an integer." sqref="H3:H49">
       <formula1>-32768</formula1>
       <formula2>32767</formula2>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;I ..." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;Ion&quot;, &quot;am ..." sqref="I3:I44"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J3:J44"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="K3:K44"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="L3:L44"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="M3:M44">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;I ..." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;Ion&quot;, &quot;am ..." sqref="I3:I49"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J3:J49"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="K3:K49"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="L3:L49"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="M3:M49">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N3:N44"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N3:N49"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11517,7 +11887,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11538,10 +11908,10 @@
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>84</v>
@@ -11564,7 +11934,7 @@
     </row>
     <row r="2" spans="1:10" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
@@ -11574,7 +11944,7 @@
         <v>86</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -11584,7 +11954,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -11594,7 +11964,7 @@
         <v>86</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -11604,7 +11974,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.01" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -11614,7 +11984,7 @@
         <v>86</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -11624,7 +11994,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.01" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
@@ -11634,7 +12004,7 @@
         <v>86</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -11644,7 +12014,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.01" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
@@ -11654,7 +12024,7 @@
         <v>86</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11664,7 +12034,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -11674,7 +12044,7 @@
         <v>86</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -11684,7 +12054,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.01" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
@@ -11694,7 +12064,7 @@
         <v>86</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -11704,7 +12074,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.01" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
@@ -11714,7 +12084,7 @@
         <v>86</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -11724,7 +12094,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.01" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -11734,7 +12104,7 @@
         <v>86</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -11744,7 +12114,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.01" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -11754,7 +12124,7 @@
         <v>86</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -11764,7 +12134,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.01" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
@@ -11774,7 +12144,7 @@
         <v>86</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -11784,7 +12154,7 @@
     </row>
     <row r="13" spans="1:10" ht="15.01" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
@@ -11794,7 +12164,7 @@
         <v>86</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -11804,7 +12174,7 @@
     </row>
     <row r="14" spans="1:10" ht="15.01" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -11814,7 +12184,7 @@
         <v>86</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -11824,7 +12194,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.01" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
@@ -11834,7 +12204,7 @@
         <v>86</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -11844,7 +12214,7 @@
     </row>
     <row r="16" spans="1:10" ht="15.01" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
@@ -11854,7 +12224,7 @@
         <v>86</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -11864,7 +12234,7 @@
     </row>
     <row r="17" spans="1:10" ht="15.01" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
@@ -11874,7 +12244,7 @@
         <v>86</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -11884,7 +12254,7 @@
     </row>
     <row r="18" spans="1:10" ht="15.01" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
@@ -11894,7 +12264,7 @@
         <v>86</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -11904,7 +12274,7 @@
     </row>
     <row r="19" spans="1:10" ht="15.01" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
@@ -11914,7 +12284,7 @@
         <v>86</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -11924,7 +12294,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.01" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
@@ -11934,7 +12304,7 @@
         <v>86</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -11944,7 +12314,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.01" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
@@ -11954,7 +12324,7 @@
         <v>86</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -11964,7 +12334,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.01" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
@@ -11974,7 +12344,7 @@
         <v>86</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -11984,7 +12354,7 @@
     </row>
     <row r="23" spans="1:10" ht="15.01" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
@@ -11994,7 +12364,7 @@
         <v>86</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -12004,7 +12374,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.01" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
@@ -12014,7 +12384,7 @@
         <v>86</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -12024,7 +12394,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.01" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
@@ -12034,7 +12404,7 @@
         <v>86</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -12044,7 +12414,7 @@
     </row>
     <row r="26" spans="1:10" ht="15.01" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
@@ -12054,7 +12424,7 @@
         <v>86</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -12064,7 +12434,7 @@
     </row>
     <row r="27" spans="1:10" ht="15.01" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
@@ -12074,7 +12444,7 @@
         <v>86</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -12084,7 +12454,7 @@
     </row>
     <row r="28" spans="1:10" ht="15.01" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
@@ -12094,7 +12464,7 @@
         <v>86</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -12104,7 +12474,7 @@
     </row>
     <row r="29" spans="1:10" ht="15.01" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
@@ -12114,7 +12484,7 @@
         <v>86</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -12124,17 +12494,17 @@
     </row>
     <row r="30" spans="1:10" ht="15.01" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -12144,17 +12514,17 @@
     </row>
     <row r="31" spans="1:10" ht="15.01" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -12164,17 +12534,17 @@
     </row>
     <row r="32" spans="1:10" ht="15.01" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -12184,17 +12554,17 @@
     </row>
     <row r="33" spans="1:10" ht="15.01" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -12204,17 +12574,17 @@
     </row>
     <row r="34" spans="1:10" ht="15.01" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -12224,17 +12594,17 @@
     </row>
     <row r="35" spans="1:10" ht="15.01" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -12244,17 +12614,17 @@
     </row>
     <row r="36" spans="1:10" ht="15.01" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -12264,17 +12634,17 @@
     </row>
     <row r="37" spans="1:10" ht="15.01" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -12284,17 +12654,17 @@
     </row>
     <row r="38" spans="1:10" ht="15.01" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -12304,17 +12674,17 @@
     </row>
     <row r="39" spans="1:10" ht="15.01" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -12324,17 +12694,17 @@
     </row>
     <row r="40" spans="1:10" ht="15.01" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -12344,7 +12714,7 @@
     </row>
     <row r="41" spans="1:10" ht="15.01" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
@@ -12354,7 +12724,7 @@
         <v>86</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -12364,7 +12734,7 @@
     </row>
     <row r="42" spans="1:10" ht="15.01" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
@@ -12374,7 +12744,7 @@
         <v>86</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -12384,17 +12754,17 @@
     </row>
     <row r="43" spans="1:10" ht="15.01" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -12402,32 +12772,132 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
+    <row r="44" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A45" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:J43"/>
+  <autoFilter ref="A1:J48"/>
   <dataValidations count="10">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A43">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A48">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B43">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B48">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species type" error="Value must be a value from &quot;Species types:A&quot;." promptTitle="Species type" prompt="Select a value from &quot;Species types:A&quot;." sqref="C2:C43">
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species type" error="Value must be a value from &quot;Species types:A&quot;." promptTitle="Species type" prompt="Select a value from &quot;Species types:A&quot;." sqref="C2:C48">
       <formula1>'Species types'!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Compartment" error="Value must be a value from &quot;Compartments:A&quot;." promptTitle="Compartment" prompt="Select a value from &quot;Compartments:A&quot;." sqref="D2:D43">
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Compartment" error="Value must be a value from &quot;Compartments:A&quot;." promptTitle="Compartment" prompt="Select a value from &quot;Compartments:A&quot;." sqref="D2:D48">
       <formula1>'Compartments'!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." sqref="E2:E43">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." sqref="E2:E48">
       <formula1>"molecule"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="F2:F43"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="G2:G43"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="H2:H43"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="I2:I43">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="F2:F48"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="G2:G48"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="H2:H48"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="I2:I48">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="J2:J43"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="J2:J48"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12436,7 +12906,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12489,11 +12959,11 @@
     </row>
     <row r="2" spans="1:12" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>92</v>
@@ -12503,7 +12973,7 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -12513,11 +12983,11 @@
     </row>
     <row r="3" spans="1:12" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>92</v>
@@ -12527,7 +12997,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -12537,11 +13007,11 @@
     </row>
     <row r="4" spans="1:12" ht="15.01" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>92</v>
@@ -12551,7 +13021,7 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -12561,11 +13031,11 @@
     </row>
     <row r="5" spans="1:12" ht="15.01" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>92</v>
@@ -12575,7 +13045,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -12585,11 +13055,11 @@
     </row>
     <row r="6" spans="1:12" ht="15.01" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>92</v>
@@ -12599,7 +13069,7 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -12609,11 +13079,11 @@
     </row>
     <row r="7" spans="1:12" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>92</v>
@@ -12623,7 +13093,7 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -12633,11 +13103,11 @@
     </row>
     <row r="8" spans="1:12" ht="15.01" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>92</v>
@@ -12647,7 +13117,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -12657,11 +13127,11 @@
     </row>
     <row r="9" spans="1:12" ht="15.01" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>92</v>
@@ -12671,7 +13141,7 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -12681,11 +13151,11 @@
     </row>
     <row r="10" spans="1:12" ht="15.01" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>92</v>
@@ -12695,7 +13165,7 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -12705,11 +13175,11 @@
     </row>
     <row r="11" spans="1:12" ht="15.01" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>92</v>
@@ -12719,7 +13189,7 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -12729,11 +13199,11 @@
     </row>
     <row r="12" spans="1:12" ht="15.01" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>92</v>
@@ -12743,7 +13213,7 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -12753,11 +13223,11 @@
     </row>
     <row r="13" spans="1:12" ht="15.01" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>92</v>
@@ -12767,7 +13237,7 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -12777,11 +13247,11 @@
     </row>
     <row r="14" spans="1:12" ht="15.01" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>92</v>
@@ -12791,7 +13261,7 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -12801,11 +13271,11 @@
     </row>
     <row r="15" spans="1:12" ht="15.01" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>92</v>
@@ -12815,7 +13285,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -12825,11 +13295,11 @@
     </row>
     <row r="16" spans="1:12" ht="15.01" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>92</v>
@@ -12839,7 +13309,7 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -12849,11 +13319,11 @@
     </row>
     <row r="17" spans="1:12" ht="15.01" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>92</v>
@@ -12863,7 +13333,7 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -12873,11 +13343,11 @@
     </row>
     <row r="18" spans="1:12" ht="15.01" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>92</v>
@@ -12887,7 +13357,7 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -12897,11 +13367,11 @@
     </row>
     <row r="19" spans="1:12" ht="15.01" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>92</v>
@@ -12911,7 +13381,7 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -12921,11 +13391,11 @@
     </row>
     <row r="20" spans="1:12" ht="15.01" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>92</v>
@@ -12935,7 +13405,7 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -12945,11 +13415,11 @@
     </row>
     <row r="21" spans="1:12" ht="15.01" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>92</v>
@@ -12959,7 +13429,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -12969,11 +13439,11 @@
     </row>
     <row r="22" spans="1:12" ht="15.01" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>92</v>
@@ -12983,7 +13453,7 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -12993,11 +13463,11 @@
     </row>
     <row r="23" spans="1:12" ht="15.01" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>92</v>
@@ -13007,7 +13477,7 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -13017,11 +13487,11 @@
     </row>
     <row r="24" spans="1:12" ht="15.01" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>92</v>
@@ -13031,7 +13501,7 @@
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -13041,11 +13511,11 @@
     </row>
     <row r="25" spans="1:12" ht="15.01" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>92</v>
@@ -13055,7 +13525,7 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -13065,11 +13535,11 @@
     </row>
     <row r="26" spans="1:12" ht="15.01" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>92</v>
@@ -13079,7 +13549,7 @@
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -13089,11 +13559,11 @@
     </row>
     <row r="27" spans="1:12" ht="15.01" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>92</v>
@@ -13103,7 +13573,7 @@
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -13113,11 +13583,11 @@
     </row>
     <row r="28" spans="1:12" ht="15.01" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>92</v>
@@ -13127,7 +13597,7 @@
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -13137,21 +13607,21 @@
     </row>
     <row r="29" spans="1:12" ht="15.01" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E29" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -13161,21 +13631,21 @@
     </row>
     <row r="30" spans="1:12" ht="15.01" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E30" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -13185,21 +13655,21 @@
     </row>
     <row r="31" spans="1:12" ht="15.01" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E31" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -13209,21 +13679,21 @@
     </row>
     <row r="32" spans="1:12" ht="15.01" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E32" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -13233,21 +13703,21 @@
     </row>
     <row r="33" spans="1:12" ht="15.01" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E33" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -13257,21 +13727,21 @@
     </row>
     <row r="34" spans="1:12" ht="15.01" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E34" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -13281,21 +13751,21 @@
     </row>
     <row r="35" spans="1:12" ht="15.01" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -13305,21 +13775,21 @@
     </row>
     <row r="36" spans="1:12" ht="15.01" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E36" s="3">
-        <v>30110.704285</v>
+        <v>1</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -13329,21 +13799,21 @@
     </row>
     <row r="37" spans="1:12" ht="15.01" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E37" s="3">
-        <v>30110.704285</v>
+        <v>1</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -13353,21 +13823,21 @@
     </row>
     <row r="38" spans="1:12" ht="15.01" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E38" s="3">
-        <v>30110.704285</v>
+        <v>1</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -13377,21 +13847,21 @@
     </row>
     <row r="39" spans="1:12" ht="15.01" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E39" s="3">
-        <v>30110.704285</v>
+        <v>100</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -13401,21 +13871,21 @@
     </row>
     <row r="40" spans="1:12" ht="15.01" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E40" s="3">
-        <v>30110.704285</v>
+        <v>100</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -13425,11 +13895,11 @@
     </row>
     <row r="41" spans="1:12" ht="15.01" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>92</v>
@@ -13439,7 +13909,7 @@
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -13449,21 +13919,21 @@
     </row>
     <row r="42" spans="1:12" ht="15.01" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E42" s="3">
-        <v>1000</v>
+        <v>30110.704285</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -13473,11 +13943,11 @@
     </row>
     <row r="43" spans="1:12" ht="15.01" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>92</v>
@@ -13487,7 +13957,7 @@
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -13495,36 +13965,156 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
+    <row r="44" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A45" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="3">
+        <v>30110.704285</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:L43"/>
+  <autoFilter ref="A1:L48"/>
   <dataValidations count="12">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A43">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A48">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B43">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B48">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species" error="Value must be a value from &quot;Species:A&quot;." promptTitle="Species" prompt="Select a value from &quot;Species:A&quot;." sqref="C2:C43">
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species" error="Value must be a value from &quot;Species:A&quot;." promptTitle="Species" prompt="Select a value from &quot;Species:A&quot;." sqref="C2:C48">
       <formula1>'Species'!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Distribution" error="Value must be a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;W ..." promptTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_d ..." sqref="D2:D43"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="E2:E43">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Distribution" error="Value must be a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;W ..." promptTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_d ..." sqref="D2:D48"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="E2:E48">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard deviation" error="Value must be a float or blank." promptTitle="Standard deviation" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="F2:F43">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard deviation" error="Value must be a float or blank." promptTitle="Standard deviation" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="F2:F48">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." sqref="G2:G43">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." sqref="G2:G48">
       <formula1>"molecule,molar,millimolar,micromolar,nanomolar,picomolar,femtomolar,attomolar"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H2:H43"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="I2:I43"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J2:J43"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="K2:K43">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H2:H48"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="I2:I48"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J2:J48"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="K2:K48">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L2:L43"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L2:L48"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/rand_wc_model_gen/model_gen/model_2.xlsx
+++ b/rand_wc_model_gen/model_gen/model_2.xlsx
@@ -6,53 +6,53 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13965" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Model" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Taxon" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Environment" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Submodels" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Compartments" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species types" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observables" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Functions" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Reactions" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Parameters" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observations" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!References" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Authors" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Changes" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Model" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Taxon" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Environment" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Submodels" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Compartments" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species types" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observables" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Functions" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Reactions" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Parameters" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observations" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!References" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Authors" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Changes" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!Submodels'!$A$1:$H$2</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!Compartments'!$A$2:$U$3</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!Species types'!$A$2:$N$49</definedName>
-    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">'!Species'!$A$1:$J$48</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!Initial species concentrations'!$A$1:$L$48</definedName>
-    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'!Observables'!$A$1:$I$1</definedName>
-    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'!Functions'!$A$1:$I$2</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!Reactions'!$A$2:$N$16</definedName>
-    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!Rate laws'!$A$1:$L$15</definedName>
-    <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">'!dFBA objectives'!$A$1:$L$1</definedName>
-    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">'!dFBA objective reactions'!$A$1:$J$1</definedName>
-    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">'!dFBA objective species'!$A$1:$K$1</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!Parameters'!$A$1:$K$45</definedName>
-    <definedName hidden="1" localSheetId="17" name="_xlnm._FilterDatabase">'!Stop conditions'!$A$1:$I$1</definedName>
-    <definedName hidden="1" localSheetId="18" name="_xlnm._FilterDatabase">'!Observations'!$A$2:$W$2</definedName>
-    <definedName hidden="1" localSheetId="19" name="_xlnm._FilterDatabase">'!Observation sets'!$A$1:$F$1</definedName>
-    <definedName hidden="1" localSheetId="20" name="_xlnm._FilterDatabase">'!Conclusions'!$A$2:$N$2</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!References'!$A$1:$R$1</definedName>
-    <definedName hidden="1" localSheetId="22" name="_xlnm._FilterDatabase">'!Authors'!$A$1:$L$1</definedName>
-    <definedName hidden="1" localSheetId="23" name="_xlnm._FilterDatabase">'!Changes'!$A$1:$Q$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!!Submodels'!$A$1:$H$2</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$U$3</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$N$49</definedName>
+    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">'!!Species'!$A$1:$J$48</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!!Initial species concentrations'!$A$1:$L$48</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'!!Observables'!$A$1:$I$1</definedName>
+    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'!!Functions'!$A$1:$I$2</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$N$16</definedName>
+    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!!Rate laws'!$A$1:$L$15</definedName>
+    <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">'!!dFBA objectives'!$A$1:$L$1</definedName>
+    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">'!!dFBA objective reactions'!$A$1:$J$1</definedName>
+    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">'!!dFBA objective species'!$A$1:$K$1</definedName>
+    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$K$45</definedName>
+    <definedName hidden="1" localSheetId="17" name="_xlnm._FilterDatabase">'!!Stop conditions'!$A$1:$I$1</definedName>
+    <definedName hidden="1" localSheetId="18" name="_xlnm._FilterDatabase">'!!Observations'!$A$2:$W$2</definedName>
+    <definedName hidden="1" localSheetId="19" name="_xlnm._FilterDatabase">'!!Observation sets'!$A$1:$F$1</definedName>
+    <definedName hidden="1" localSheetId="20" name="_xlnm._FilterDatabase">'!!Conclusions'!$A$2:$N$2</definedName>
+    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$R$1</definedName>
+    <definedName hidden="1" localSheetId="22" name="_xlnm._FilterDatabase">'!!Authors'!$A$1:$L$1</definedName>
+    <definedName hidden="1" localSheetId="23" name="_xlnm._FilterDatabase">'!!Changes'!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -676,7 +676,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="42">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
@@ -3002,7 +3002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -3019,53 +3019,49 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>!Table</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>!Description</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>!Number of objects</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Taxon</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Taxon</t>
         </is>
       </c>
       <c r="B5" s="4" t="n"/>
@@ -3076,18 +3072,18 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Submodels</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B6" s="4" t="n"/>
       <c r="C6" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Compartments</t>
+          <t>Submodels</t>
         </is>
       </c>
       <c r="B7" s="4" t="n"/>
@@ -3098,18 +3094,18 @@
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Species types</t>
+          <t>Compartments</t>
         </is>
       </c>
       <c r="B8" s="4" t="n"/>
       <c r="C8" s="4" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Species types</t>
         </is>
       </c>
       <c r="B9" s="4" t="n"/>
@@ -3120,7 +3116,7 @@
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Initial species concentrations</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="B10" s="4" t="n"/>
@@ -3131,40 +3127,40 @@
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Observables</t>
+          <t>Initial species concentrations</t>
         </is>
       </c>
       <c r="B11" s="4" t="n"/>
       <c r="C11" s="4" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Functions</t>
+          <t>Observables</t>
         </is>
       </c>
       <c r="B12" s="4" t="n"/>
       <c r="C12" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Reactions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="B13" s="4" t="n"/>
       <c r="C13" s="4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Rate laws</t>
+          <t>Reactions</t>
         </is>
       </c>
       <c r="B14" s="4" t="n"/>
@@ -3175,18 +3171,18 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>dFBA objectives</t>
+          <t>Rate laws</t>
         </is>
       </c>
       <c r="B15" s="4" t="n"/>
       <c r="C15" s="4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>dFBA objective reactions</t>
+          <t>dFBA objectives</t>
         </is>
       </c>
       <c r="B16" s="4" t="n"/>
@@ -3197,7 +3193,7 @@
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>dFBA objective species</t>
+          <t>dFBA objective reactions</t>
         </is>
       </c>
       <c r="B17" s="4" t="n"/>
@@ -3208,29 +3204,29 @@
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>dFBA objective species</t>
         </is>
       </c>
       <c r="B18" s="4" t="n"/>
       <c r="C18" s="4" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Stop conditions</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="B19" s="4" t="n"/>
       <c r="C19" s="4" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Observations</t>
+          <t>Stop conditions</t>
         </is>
       </c>
       <c r="B20" s="4" t="n"/>
@@ -3241,7 +3237,7 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Observation sets</t>
+          <t>Observations</t>
         </is>
       </c>
       <c r="B21" s="4" t="n"/>
@@ -3252,7 +3248,7 @@
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Conclusions</t>
+          <t>Observation sets</t>
         </is>
       </c>
       <c r="B22" s="4" t="n"/>
@@ -3263,7 +3259,7 @@
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Conclusions</t>
         </is>
       </c>
       <c r="B23" s="4" t="n"/>
@@ -3274,7 +3270,7 @@
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="B24" s="4" t="n"/>
@@ -3285,11 +3281,22 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Changes</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="B25" s="4" t="n"/>
       <c r="C25" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>Changes</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="n"/>
+      <c r="C26" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3347,7 +3354,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observable' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -3448,7 +3455,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Function' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -3570,7 +3577,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4265,7 +4272,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='RateLaw' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4865,7 +4872,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjective' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4996,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5107,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5219,7 +5226,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6473,7 +6480,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='StopCondition' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6574,7 +6581,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observation' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6826,7 +6833,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Model' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -7018,7 +7025,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='ObservationSet' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -7099,7 +7106,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Conclusion' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -7263,7 +7270,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -7444,7 +7451,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -7580,7 +7587,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -7747,7 +7754,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Taxon' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7843,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -7936,7 +7943,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Submodel' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8049,7 +8056,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Compartment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8345,7 +8352,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='SpeciesType' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -10515,7 +10522,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Species' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -11941,7 +11948,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>

--- a/rand_wc_model_gen/model_gen/model_2.xlsx
+++ b/rand_wc_model_gen/model_gen/model_2.xlsx
@@ -14,7 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Compartments" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species types" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Init species concentrations" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observables" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Functions" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Reactions" sheetId="12" state="visible" r:id="rId12"/>
@@ -37,7 +37,7 @@
     <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$U$3</definedName>
     <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$N$49</definedName>
     <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">'!!Species'!$A$1:$J$48</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!!Initial species concentrations'!$A$1:$L$48</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!!Init species concentrations'!$A$1:$L$48</definedName>
     <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'!!Observables'!$A$1:$I$1</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'!!Functions'!$A$1:$I$2</definedName>
     <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$N$16</definedName>

--- a/rand_wc_model_gen/model_gen/model_2.xlsx
+++ b/rand_wc_model_gen/model_gen/model_2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13965" windowWidth="28695"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28695" windowHeight="13965" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
@@ -32,27 +32,27 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Changes" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!!Submodels'!$A$1:$H$2</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$U$3</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$N$49</definedName>
-    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">'!!Species'!$A$1:$J$48</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!!Init species concentrations'!$A$1:$L$48</definedName>
-    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'!!Observables'!$A$1:$I$1</definedName>
-    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'!!Functions'!$A$1:$I$2</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$N$16</definedName>
-    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!!Rate laws'!$A$1:$L$15</definedName>
-    <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">'!!dFBA objectives'!$A$1:$L$1</definedName>
-    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">'!!dFBA objective reactions'!$A$1:$J$1</definedName>
-    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">'!!dFBA objective species'!$A$1:$K$1</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$K$45</definedName>
-    <definedName hidden="1" localSheetId="17" name="_xlnm._FilterDatabase">'!!Stop conditions'!$A$1:$I$1</definedName>
-    <definedName hidden="1" localSheetId="18" name="_xlnm._FilterDatabase">'!!Observations'!$A$2:$W$2</definedName>
-    <definedName hidden="1" localSheetId="19" name="_xlnm._FilterDatabase">'!!Observation sets'!$A$1:$F$1</definedName>
-    <definedName hidden="1" localSheetId="20" name="_xlnm._FilterDatabase">'!!Conclusions'!$A$2:$N$2</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$R$1</definedName>
-    <definedName hidden="1" localSheetId="22" name="_xlnm._FilterDatabase">'!!Authors'!$A$1:$L$1</definedName>
-    <definedName hidden="1" localSheetId="23" name="_xlnm._FilterDatabase">'!!Changes'!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!Submodels'!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!Compartments'!$A$2:$U$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Species types'!$A$2:$N$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!!Species'!$A$1:$J$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!!Init species concentrations'!$A$1:$L$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!!Observables'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!!Functions'!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!!Reactions'!$A$2:$N$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!!Rate laws'!$A$1:$L$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!!dFBA objectives'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!!dFBA objective reactions'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!!dFBA objective species'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!!Parameters'!$A$1:$K$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!!Stop conditions'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!!Observations'!$A$2:$W$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!!Observation sets'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!!Conclusions'!$A$2:$N$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!!References'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!!Authors'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!!Changes'!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -61,9 +61,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="164"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="166"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -558,220 +558,220 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="22" numFmtId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="35" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="21" numFmtId="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="19" numFmtId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="10" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="14" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="10" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="166">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="6" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="1"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="2"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="3"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="4"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="5"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="6"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="7"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="8"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="9"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="10"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="11"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="12"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="13"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="16"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="17"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="18"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="20"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="21"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="22"/>
-    <cellStyle builtinId="27" name="Bad" xfId="23"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="24"/>
-    <cellStyle builtinId="25" name="Total" xfId="25"/>
-    <cellStyle builtinId="21" name="Output" xfId="26"/>
-    <cellStyle builtinId="4" name="Currency" xfId="27"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="28"/>
-    <cellStyle builtinId="10" name="Note" xfId="29"/>
-    <cellStyle builtinId="20" name="Input" xfId="30"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="31"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="32"/>
-    <cellStyle builtinId="26" name="Good" xfId="33"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="34"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="35"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="36"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="37"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="38"/>
-    <cellStyle builtinId="15" name="Title" xfId="39"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="40"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="41"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="42"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="43"/>
-    <cellStyle builtinId="3" name="Comma" xfId="44"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="45"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="46"/>
-    <cellStyle builtinId="5" name="Percent" xfId="47"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -781,7 +781,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number
 Enter a string.
@@ -789,48 +789,48 @@
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A4" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A5" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <t>Enter a valid URL
 Enter a string.
 Value must be less than or equal to 65535 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A6" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A7" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A8" shapeId="0">
+    <comment ref="A8" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A9" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Select one unit of "second" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A10" shapeId="0">
+    <comment ref="A10" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -838,18 +838,18 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A11" shapeId="0">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A12" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <t>Enter a date and time.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A13" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <t>Enter a date and time.</t>
       </text>
@@ -864,7 +864,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number
 Enter a string.
@@ -872,24 +872,24 @@
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C2" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <t>Enter a expression of Compartments, Functions, Observables, Parameters and Species.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D2" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Enter a unit or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E2" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -897,7 +897,7 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F2" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <t>Enter a list of observations from "Observations:A".
 Examples:
@@ -906,18 +906,18 @@
 * Obs4(+, q=30)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "Conclusions:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H2" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I2" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "References:A" or blank.</t>
       </text>
@@ -932,7 +932,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <t>Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number
 Enter a string.
@@ -940,18 +940,18 @@
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C3" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Submodels:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D3" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <t>Enter a reaction string using species from "Species:A".
 Examples:
@@ -960,36 +960,36 @@
 * (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E3" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <t>Enter a Boolean value
 Select "True" or "False".</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F3" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Select one unit of "1 / second" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G3" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <t>Enter a float or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H3" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <t>Enter a float or blank.
 Value must be greater than or equal to 0.0.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I3" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Select one unit of "molar / second" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J3" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -997,7 +997,7 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="K3" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <t>Enter a list of observations from "Observations:A".
 Examples:
@@ -1006,18 +1006,18 @@
 * Obs4(+, q=30)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="L3" shapeId="0">
+    <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "Conclusions:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="M3" shapeId="0">
+    <comment ref="M3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="N3" shapeId="0">
+    <comment ref="N3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "References:A" or blank.</t>
       </text>
@@ -1032,46 +1032,46 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C2" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Reactions:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D2" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <t>Select one of "backward", "forward".</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E2" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of WC ontology terms "Michaelis_Menten_rate_law", "hill_rate_law", "mass_action_rate_law", "modular_rate_law" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F2" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <t>Enter a expression of Compartments, Functions, Observables, Parameters and Species.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Select one unit of "1 / second" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H2" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -1079,7 +1079,7 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I2" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <t>Enter a list of observations from "Observations:A".
 Examples:
@@ -1088,18 +1088,18 @@
 * Obs4(+, q=30)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J2" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "Conclusions:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="K2" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="L2" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "References:A" or blank.</t>
       </text>
@@ -1114,48 +1114,48 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C2" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Submodels:A".</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D2" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <t>Enter a expression of dFBA objective reactions and Reactions.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E2" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Select one unit of "dimensionless" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F2" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Select one unit of "1 / second" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Select one unit of "second" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H2" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -1163,7 +1163,7 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I2" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <t>Enter a list of observations from "Observations:A".
 Examples:
@@ -1172,18 +1172,18 @@
 * Obs4(+, q=30)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J2" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "Conclusions:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="K2" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="L2" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "References:A" or blank.</t>
       </text>
@@ -1198,7 +1198,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number
 Enter a string.
@@ -1206,30 +1206,30 @@
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C2" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Submodels:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D2" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Select one unit of "1 / second" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E2" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Select one unit of "liter", "gDCW" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F2" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -1237,7 +1237,7 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <t>Enter a list of observations from "Observations:A".
 Examples:
@@ -1246,18 +1246,18 @@
 * Obs4(+, q=30)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H2" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "Conclusions:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I2" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J2" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "References:A" or blank.</t>
       </text>
@@ -1272,41 +1272,41 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C2" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "dFBA objective reactions:A".</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D2" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Species:A".</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E2" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <t>Enter a float or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F2" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Select one unit of "molar / second", "mole / gDCW / second" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -1314,7 +1314,7 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H2" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <t>Enter a list of observations from "Observations:A".
 Examples:
@@ -1323,18 +1323,18 @@
 * Obs4(+, q=30)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I2" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "Conclusions:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J2" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="K2" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "References:A" or blank.</t>
       </text>
@@ -1349,7 +1349,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number
 Enter a string.
@@ -1357,35 +1357,35 @@
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C2" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of WC ontology terms "kinetic_constant", "K_i", "K_m", "k_cat", "v_max" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D2" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <t>Enter a float or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E2" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <t>Enter a float or blank.
 Value must be greater than or equal to 0.0.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F2" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Enter a unit or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -1393,7 +1393,7 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H2" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <t>Enter a list of observations from "Observations:A".
 Examples:
@@ -1402,18 +1402,18 @@
 * Obs4(+, q=30)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I2" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "Conclusions:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J2" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="K2" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "References:A" or blank.</t>
       </text>
@@ -1428,7 +1428,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number
 Enter a string.
@@ -1436,24 +1436,24 @@
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C2" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <t>Enter a expression of Compartments, Functions, Observables, Parameters and Species.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D2" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Select one unit of "dimensionless" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E2" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -1461,7 +1461,7 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F2" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <t>Enter a list of observations from "Observations:A".
 Examples:
@@ -1470,18 +1470,18 @@
 * Obs4(+, q=30)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "Conclusions:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H2" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I2" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "References:A" or blank.</t>
       </text>
@@ -1496,7 +1496,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <t>Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number
 Enter a string.
@@ -1504,118 +1504,118 @@
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C3" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D3" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E3" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Enter a unit or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F3" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of WC ontology terms "computational_observation", "experimental_observation", "theoretical_observation" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G3" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H3" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I3" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <t>Enter a float or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J3" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Select one unit of "degC" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="K3" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <t>Enter a float or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="L3" shapeId="0">
+    <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Select one unit of "dimensionless" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="M3" shapeId="0">
+    <comment ref="M3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="N3" shapeId="0">
+    <comment ref="N3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="O3" shapeId="0">
+    <comment ref="O3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="P3" shapeId="0">
+    <comment ref="P3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="Q3" shapeId="0">
+    <comment ref="Q3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="R3" shapeId="0">
+    <comment ref="R3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="S3" shapeId="0">
+    <comment ref="S3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="T3" shapeId="0">
+    <comment ref="T3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="U3" shapeId="0">
+    <comment ref="U3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -1623,13 +1623,13 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="V3" shapeId="0">
+    <comment ref="V3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="W3" shapeId="0">
+    <comment ref="W3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "References:A" or blank.</t>
       </text>
@@ -1644,7 +1644,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number
 Enter a string.
@@ -1652,18 +1652,18 @@
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C2" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "Observations:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D2" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -1671,13 +1671,13 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E2" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F2" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "References:A" or blank.</t>
       </text>
@@ -1692,24 +1692,24 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A4" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <t>Select one of "domain", "kingdom", "phylum", "classis", "order", "family", "tribe", "genus", "species", "variety".</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A5" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -1717,13 +1717,13 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A6" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A7" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "References:A" or blank.</t>
       </text>
@@ -1738,7 +1738,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <t>Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number
 Enter a string.
@@ -1746,48 +1746,48 @@
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C3" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D3" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E3" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Enter a unit or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F3" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of WC ontology terms "approximation", "assumption", "computation", "decision" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G3" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H3" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I3" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -1795,7 +1795,7 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J3" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <t>Enter a list of observations from "Observations:A".
 Examples:
@@ -1804,23 +1804,23 @@
 * Obs4(+, q=30)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="K3" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="L3" shapeId="0">
+    <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "References:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="M3" shapeId="0">
+    <comment ref="M3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "Authors:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="N3" shapeId="0">
+    <comment ref="N3" authorId="0" shapeId="0">
       <text>
         <t>Enter a date and time.</t>
       </text>
@@ -1835,7 +1835,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number
 Enter a string.
@@ -1843,96 +1843,96 @@
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C2" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D2" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E2" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F2" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <t>Enter an integer.
 Value must be positive.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of WC ontology terms "article", "book", "preprint", "proceedings", "supplementary_material", "thesis", "website" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H2" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I2" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J2" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="K2" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="L2" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="M2" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="N2" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="O2" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="P2" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="Q2" shapeId="0">
+    <comment ref="Q2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -1940,7 +1940,7 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="R2" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
@@ -1956,7 +1956,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number
 Enter a string.
@@ -1964,63 +1964,63 @@
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be between 1 and 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C2" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be between 1 and 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D2" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E2" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be between 1 and 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F2" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H2" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <t>Enter a valid email address
 Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I2" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <t>Enter a valid URL
 Enter a string.
 Value must be less than or equal to 65535 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J2" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="K2" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -2028,7 +2028,7 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="L2" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
@@ -2044,7 +2044,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number
 Enter a string.
@@ -2052,56 +2052,56 @@
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be between 1 and 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C2" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of WC ontology terms "copy", "deletion_change_provenance", "insertion", "merge", "move", "revert", "update" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D2" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E2" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Submodels:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F2" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of WC ontology terms "data_target_provenance", "encoding_target_provenance", "metadata_target_provenance", "model_target_provenance", "model_dynamics_target_provenance", "model_initial_conditions_target_provenance" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H2" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of WC ontology terms "add_metadata_reason_provenance", "implementation_error_reason_provenance", "incorrect_interpretation_reason_provenance", "migrate_version_reason_provenance", "new_goal_reason_provenance", "new_knowledge_reason_provenance" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I2" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J2" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of WC ontology terms "correct_intention_provenance", "elaborate_intention_provenance", "expand_intention_provenance", "simplify_intention_provenance" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="K2" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -2109,7 +2109,7 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="L2" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <t>Enter a list of observations from "Observations:A".
 Examples:
@@ -2118,28 +2118,28 @@
 * Obs4(+, q=30)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="M2" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "Conclusions:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="N2" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="O2" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "References:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="P2" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "Authors:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="Q2" shapeId="0">
+    <comment ref="Q2" authorId="0" shapeId="0">
       <text>
         <t>Enter a date and time.</t>
       </text>
@@ -2154,30 +2154,30 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A4" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <t>Enter a float or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A5" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Select one unit of "degC" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A6" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -2185,13 +2185,13 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A7" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A8" shapeId="0">
+    <comment ref="A8" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "References:A" or blank.</t>
       </text>
@@ -2206,7 +2206,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number
 Enter a string.
@@ -2214,18 +2214,18 @@
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C2" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of WC ontology terms "dynamic_flux_balance_analysis", "ordinary_differential_equations", "stochastic_simulation_algorithm".</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D2" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -2233,7 +2233,7 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E2" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <t>Enter a list of observations from "Observations:A".
 Examples:
@@ -2242,18 +2242,18 @@
 * Obs4(+, q=30)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F2" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "Conclusions:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H2" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "References:A" or blank.</t>
       </text>
@@ -2268,7 +2268,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <t>Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number
 Enter a string.
@@ -2276,89 +2276,89 @@
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C3" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of WC ontology terms "cellular_compartment", "extracellular_compartment" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D3" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of WC ontology terms "fluid_compartment", "membrane_compartment" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E3" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of WC ontology terms "3D_compartment" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F3" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Compartments:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G3" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Select one unit of "gram" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H3" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of WC ontology terms "Dirichlet_distribution", "Gumbel_distribution", "Laplace_distribution", "Pareto_distribution", "Poisson_distribution", "Rayleigh_distribution", "Vonmises_distribution", "Wald_distribution", "Weibull_distribution", "Zipf_distribution", "beta_distribution", "binomial_distribution", "chi_square_distribution", "exponential_distribution", "f_distribution", "gamma_distribution", "geometric_distribution", "hypergeometric_distribution", "log_normal_distribution", "log_series_distribution", "logisitic_distribution", "multinomial_distribution", "multivariate_normal_distribution", "negative_binomial_distribution", "noncentral-chi_square_distribution", "noncentral-f_distribution", "normal_distribution", "power_distribution", "standard-Cauchy_distribution", "standard-exponential_distribution", "standard-gamma_distribution", "standard-normal_distribution", "standard-t_distribution", "triangular_distribution", "uniform_distribution" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I3" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <t>Enter a float or blank.
 Value must be greater than or equal to 0.0.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J3" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <t>Enter a float or blank.
 Value must be greater than or equal to 0.0.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="K3" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Select one unit of "liter" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="L3" shapeId="0">
+    <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Parameters:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="M3" shapeId="0">
+    <comment ref="M3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of WC ontology terms "Dirichlet_distribution", "Gumbel_distribution", "Laplace_distribution", "Pareto_distribution", "Poisson_distribution", "Rayleigh_distribution", "Vonmises_distribution", "Wald_distribution", "Weibull_distribution", "Zipf_distribution", "beta_distribution", "binomial_distribution", "chi_square_distribution", "exponential_distribution", "f_distribution", "gamma_distribution", "geometric_distribution", "hypergeometric_distribution", "log_normal_distribution", "log_series_distribution", "logisitic_distribution", "multinomial_distribution", "multivariate_normal_distribution", "negative_binomial_distribution", "noncentral-chi_square_distribution", "noncentral-f_distribution", "normal_distribution", "power_distribution", "standard-Cauchy_distribution", "standard-exponential_distribution", "standard-gamma_distribution", "standard-normal_distribution", "standard-t_distribution", "triangular_distribution", "uniform_distribution" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="N3" shapeId="0">
+    <comment ref="N3" authorId="0" shapeId="0">
       <text>
         <t>Enter a float or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="O3" shapeId="0">
+    <comment ref="O3" authorId="0" shapeId="0">
       <text>
         <t>Enter a float or blank.
 Value must be greater than or equal to 0.0.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="P3" shapeId="0">
+    <comment ref="P3" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Select one unit of "dimensionless" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="Q3" shapeId="0">
+    <comment ref="Q3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -2366,7 +2366,7 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="R3" shapeId="0">
+    <comment ref="R3" authorId="0" shapeId="0">
       <text>
         <t>Enter a list of observations from "Observations:A".
 Examples:
@@ -2375,18 +2375,18 @@
 * Obs4(+, q=30)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="S3" shapeId="0">
+    <comment ref="S3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "Conclusions:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="T3" shapeId="0">
+    <comment ref="T3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="U3" shapeId="0">
+    <comment ref="U3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "References:A" or blank.</t>
       </text>
@@ -2401,7 +2401,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <t>Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number
 Enter a string.
@@ -2409,51 +2409,51 @@
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C3" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D3" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <t>Select one of "smiles", "bpforms" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E3" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <t>Select one of "dna", "rna", "protein", "canonical_dna", "canonical_rna", "canonical_protein" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F3" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <t>An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')
 Enter an empirical formula (e.g. "H2O").</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G3" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <t>Enter a float or blank.
 Value must be greater than or equal to 0.0.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H3" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <t>Enter an integer.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I3" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of WC ontology terms "DNA", "RNA", "complex", "metabolite", "protein", "pseudo_species", "asRNA", "intergenic", "mRNA", "mixed", "ncRNA", "rRNA", "sRNA", "tRNA", "TRNASynthClassIIComplex", "fattyAcylAcpComplex", "Ion", "aminoAcid", "carbohydrateSugar", "carbohydrateSugarPhosphate", "carboxyAcid", "dipeptide", "modifiedNucleobase", "nucleobase", "reactiveOxygenSpecies", "ribonucleotideBiphosphate", "ribonucleotideMonophosphate", "ribonucleotideTriphosphate", "vitamin", "TRNASynthClassI", "TRNASynthClassIB", "TRNASynthClassII" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J3" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -2461,7 +2461,7 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="K3" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <t>Enter a list of observations from "Observations:A".
 Examples:
@@ -2470,18 +2470,18 @@
 * Obs4(+, q=30)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="L3" shapeId="0">
+    <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "Conclusions:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="M3" shapeId="0">
+    <comment ref="M3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="N3" shapeId="0">
+    <comment ref="N3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "References:A" or blank.</t>
       </text>
@@ -2496,36 +2496,36 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C2" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Species types:A".</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D2" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Compartments:A".</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E2" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Select one unit of "molecule" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F2" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -2533,7 +2533,7 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <t>Enter a list of observations from "Observations:A".
 Examples:
@@ -2542,18 +2542,18 @@
 * Obs4(+, q=30)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H2" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "Conclusions:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I2" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J2" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "References:A" or blank.</t>
       </text>
@@ -2568,48 +2568,48 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C2" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Species:A".</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D2" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of WC ontology terms "Dirichlet_distribution", "Gumbel_distribution", "Laplace_distribution", "Pareto_distribution", "Poisson_distribution", "Rayleigh_distribution", "Vonmises_distribution", "Wald_distribution", "Weibull_distribution", "Zipf_distribution", "beta_distribution", "binomial_distribution", "chi_square_distribution", "exponential_distribution", "f_distribution", "gamma_distribution", "geometric_distribution", "hypergeometric_distribution", "log_normal_distribution", "log_series_distribution", "logisitic_distribution", "multinomial_distribution", "multivariate_normal_distribution", "negative_binomial_distribution", "noncentral-chi_square_distribution", "noncentral-f_distribution", "normal_distribution", "power_distribution", "standard-Cauchy_distribution", "standard-exponential_distribution", "standard-gamma_distribution", "standard-normal_distribution", "standard-t_distribution", "triangular_distribution", "uniform_distribution" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E2" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <t>Enter a float or blank.
 Value must be greater than or equal to 0.0.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F2" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <t>Enter a float or blank.
 Value must be greater than or equal to 0.0.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Select one unit of "molecule", "molar", "millimolar", "micromolar", "nanomolar", "picomolar", "femtomolar", "attomolar" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H2" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -2617,7 +2617,7 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I2" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <t>Enter a list of observations from "Observations:A".
 Examples:
@@ -2626,18 +2626,18 @@
 * Obs4(+, q=30)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J2" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "Conclusions:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="K2" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="L2" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "References:A" or blank.</t>
       </text>
@@ -2652,7 +2652,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number
 Enter a string.
@@ -2660,24 +2660,24 @@
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C2" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <t>Enter a linear expression of Observables and Species.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D2" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <t>Units (e.g. 'second', 'meter', or 'gram')
 Select one unit of "molecule" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E2" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of identifiers in external namespaces.
 Examples:
@@ -2685,7 +2685,7 @@
 * chebi: CHEBI:15377, kegg.compound: C00001</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F2" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <t>Enter a list of observations from "Observations:A".
 Examples:
@@ -2694,18 +2694,18 @@
 * Obs4(+, q=30)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "Conclusions:A" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H2" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 4294967295 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I2" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "References:A" or blank.</t>
       </text>
@@ -3005,28 +3005,28 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="3" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="4" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="3"/>
+    <col hidden="1" width="9" customWidth="1" min="4" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables objTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Schema' objTablesVersion='0.0.8' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3303,31 +3303,31 @@
   </sheetData>
   <autoFilter ref="A1:C24"/>
   <hyperlinks>
-    <hyperlink display="Model" location="'Model'!A1" ref="A2" tooltip="Click to view model"/>
-    <hyperlink display="Taxon" location="'Taxon'!A1" ref="A3" tooltip="Click to view taxon"/>
-    <hyperlink display="Environment" location="'Environment'!A1" ref="A4" tooltip="Click to view environment"/>
-    <hyperlink display="Submodels" location="'Submodels'!A1" ref="A5" tooltip="Click to view submodels"/>
-    <hyperlink display="Compartments" location="'Compartments'!A1" ref="A6" tooltip="Click to view compartments"/>
-    <hyperlink display="Species types" location="'Species types'!A1" ref="A7" tooltip="Click to view species types"/>
-    <hyperlink display="Species" location="'Species'!A1" ref="A8" tooltip="Click to view species"/>
-    <hyperlink display="Initial species concentrations" location="'Initial species concentrations'!A1" ref="A9" tooltip="Click to view initial species concentrations"/>
-    <hyperlink display="Observables" location="'Observables'!A1" ref="A10" tooltip="Click to view observables"/>
-    <hyperlink display="Functions" location="'Functions'!A1" ref="A11" tooltip="Click to view functions"/>
-    <hyperlink display="Reactions" location="'Reactions'!A1" ref="A12" tooltip="Click to view reactions"/>
-    <hyperlink display="Rate laws" location="'Rate laws'!A1" ref="A13" tooltip="Click to view rate laws"/>
-    <hyperlink display="dFBA objectives" location="'dFBA objectives'!A1" ref="A14" tooltip="Click to view dfba objectives"/>
-    <hyperlink display="dFBA objective reactions" location="'dFBA objective reactions'!A1" ref="A15" tooltip="Click to view dfba objective reactions"/>
-    <hyperlink display="dFBA objective species" location="'dFBA objective species'!A1" ref="A16" tooltip="Click to view dfba objective species"/>
-    <hyperlink display="Parameters" location="'Parameters'!A1" ref="A17" tooltip="Click to view parameters"/>
-    <hyperlink display="Stop conditions" location="'Stop conditions'!A1" ref="A18" tooltip="Click to view stop conditions"/>
-    <hyperlink display="Observations" location="'Observations'!A1" ref="A19" tooltip="Click to view observations"/>
-    <hyperlink display="Observation sets" location="'Observation sets'!A1" ref="A20" tooltip="Click to view observation sets"/>
-    <hyperlink display="Conclusions" location="'Conclusions'!A1" ref="A21" tooltip="Click to view conclusions"/>
-    <hyperlink display="References" location="'References'!A1" ref="A22" tooltip="Click to view references"/>
-    <hyperlink display="Authors" location="'Authors'!A1" ref="A23" tooltip="Click to view authors"/>
-    <hyperlink display="Changes" location="'Changes'!A1" ref="A24" tooltip="Click to view changes"/>
+    <hyperlink ref="A2" location="'Model'!A1" tooltip="Click to view model" display="Model"/>
+    <hyperlink ref="A3" location="'Taxon'!A1" tooltip="Click to view taxon" display="Taxon"/>
+    <hyperlink ref="A4" location="'Environment'!A1" tooltip="Click to view environment" display="Environment"/>
+    <hyperlink ref="A5" location="'Submodels'!A1" tooltip="Click to view submodels" display="Submodels"/>
+    <hyperlink ref="A6" location="'Compartments'!A1" tooltip="Click to view compartments" display="Compartments"/>
+    <hyperlink ref="A7" location="'Species types'!A1" tooltip="Click to view species types" display="Species types"/>
+    <hyperlink ref="A8" location="'Species'!A1" tooltip="Click to view species" display="Species"/>
+    <hyperlink ref="A9" location="'Initial species concentrations'!A1" tooltip="Click to view initial species concentrations" display="Initial species concentrations"/>
+    <hyperlink ref="A10" location="'Observables'!A1" tooltip="Click to view observables" display="Observables"/>
+    <hyperlink ref="A11" location="'Functions'!A1" tooltip="Click to view functions" display="Functions"/>
+    <hyperlink ref="A12" location="'Reactions'!A1" tooltip="Click to view reactions" display="Reactions"/>
+    <hyperlink ref="A13" location="'Rate laws'!A1" tooltip="Click to view rate laws" display="Rate laws"/>
+    <hyperlink ref="A14" location="'dFBA objectives'!A1" tooltip="Click to view dfba objectives" display="dFBA objectives"/>
+    <hyperlink ref="A15" location="'dFBA objective reactions'!A1" tooltip="Click to view dfba objective reactions" display="dFBA objective reactions"/>
+    <hyperlink ref="A16" location="'dFBA objective species'!A1" tooltip="Click to view dfba objective species" display="dFBA objective species"/>
+    <hyperlink ref="A17" location="'Parameters'!A1" tooltip="Click to view parameters" display="Parameters"/>
+    <hyperlink ref="A18" location="'Stop conditions'!A1" tooltip="Click to view stop conditions" display="Stop conditions"/>
+    <hyperlink ref="A19" location="'Observations'!A1" tooltip="Click to view observations" display="Observations"/>
+    <hyperlink ref="A20" location="'Observation sets'!A1" tooltip="Click to view observation sets" display="Observation sets"/>
+    <hyperlink ref="A21" location="'Conclusions'!A1" tooltip="Click to view conclusions" display="Conclusions"/>
+    <hyperlink ref="A22" location="'References'!A1" tooltip="Click to view references" display="References"/>
+    <hyperlink ref="A23" location="'Authors'!A1" tooltip="Click to view authors" display="Authors"/>
+    <hyperlink ref="A24" location="'Changes'!A1" tooltip="Click to view changes" display="Changes"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3340,21 +3340,21 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="9" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="10" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="9"/>
+    <col hidden="1" width="9" customWidth="1" min="10" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3408,26 +3408,26 @@
   </sheetData>
   <autoFilter ref="A1:I1"/>
   <dataValidations count="9">
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="I1:I2"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="G1:G2"/>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="F1:F2"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="H1:H2" type="textLength">
+    <dataValidation sqref="I1:I2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="G1:G2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="F1:F2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="H1:H2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="D1:D2" type="list">
+    <dataValidation sqref="D1:D2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." type="list" errorStyle="warning">
       <formula1>"molecule"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="E1:E2"/>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A1:A2" type="textLength">
+    <dataValidation sqref="E1:E2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="A1:A2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a linear expression of Observables and Species." errorStyle="warning" errorTitle="Expression" prompt="Enter a linear expression of Observables and Species." promptTitle="Expression" showErrorMessage="1" showInputMessage="1" sqref="C1:C2"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B1:B2" type="textLength">
+    <dataValidation sqref="C1:C2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Expression" error="Value must be a linear expression of Observables and Species." promptTitle="Expression" prompt="Enter a linear expression of Observables and Species." errorStyle="warning"/>
+    <dataValidation sqref="B1:B2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -3441,21 +3441,21 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="9" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="10" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="9"/>
+    <col hidden="1" width="9" customWidth="1" min="10" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3532,24 +3532,24 @@
   </sheetData>
   <autoFilter ref="A1:I2"/>
   <dataValidations count="9">
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="I2"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="H2" type="textLength">
+    <dataValidation sqref="I2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="H2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="G2"/>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="F2"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="E2"/>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A2" type="textLength">
+    <dataValidation sqref="G2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="F2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="E2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="A2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." errorStyle="warning" errorTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" showErrorMessage="1" showInputMessage="1" sqref="C2"/>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="D2"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B2" type="textLength">
+    <dataValidation sqref="C2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." errorStyle="warning"/>
+    <dataValidation sqref="D2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." errorStyle="warning"/>
+    <dataValidation sqref="B2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -3563,21 +3563,21 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="14" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="14"/>
+    <col hidden="1" width="9" customWidth="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4209,42 +4209,42 @@
     <mergeCell ref="G2:I2"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="M3:M16" type="textLength">
+    <dataValidation sqref="M3:M16" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="K3:K16"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="N3:N16"/>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="I3:I16" type="list">
+    <dataValidation sqref="K3:K16" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="N3:N16" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="I3:I16" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot; or blank." type="list" errorStyle="warning">
       <formula1>"molar / second"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="J3:J16"/>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Maximum" operator="greaterThanOrEqual" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." promptTitle="Maximum" showErrorMessage="1" showInputMessage="1" sqref="H3:H16" type="decimal">
+    <dataValidation sqref="J3:J16" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="H3:H16" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Maximum" error="Value must be a float or blank." promptTitle="Maximum" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." type="decimal" errorStyle="warning" operator="greaterThanOrEqual">
       <formula1>-1E-100</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Minimum" operator="between" prompt="Enter a float or blank." promptTitle="Minimum" showErrorMessage="1" showInputMessage="1" sqref="G3:G16" type="decimal">
+    <dataValidation sqref="G3:G16" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Minimum" error="Value must be a float or blank." promptTitle="Minimum" prompt="Enter a float or blank." type="decimal" errorStyle="warning" operator="between">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="L3:L16"/>
-    <dataValidation allowBlank="0" error="Enter a Boolean value&#10;&#10;Value must be &quot;True&quot; or &quot;False&quot;." errorStyle="warning" errorTitle="Reversible" prompt="Enter a Boolean value&#10;&#10;Select &quot;True&quot; or &quot;False&quot;." promptTitle="Reversible" showErrorMessage="1" showInputMessage="1" sqref="E3:E16" type="list">
+    <dataValidation sqref="L3:L16" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="E3:E16" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Reversible" error="Enter a Boolean value&#10;&#10;Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="Reversible" prompt="Enter a Boolean value&#10;&#10;Select &quot;True&quot; or &quot;False&quot;." type="list" errorStyle="warning">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." errorStyle="warning" errorTitle="Rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." promptTitle="Rate units" showErrorMessage="1" showInputMessage="1" sqref="F3:F16" type="list">
+    <dataValidation sqref="F3:F16" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Rate units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." type="list" errorStyle="warning">
       <formula1>"1 / second"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" errorStyle="warning" errorTitle="Participants" prompt="Enter a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" promptTitle="Participants" showErrorMessage="1" showInputMessage="1" sqref="D3:D16"/>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A3:A16" type="textLength">
+    <dataValidation sqref="D3:D16" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Participants" error="Value must be a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" promptTitle="Participants" prompt="Enter a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" errorStyle="warning"/>
+    <dataValidation sqref="A3:A16" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Submodels:A&quot; or blank." errorStyle="warning" errorTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." promptTitle="Submodel" showErrorMessage="1" showInputMessage="1" sqref="C3:C16" type="list">
+    <dataValidation sqref="C3:C16" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Submodel" error="Value must be a value from &quot;Submodels:A&quot; or blank." promptTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." type="list" errorStyle="warning">
       <formula1>Submodels!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B3:B16" type="textLength">
+    <dataValidation sqref="B3:B16" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -4258,21 +4258,21 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="12" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="13" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="12"/>
+    <col hidden="1" width="9" customWidth="1" min="13" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4817,34 +4817,34 @@
   </sheetData>
   <autoFilter ref="A1:L15"/>
   <dataValidations count="12">
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A2:A15" type="textLength">
+    <dataValidation sqref="A2:A15" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="K2:K15" type="textLength">
+    <dataValidation sqref="K2:K15" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="I2:I15"/>
-    <dataValidation allowBlank="0" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." errorStyle="warning" errorTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" showErrorMessage="1" showInputMessage="1" sqref="F2:F15"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="L2:L15"/>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="G2:G15" type="list">
+    <dataValidation sqref="I2:I15" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="F2:F15" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." errorStyle="warning"/>
+    <dataValidation sqref="L2:L15" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="G2:G15" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." type="list" errorStyle="warning">
       <formula1>"1 / second"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="H2:H15"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." errorStyle="warning" errorTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." promptTitle="Type" showErrorMessage="1" showInputMessage="1" sqref="E2:E15" type="list">
+    <dataValidation sqref="H2:H15" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="E2:E15" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." type="list" errorStyle="warning">
       <formula1>"Michaelis_Menten_rate_law,hill_rate_law,mass_action_rate_law,modular_rate_law"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B2:B15" type="textLength">
+    <dataValidation sqref="B2:B15" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be one of &quot;backward&quot;, &quot;forward&quot;." errorStyle="warning" errorTitle="Direction" prompt="Select one of &quot;backward&quot;, &quot;forward&quot;." promptTitle="Direction" showErrorMessage="1" showInputMessage="1" sqref="D2:D15" type="list">
+    <dataValidation sqref="D2:D15" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Direction" error="Value must be one of &quot;backward&quot;, &quot;forward&quot;." promptTitle="Direction" prompt="Select one of &quot;backward&quot;, &quot;forward&quot;." type="list" errorStyle="warning">
       <formula1>"backward,forward"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="J2:J15"/>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Reactions:A&quot; or blank." errorStyle="warning" errorTitle="Reaction" prompt="Select a value from &quot;Reactions:A&quot; or blank." promptTitle="Reaction" showErrorMessage="1" showInputMessage="1" sqref="C2:C15" type="list">
+    <dataValidation sqref="J2:J15" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="C2:C15" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Reaction" error="Value must be a value from &quot;Reactions:A&quot; or blank." promptTitle="Reaction" prompt="Select a value from &quot;Reactions:A&quot; or blank." type="list" errorStyle="warning">
       <formula1>Reactions!$A$2:$A$1048576</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -4858,21 +4858,21 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="12" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="13" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="12"/>
+    <col hidden="1" width="9" customWidth="1" min="13" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4941,34 +4941,34 @@
   </sheetData>
   <autoFilter ref="A1:L1"/>
   <dataValidations count="12">
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="I1:I2"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="L1:L2"/>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;second&quot; or blank." errorStyle="warning" errorTitle="Coefficient units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;second&quot; or blank." promptTitle="Coefficient units" showErrorMessage="1" showInputMessage="1" sqref="G1:G2" type="list">
+    <dataValidation sqref="I1:I2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="L1:L2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="G1:G2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Coefficient units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;second&quot; or blank." promptTitle="Coefficient units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;second&quot; or blank." type="list" errorStyle="warning">
       <formula1>"second"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="H1:H2"/>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." errorStyle="warning" errorTitle="Reaction rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." promptTitle="Reaction rate units" showErrorMessage="1" showInputMessage="1" sqref="F1:F2" type="list">
+    <dataValidation sqref="H1:H2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="F1:F2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Reaction rate units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Reaction rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." type="list" errorStyle="warning">
       <formula1>"1 / second"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A1:A2" type="textLength">
+    <dataValidation sqref="A1:A2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="K1:K2" type="textLength">
+    <dataValidation sqref="K1:K2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Submodels:A&quot;." errorStyle="warning" errorTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot;." promptTitle="Submodel" showErrorMessage="1" showInputMessage="1" sqref="C1:C2" type="list">
+    <dataValidation sqref="C1:C2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Submodel" error="Value must be a value from &quot;Submodels:A&quot;." promptTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot;." type="list" errorStyle="warning">
       <formula1>Submodels!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="E1:E2" type="list">
+    <dataValidation sqref="E1:E2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." type="list" errorStyle="warning">
       <formula1>"dimensionless"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="J1:J2"/>
-    <dataValidation allowBlank="0" error="Value must be a expression of dFBA objective reactions and Reactions." errorStyle="warning" errorTitle="Expression" prompt="Enter a expression of dFBA objective reactions and Reactions." promptTitle="Expression" showErrorMessage="1" showInputMessage="1" sqref="D1:D2"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B1:B2" type="textLength">
+    <dataValidation sqref="J1:J2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="D1:D2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Expression" error="Value must be a expression of dFBA objective reactions and Reactions." promptTitle="Expression" prompt="Enter a expression of dFBA objective reactions and Reactions." errorStyle="warning"/>
+    <dataValidation sqref="B1:B2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -4982,21 +4982,21 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="10" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="11" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="10"/>
+    <col hidden="1" width="9" customWidth="1" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5055,31 +5055,31 @@
   </sheetData>
   <autoFilter ref="A1:J1"/>
   <dataValidations count="10">
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="I1:I2" type="textLength">
+    <dataValidation sqref="I1:I2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="G1:G2"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="F1:F2"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="H1:H2"/>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;liter&quot;, &quot;gDCW&quot; or blank." errorStyle="warning" errorTitle="Cell size units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;liter&quot;, &quot;gDCW&quot; or blank." promptTitle="Cell size units" showErrorMessage="1" showInputMessage="1" sqref="E1:E2" type="list">
+    <dataValidation sqref="G1:G2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="F1:F2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="H1:H2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="E1:E2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Cell size units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;liter&quot;, &quot;gDCW&quot; or blank." promptTitle="Cell size units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;liter&quot;, &quot;gDCW&quot; or blank." type="list" errorStyle="warning">
       <formula1>"liter,gDCW"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A1:A2" type="textLength">
+    <dataValidation sqref="A1:A2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Submodels:A&quot; or blank." errorStyle="warning" errorTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." promptTitle="Submodel" showErrorMessage="1" showInputMessage="1" sqref="C1:C2" type="list">
+    <dataValidation sqref="C1:C2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Submodel" error="Value must be a value from &quot;Submodels:A&quot; or blank." promptTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." type="list" errorStyle="warning">
       <formula1>Submodels!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="J1:J2"/>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="D1:D2" type="list">
+    <dataValidation sqref="J1:J2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="D1:D2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." type="list" errorStyle="warning">
       <formula1>"1 / second"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B1:B2" type="textLength">
+    <dataValidation sqref="B1:B2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -5093,21 +5093,21 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="11" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="12" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="11"/>
+    <col hidden="1" width="9" customWidth="1" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5171,34 +5171,34 @@
   </sheetData>
   <autoFilter ref="A1:K1"/>
   <dataValidations count="11">
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="J1:J2" type="textLength">
+    <dataValidation sqref="J1:J2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="I1:I2"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="G1:G2"/>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Species:A&quot;." errorStyle="warning" errorTitle="Species" prompt="Select a value from &quot;Species:A&quot;." promptTitle="Species" showErrorMessage="1" showInputMessage="1" sqref="D1:D2" type="list">
+    <dataValidation sqref="I1:I2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="G1:G2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="D1:D2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Species" error="Value must be a value from &quot;Species:A&quot;." promptTitle="Species" prompt="Select a value from &quot;Species:A&quot;." type="list" errorStyle="warning">
       <formula1>Species!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="H1:H2"/>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Value" operator="between" prompt="Enter a float or blank." promptTitle="Value" showErrorMessage="1" showInputMessage="1" sqref="E1:E2" type="decimal">
+    <dataValidation sqref="H1:H2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="E1:E2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." type="decimal" errorStyle="warning" operator="between">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot;, &quot;mole / gDCW / second&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot;, &quot;mole / gDCW / second&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="F1:F2" type="list">
+    <dataValidation sqref="F1:F2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot;, &quot;mole / gDCW / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot;, &quot;mole / gDCW / second&quot; or blank." type="list" errorStyle="warning">
       <formula1>"molar / second,mole / gDCW / second"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;dFBA objective reactions:A&quot;." errorStyle="warning" errorTitle="dFBA objective reaction" prompt="Select a value from &quot;dFBA objective reactions:A&quot;." promptTitle="dFBA objective reaction" showErrorMessage="1" showInputMessage="1" sqref="C1:C2" type="list">
+    <dataValidation sqref="C1:C2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="dFBA objective reaction" error="Value must be a value from &quot;dFBA objective reactions:A&quot;." promptTitle="dFBA objective reaction" prompt="Select a value from &quot;dFBA objective reactions:A&quot;." type="list" errorStyle="warning">
       <formula1>'dFBA objective reactions'!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B1:B2" type="textLength">
+    <dataValidation sqref="B1:B2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="K1:K2"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A1:A2" type="textLength">
+    <dataValidation sqref="K1:K2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="A1:A2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -5212,21 +5212,21 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="11" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="12" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="11"/>
+    <col hidden="1" width="9" customWidth="1" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6426,33 +6426,33 @@
   </sheetData>
   <autoFilter ref="A1:K45"/>
   <dataValidations count="11">
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="J2:J45" type="textLength">
+    <dataValidation sqref="J2:J45" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="I2:I45"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="G2:G45"/>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="H2:H45"/>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Value" operator="between" prompt="Enter a float or blank." promptTitle="Value" showErrorMessage="1" showInputMessage="1" sqref="D2:D45" type="decimal">
+    <dataValidation sqref="I2:I45" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="G2:G45" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="H2:H45" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="D2:D45" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." type="decimal" errorStyle="warning" operator="between">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." errorStyle="warning" errorTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" showErrorMessage="1" showInputMessage="1" sqref="C2:C45" type="list">
+    <dataValidation sqref="C2:C45" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." type="list" errorStyle="warning">
       <formula1>"kinetic_constant,K_i,K_m,k_cat,v_max"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="K2:K45"/>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Standard error" operator="greaterThanOrEqual" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." promptTitle="Standard error" showErrorMessage="1" showInputMessage="1" sqref="E2:E45" type="decimal">
+    <dataValidation sqref="K2:K45" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="E2:E45" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." type="decimal" errorStyle="warning" operator="greaterThanOrEqual">
       <formula1>-1E-100</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B2:B45" type="textLength">
+    <dataValidation sqref="B2:B45" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="F2:F45"/>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A2:A45" type="textLength">
+    <dataValidation sqref="F2:F45" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." errorStyle="warning"/>
+    <dataValidation sqref="A2:A45" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -6466,21 +6466,21 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="9" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="10" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="9"/>
+    <col hidden="1" width="9" customWidth="1" min="10" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6534,26 +6534,26 @@
   </sheetData>
   <autoFilter ref="A1:I1"/>
   <dataValidations count="9">
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="I1:I2"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="G1:G2"/>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="F1:F2"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="E1:E2"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="H1:H2" type="textLength">
+    <dataValidation sqref="I1:I2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="G1:G2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="F1:F2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="E1:E2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="H1:H2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="D1:D2" type="list">
+    <dataValidation sqref="D1:D2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." type="list" errorStyle="warning">
       <formula1>"dimensionless"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B1:B2" type="textLength">
+    <dataValidation sqref="B1:B2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." errorStyle="warning" errorTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" showErrorMessage="1" showInputMessage="1" sqref="C1:C2"/>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A1:A2" type="textLength">
+    <dataValidation sqref="C1:C2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." errorStyle="warning"/>
+    <dataValidation sqref="A1:A2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -6567,21 +6567,21 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="23" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="24" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="23"/>
+    <col hidden="1" width="9" customWidth="1" min="24" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6744,68 +6744,68 @@
     <mergeCell ref="S2:T2"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="W2:W3"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="U2:U3"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Version" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Version" showErrorMessage="1" showInputMessage="1" sqref="R2:R3 T2:T3" type="textLength">
+    <dataValidation sqref="W2:W3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="U2:U3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="R2:R3 T2:T3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Version" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Version" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Experiment design" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Experiment design" showErrorMessage="1" showInputMessage="1" sqref="P2:P3" type="textLength">
+    <dataValidation sqref="P2:P3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Experiment design" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Experiment design" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Experiment type" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Experiment type" showErrorMessage="1" showInputMessage="1" sqref="O2:O3" type="textLength">
+    <dataValidation sqref="O2:O3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Experiment type" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Experiment type" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Condition" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Condition" showErrorMessage="1" showInputMessage="1" sqref="N2:N3" type="textLength">
+    <dataValidation sqref="N2:N3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Condition" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Condition" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Growth media" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Growth media" showErrorMessage="1" showInputMessage="1" sqref="M2:M3" type="textLength">
+    <dataValidation sqref="M2:M3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Growth media" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Growth media" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." errorStyle="warning" errorTitle="pH units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." promptTitle="pH units" showErrorMessage="1" showInputMessage="1" sqref="L2:L3" type="list">
+    <dataValidation sqref="L2:L3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="pH units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="pH units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." type="list" errorStyle="warning">
       <formula1>"dimensionless"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="pH" operator="between" prompt="Enter a float or blank." promptTitle="pH" showErrorMessage="1" showInputMessage="1" sqref="K2:K3" type="decimal">
+    <dataValidation sqref="K2:K3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="pH" error="Value must be a float or blank." promptTitle="pH" prompt="Enter a float or blank." type="decimal" errorStyle="warning" operator="between">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="Q2:Q3 S2:S3" type="textLength">
+    <dataValidation sqref="Q2:Q3 S2:S3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Temperature" operator="between" prompt="Enter a float or blank." promptTitle="Temperature" showErrorMessage="1" showInputMessage="1" sqref="I2:I3" type="decimal">
+    <dataValidation sqref="I2:I3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Temperature" error="Value must be a float or blank." promptTitle="Temperature" prompt="Enter a float or blank." type="decimal" errorStyle="warning" operator="between">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Taxon" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Taxon" showErrorMessage="1" showInputMessage="1" sqref="G2:G3" type="textLength">
+    <dataValidation sqref="G2:G3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Taxon" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Taxon" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="V2:V3" type="textLength">
+    <dataValidation sqref="V2:V3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;computational_observation&quot;, &quot;experimental_observation&quot;, &quot;theoretical_observation&quot; or blank." errorStyle="warning" errorTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;computational_observation&quot;, &quot;experimental_observation&quot;, &quot;theoretical_observation&quot; or blank." promptTitle="Type" showErrorMessage="1" showInputMessage="1" sqref="F2:F3" type="list">
+    <dataValidation sqref="F2:F3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;computational_observation&quot;, &quot;experimental_observation&quot;, &quot;theoretical_observation&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;computational_observation&quot;, &quot;experimental_observation&quot;, &quot;theoretical_observation&quot; or blank." type="list" errorStyle="warning">
       <formula1>"computational_observation,experimental_observation,theoretical_observation"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Value" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Value" showErrorMessage="1" showInputMessage="1" sqref="C2:C3" type="textLength">
+    <dataValidation sqref="C2:C3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Value" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Value" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Variant" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Variant" showErrorMessage="1" showInputMessage="1" sqref="H2:H3" type="textLength">
+    <dataValidation sqref="H2:H3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Variant" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Variant" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Standard error" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Standard error" showErrorMessage="1" showInputMessage="1" sqref="D2:D3" type="textLength">
+    <dataValidation sqref="D2:D3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Standard error" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Standard error" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;degC&quot; or blank." errorStyle="warning" errorTitle="Temperature units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;degC&quot; or blank." promptTitle="Temperature units" showErrorMessage="1" showInputMessage="1" sqref="J2:J3" type="list">
+    <dataValidation sqref="J2:J3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Temperature units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;degC&quot; or blank." promptTitle="Temperature units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;degC&quot; or blank." type="list" errorStyle="warning">
       <formula1>"degC"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A2:A3" type="textLength">
+    <dataValidation sqref="A2:A3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="E2:E3"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B2:B3" type="textLength">
+    <dataValidation sqref="E2:E3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." errorStyle="warning"/>
+    <dataValidation sqref="B2:B3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -6819,21 +6819,21 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="2" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="3" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="2"/>
+    <col hidden="1" width="9" customWidth="1" min="3" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -6963,41 +6963,41 @@
     </row>
   </sheetData>
   <dataValidations count="12">
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="B10" type="textLength">
+    <dataValidation sqref="B10" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Branch" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Branch" showErrorMessage="1" showInputMessage="1" sqref="B5" type="textLength">
+    <dataValidation sqref="B5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Branch" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Branch" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="B9"/>
-    <dataValidation allowBlank="0" error="Value must be a string." errorStyle="warning" errorTitle="wc_lang version" prompt="Enter a string." promptTitle="wc_lang version" showErrorMessage="1" showInputMessage="1" sqref="B7"/>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="B1" type="textLength">
+    <dataValidation sqref="B9" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="B7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="wc_lang version" error="Value must be a string." promptTitle="wc_lang version" prompt="Enter a string." errorStyle="warning"/>
+    <dataValidation sqref="B1" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Enter a valid URL&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 65535 characters." errorStyle="warning" errorTitle="URL" operator="lessThanOrEqual" prompt="Enter a valid URL&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 65535 characters." promptTitle="URL" showErrorMessage="1" showInputMessage="1" sqref="B4" type="textLength">
+    <dataValidation sqref="B4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="URL" error="Enter a valid URL&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 65535 characters." promptTitle="URL" prompt="Enter a valid URL&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 65535 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>65535</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string." errorStyle="warning" errorTitle="Version" prompt="Enter a string." promptTitle="Version" showErrorMessage="1" showInputMessage="1" sqref="B3"/>
-    <dataValidation allowBlank="0" error="Value must be a date and time." errorStyle="warning" errorTitle="Created" operator="between" prompt="Enter a date and time." promptTitle="Created" showErrorMessage="1" showInputMessage="1" sqref="B11" type="date">
+    <dataValidation sqref="B3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Version" error="Value must be a string." promptTitle="Version" prompt="Enter a string." errorStyle="warning"/>
+    <dataValidation sqref="B11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Created" error="Value must be a date and time." promptTitle="Created" prompt="Enter a date and time." type="date" errorStyle="warning" operator="between">
       <formula1>0</formula1>
       <formula2>-328717</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a date and time." errorStyle="warning" errorTitle="Updated" operator="between" prompt="Enter a date and time." promptTitle="Updated" showErrorMessage="1" showInputMessage="1" sqref="B12" type="date">
+    <dataValidation sqref="B12" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Updated" error="Value must be a date and time." promptTitle="Updated" prompt="Enter a date and time." type="date" errorStyle="warning" operator="between">
       <formula1>0</formula1>
       <formula2>-328717</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;second&quot; or blank." errorStyle="warning" errorTitle="Time units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;second&quot; or blank." promptTitle="Time units" showErrorMessage="1" showInputMessage="1" sqref="B8" type="list">
+    <dataValidation sqref="B8" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Time units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;second&quot; or blank." promptTitle="Time units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;second&quot; or blank." type="list" errorStyle="warning">
       <formula1>"second"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B2" type="textLength">
+    <dataValidation sqref="B2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Revision" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Revision" showErrorMessage="1" showInputMessage="1" sqref="B6" type="textLength">
+    <dataValidation sqref="B6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Revision" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Revision" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -7011,21 +7011,21 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="6" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="7" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="6"/>
+    <col hidden="1" width="9" customWidth="1" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -7064,21 +7064,21 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <dataValidations count="6">
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="F1:F2"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="E1:E2" type="textLength">
+    <dataValidation sqref="F1:F2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="E1:E2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="D1:D2"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Observations:A&quot; or blank." errorStyle="warning" errorTitle="Observations" prompt="Enter a comma-separated list of values from &quot;Observations:A&quot; or blank." promptTitle="Observations" showErrorMessage="1" showInputMessage="1" sqref="C1:C2"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B1:B2" type="textLength">
+    <dataValidation sqref="D1:D2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="C1:C2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Observations" error="Value must be a comma-separated list of values from &quot;Observations:A&quot; or blank." promptTitle="Observations" prompt="Enter a comma-separated list of values from &quot;Observations:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="B1:B2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A1:A2" type="textLength">
+    <dataValidation sqref="A1:A2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -7092,21 +7092,21 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="14" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="14"/>
+    <col hidden="1" width="9" customWidth="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -7207,42 +7207,42 @@
     <mergeCell ref="G2:H2"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Authors:A&quot; or blank." errorStyle="warning" errorTitle="Authors" prompt="Enter a comma-separated list of values from &quot;Authors:A&quot; or blank." promptTitle="Authors" showErrorMessage="1" showInputMessage="1" sqref="M2:M3"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="K2:K3" type="textLength">
+    <dataValidation sqref="M2:M3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Authors" error="Value must be a comma-separated list of values from &quot;Authors:A&quot; or blank." promptTitle="Authors" prompt="Enter a comma-separated list of values from &quot;Authors:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="K2:K3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="G2:G3" type="textLength">
+    <dataValidation sqref="G2:G3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="J2:J3"/>
-    <dataValidation allowBlank="0" error="Value must be a date and time." errorStyle="warning" errorTitle="Date" operator="between" prompt="Enter a date and time." promptTitle="Date" showErrorMessage="1" showInputMessage="1" sqref="N2:N3" type="date">
+    <dataValidation sqref="J2:J3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="N2:N3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Date" error="Value must be a date and time." promptTitle="Date" prompt="Enter a date and time." type="date" errorStyle="warning" operator="between">
       <formula1>0</formula1>
       <formula2>-328717</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="L2:L3"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="I2:I3"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Version" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Version" showErrorMessage="1" showInputMessage="1" sqref="H2:H3" type="textLength">
+    <dataValidation sqref="L2:L3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="I2:I3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="H2:H3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Version" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Version" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Standard error" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Standard error" showErrorMessage="1" showInputMessage="1" sqref="D2:D3" type="textLength">
+    <dataValidation sqref="D2:D3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Standard error" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Standard error" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Value" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Value" showErrorMessage="1" showInputMessage="1" sqref="C2:C3" type="textLength">
+    <dataValidation sqref="C2:C3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Value" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Value" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A2:A3" type="textLength">
+    <dataValidation sqref="A2:A3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="E2:E3"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;approximation&quot;, &quot;assumption&quot;, &quot;computation&quot;, &quot;decision&quot; or blank." errorStyle="warning" errorTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;approximation&quot;, &quot;assumption&quot;, &quot;computation&quot;, &quot;decision&quot; or blank." promptTitle="Type" showErrorMessage="1" showInputMessage="1" sqref="F2:F3" type="list">
+    <dataValidation sqref="E2:E3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." errorStyle="warning"/>
+    <dataValidation sqref="F2:F3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;approximation&quot;, &quot;assumption&quot;, &quot;computation&quot;, &quot;decision&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;approximation&quot;, &quot;assumption&quot;, &quot;computation&quot;, &quot;decision&quot; or blank." type="list" errorStyle="warning">
       <formula1>"approximation,assumption,computation,decision"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B2:B3" type="textLength">
+    <dataValidation sqref="B2:B3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -7256,21 +7256,21 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="18" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="19" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="18"/>
+    <col hidden="1" width="9" customWidth="1" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -7369,61 +7369,61 @@
   </sheetData>
   <autoFilter ref="A1:R1"/>
   <dataValidations count="18">
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="R1:R2" type="textLength">
+    <dataValidation sqref="R1:R2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="Q1:Q2"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Edition" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Edition" showErrorMessage="1" showInputMessage="1" sqref="N1:N2" type="textLength">
+    <dataValidation sqref="Q1:Q2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="N1:N2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Edition" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Edition" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Issue" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Issue" showErrorMessage="1" showInputMessage="1" sqref="M1:M2" type="textLength">
+    <dataValidation sqref="M1:M2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Issue" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Issue" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Chapter" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Chapter" showErrorMessage="1" showInputMessage="1" sqref="O1:O2" type="textLength">
+    <dataValidation sqref="O1:O2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Chapter" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Chapter" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Series" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Series" showErrorMessage="1" showInputMessage="1" sqref="J1:J2" type="textLength">
+    <dataValidation sqref="J1:J2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Series" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Series" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Publication" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Publication" showErrorMessage="1" showInputMessage="1" sqref="H1:H2" type="textLength">
+    <dataValidation sqref="H1:H2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Publication" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Publication" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Pages" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Pages" showErrorMessage="1" showInputMessage="1" sqref="P1:P2" type="textLength">
+    <dataValidation sqref="P1:P2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Pages" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Pages" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Author" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Author" showErrorMessage="1" showInputMessage="1" sqref="D1:D2" type="textLength">
+    <dataValidation sqref="D1:D2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Author" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Author" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Title" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Title" showErrorMessage="1" showInputMessage="1" sqref="C1:C2" type="textLength">
+    <dataValidation sqref="C1:C2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Title" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Title" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Editor" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Editor" showErrorMessage="1" showInputMessage="1" sqref="E1:E2" type="textLength">
+    <dataValidation sqref="E1:E2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Editor" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Editor" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Number" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Number" showErrorMessage="1" showInputMessage="1" sqref="L1:L2" type="textLength">
+    <dataValidation sqref="L1:L2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Number" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Number" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Publisher" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Publisher" showErrorMessage="1" showInputMessage="1" sqref="I1:I2" type="textLength">
+    <dataValidation sqref="I1:I2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Publisher" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Publisher" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be an integer." errorStyle="warning" errorTitle="Year" operator="greaterThanOrEqual" prompt="Enter an integer.&#10;&#10;Value must be positive." promptTitle="Year" showErrorMessage="1" showInputMessage="1" sqref="F1:F2" type="whole">
+    <dataValidation sqref="F1:F2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Year" error="Value must be an integer." promptTitle="Year" prompt="Enter an integer.&#10;&#10;Value must be positive." type="whole" errorStyle="warning" operator="greaterThanOrEqual">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Volume" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Volume" showErrorMessage="1" showInputMessage="1" sqref="K1:K2" type="textLength">
+    <dataValidation sqref="K1:K2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Volume" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Volume" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B1:B2" type="textLength">
+    <dataValidation sqref="B1:B2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;article&quot;, &quot;book&quot;, &quot;preprint&quot;, &quot;proceedings&quot;, &quot;supplementary_material&quot;, &quot;thesis&quot;, &quot;website&quot; or blank." errorStyle="warning" errorTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;article&quot;, &quot;book&quot;, &quot;preprint&quot;, &quot;proceedings&quot;, &quot;supplementary_material&quot;, &quot;thesis&quot;, &quot;website&quot; or blank." promptTitle="Type" showErrorMessage="1" showInputMessage="1" sqref="G1:G2" type="list">
+    <dataValidation sqref="G1:G2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;article&quot;, &quot;book&quot;, &quot;preprint&quot;, &quot;proceedings&quot;, &quot;supplementary_material&quot;, &quot;thesis&quot;, &quot;website&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;article&quot;, &quot;book&quot;, &quot;preprint&quot;, &quot;proceedings&quot;, &quot;supplementary_material&quot;, &quot;thesis&quot;, &quot;website&quot; or blank." type="list" errorStyle="warning">
       <formula1>"article,book,preprint,proceedings,supplementary_material,thesis,website"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A1:A2" type="textLength">
+    <dataValidation sqref="A1:A2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -7437,21 +7437,21 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="12" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="13" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="12"/>
+    <col hidden="1" width="9" customWidth="1" min="13" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -7520,46 +7520,46 @@
   </sheetData>
   <autoFilter ref="A1:L1"/>
   <dataValidations count="12">
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="L1:L2" type="textLength">
+    <dataValidation sqref="L1:L2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="K1:K2"/>
-    <dataValidation allowBlank="0" error="Enter a valid URL&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 65535 characters." errorStyle="warning" errorTitle="Website" operator="lessThanOrEqual" prompt="Enter a valid URL&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 65535 characters." promptTitle="Website" showErrorMessage="1" showInputMessage="1" sqref="I1:I2" type="textLength">
+    <dataValidation sqref="K1:K2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="I1:I2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Website" error="Enter a valid URL&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 65535 characters." promptTitle="Website" prompt="Enter a valid URL&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 65535 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>65535</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." errorStyle="warning" errorTitle="Last name" operator="between" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Last name" showErrorMessage="1" showInputMessage="1" sqref="C1:C2" type="textLength">
+    <dataValidation sqref="C1:C2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Last name" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Last name" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Organization" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Organization" showErrorMessage="1" showInputMessage="1" sqref="G1:G2" type="textLength">
+    <dataValidation sqref="G1:G2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Organization" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Organization" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Enter a valid email address&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Email" operator="lessThanOrEqual" prompt="Enter a valid email address&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Email" showErrorMessage="1" showInputMessage="1" sqref="H1:H2" type="textLength">
+    <dataValidation sqref="H1:H2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Email" error="Enter a valid email address&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Email" prompt="Enter a valid email address&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Title" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Title" showErrorMessage="1" showInputMessage="1" sqref="F1:F2" type="textLength">
+    <dataValidation sqref="F1:F2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Title" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Title" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." errorStyle="warning" errorTitle="Name" operator="between" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B1:B2" type="textLength">
+    <dataValidation sqref="B1:B2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." errorStyle="warning" errorTitle="Middle name" operator="between" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Middle name" showErrorMessage="1" showInputMessage="1" sqref="E1:E2" type="textLength">
+    <dataValidation sqref="E1:E2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Middle name" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Middle name" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A1:A2" type="textLength">
+    <dataValidation sqref="A1:A2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="First name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="First name" showErrorMessage="1" showInputMessage="1" sqref="D1:D2" type="textLength">
+    <dataValidation sqref="D1:D2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="First name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="First name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Address" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Address" showErrorMessage="1" showInputMessage="1" sqref="J1:J2" type="textLength">
+    <dataValidation sqref="J1:J2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Address" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Address" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -7573,21 +7573,21 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="17" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="18" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="17"/>
+    <col hidden="1" width="9" customWidth="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -7681,52 +7681,52 @@
   </sheetData>
   <autoFilter ref="A1:Q1"/>
   <dataValidations count="17">
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="M1:M2"/>
-    <dataValidation allowBlank="0" error="Value must be a date and time." errorStyle="warning" errorTitle="Date" operator="between" prompt="Enter a date and time." promptTitle="Date" showErrorMessage="1" showInputMessage="1" sqref="Q1:Q2" type="date">
+    <dataValidation sqref="M1:M2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="Q1:Q2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Date" error="Value must be a date and time." promptTitle="Date" prompt="Enter a date and time." type="date" errorStyle="warning" operator="between">
       <formula1>0</formula1>
       <formula2>-328717</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="O1:O2"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="K1:K2"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="N1:N2" type="textLength">
+    <dataValidation sqref="O1:O2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="K1:K2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="N1:N2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Target" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Target" showErrorMessage="1" showInputMessage="1" sqref="D1:D2" type="textLength">
+    <dataValidation sqref="D1:D2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Target" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Target" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;correct_intention_provenance&quot;, &quot;elaborate_intention_provenance&quot;, &quot;expand_intention_provenance&quot;, &quot;simplify_intention_provenance&quot; or blank." errorStyle="warning" errorTitle="Intention type" prompt="Enter a comma-separated list of WC ontology terms &quot;correct_intention_provenance&quot;, &quot;elaborate_intention_provenance&quot;, &quot;expand_intention_provenance&quot;, &quot;simplify_intention_provenance&quot; or blank." promptTitle="Intention type" showErrorMessage="1" showInputMessage="1" sqref="J1:J2" type="list">
+    <dataValidation sqref="J1:J2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Intention type" error="Value must be a comma-separated list of WC ontology terms &quot;correct_intention_provenance&quot;, &quot;elaborate_intention_provenance&quot;, &quot;expand_intention_provenance&quot;, &quot;simplify_intention_provenance&quot; or blank." promptTitle="Intention type" prompt="Enter a comma-separated list of WC ontology terms &quot;correct_intention_provenance&quot;, &quot;elaborate_intention_provenance&quot;, &quot;expand_intention_provenance&quot;, &quot;simplify_intention_provenance&quot; or blank." type="list" errorStyle="warning">
       <formula1>"correct_intention_provenance,elaborate_intention_provenance,expand_intention_provenance,simplify_intention_provenance"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Authors:A&quot; or blank." errorStyle="warning" errorTitle="Authors" prompt="Enter a comma-separated list of values from &quot;Authors:A&quot; or blank." promptTitle="Authors" showErrorMessage="1" showInputMessage="1" sqref="P1:P2"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;add_metadata_reason_provenance&quot;, &quot;implementation_error_reason_provenance&quot;, &quot;incorrect_interpretation_reason_provenance&quot;, &quot;migrate_version_reason_provenance&quot;, &quot;new_goal_reason_provenance&quot;, &quot;new ..." errorStyle="warning" errorTitle="Reason type" prompt="Enter a comma-separated list of WC ontology terms &quot;add_metadata_reason_provenance&quot;, &quot;implementation_error_reason_provenance&quot;, &quot;incorrect_interpretation_reason_provenance&quot;, &quot;migrate_version_reason_provenance&quot;, &quot;new_goal_reason_provenance&quot;, &quot;new_knowled ..." promptTitle="Reason type" showErrorMessage="1" showInputMessage="1" sqref="H1:H2" type="list">
+    <dataValidation sqref="P1:P2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Authors" error="Value must be a comma-separated list of values from &quot;Authors:A&quot; or blank." promptTitle="Authors" prompt="Enter a comma-separated list of values from &quot;Authors:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="H1:H2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Reason type" error="Value must be a comma-separated list of WC ontology terms &quot;add_metadata_reason_provenance&quot;, &quot;implementation_error_reason_provenance&quot;, &quot;incorrect_interpretation_reason_provenance&quot;, &quot;migrate_version_reason_provenance&quot;, &quot;new_goal_reason_provenance&quot;, &quot;new ..." promptTitle="Reason type" prompt="Enter a comma-separated list of WC ontology terms &quot;add_metadata_reason_provenance&quot;, &quot;implementation_error_reason_provenance&quot;, &quot;incorrect_interpretation_reason_provenance&quot;, &quot;migrate_version_reason_provenance&quot;, &quot;new_goal_reason_provenance&quot;, &quot;new_knowled ..." type="list" errorStyle="warning">
       <formula1>"add_metadata_reason_provenance,implementation_error_reason_provenance,incorrect_interpretation_reason_provenance,migrate_version_reason_provenance,new_goal_reason_provenance,new_knowledge_reason_provenance"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Reason" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Reason" showErrorMessage="1" showInputMessage="1" sqref="G1:G2" type="textLength">
+    <dataValidation sqref="G1:G2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Reason" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Reason" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Intention" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Intention" showErrorMessage="1" showInputMessage="1" sqref="I1:I2" type="textLength">
+    <dataValidation sqref="I1:I2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Intention" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Intention" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;data_target_provenance&quot;, &quot;encoding_target_provenance&quot;, &quot;metadata_target_provenance&quot;, &quot;model_target_provenance&quot;, &quot;model_dynamics_target_provenance&quot;, &quot;model_initial_conditions_target_provenance&quot; ..." errorStyle="warning" errorTitle="Target type" prompt="Enter a comma-separated list of WC ontology terms &quot;data_target_provenance&quot;, &quot;encoding_target_provenance&quot;, &quot;metadata_target_provenance&quot;, &quot;model_target_provenance&quot;, &quot;model_dynamics_target_provenance&quot;, &quot;model_initial_conditions_target_provenance&quot; or blank." promptTitle="Target type" showErrorMessage="1" showInputMessage="1" sqref="F1:F2" type="list">
+    <dataValidation sqref="F1:F2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Target type" error="Value must be a comma-separated list of WC ontology terms &quot;data_target_provenance&quot;, &quot;encoding_target_provenance&quot;, &quot;metadata_target_provenance&quot;, &quot;model_target_provenance&quot;, &quot;model_dynamics_target_provenance&quot;, &quot;model_initial_conditions_target_provenance&quot; ..." promptTitle="Target type" prompt="Enter a comma-separated list of WC ontology terms &quot;data_target_provenance&quot;, &quot;encoding_target_provenance&quot;, &quot;metadata_target_provenance&quot;, &quot;model_target_provenance&quot;, &quot;model_dynamics_target_provenance&quot;, &quot;model_initial_conditions_target_provenance&quot; or blank." type="list" errorStyle="warning">
       <formula1>"data_target_provenance,encoding_target_provenance,metadata_target_provenance,model_target_provenance,model_dynamics_target_provenance,model_initial_conditions_target_provenance"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="L1:L2"/>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Submodels:A&quot; or blank." errorStyle="warning" errorTitle="Target submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." promptTitle="Target submodel" showErrorMessage="1" showInputMessage="1" sqref="E1:E2" type="list">
+    <dataValidation sqref="L1:L2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="E1:E2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Target submodel" error="Value must be a value from &quot;Submodels:A&quot; or blank." promptTitle="Target submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." type="list" errorStyle="warning">
       <formula1>Submodels!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;copy&quot;, &quot;deletion_change_provenance&quot;, &quot;insertion&quot;, &quot;merge&quot;, &quot;move&quot;, &quot;revert&quot;, &quot;update&quot; or blank." errorStyle="warning" errorTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;copy&quot;, &quot;deletion_change_provenance&quot;, &quot;insertion&quot;, &quot;merge&quot;, &quot;move&quot;, &quot;revert&quot;, &quot;update&quot; or blank." promptTitle="Type" showErrorMessage="1" showInputMessage="1" sqref="C1:C2" type="list">
+    <dataValidation sqref="C1:C2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;copy&quot;, &quot;deletion_change_provenance&quot;, &quot;insertion&quot;, &quot;merge&quot;, &quot;move&quot;, &quot;revert&quot;, &quot;update&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;copy&quot;, &quot;deletion_change_provenance&quot;, &quot;insertion&quot;, &quot;merge&quot;, &quot;move&quot;, &quot;revert&quot;, &quot;update&quot; or blank." type="list" errorStyle="warning">
       <formula1>"copy,deletion_change_provenance,insertion,merge,move,revert,update"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." errorStyle="warning" errorTitle="Name" operator="between" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B1:B2" type="textLength">
+    <dataValidation sqref="B1:B2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A1:A2" type="textLength">
+    <dataValidation sqref="A1:A2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -7740,21 +7740,21 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="2" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="1"/>
+    <col hidden="1" width="9" customWidth="1" min="2" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -7802,20 +7802,20 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="A6:B6"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" prompt="Enter a string.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A1:B1"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="A5:B5" type="textLength">
+    <dataValidation sqref="A6:B6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="A1:B1" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be unique." errorStyle="warning"/>
+    <dataValidation sqref="A5:B5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be one of &quot;domain&quot;, &quot;kingdom&quot;, &quot;phylum&quot;, &quot;classis&quot;, &quot;order&quot;, &quot;family&quot;, &quot;tribe&quot;, &quot;genus&quot;, &quot;species&quot;, &quot;variety&quot;." errorStyle="warning" errorTitle="Rank" prompt="Select one of &quot;domain&quot;, &quot;kingdom&quot;, &quot;phylum&quot;, &quot;classis&quot;, &quot;order&quot;, &quot;family&quot;, &quot;tribe&quot;, &quot;genus&quot;, &quot;species&quot;, &quot;variety&quot;." promptTitle="Rank" showErrorMessage="1" showInputMessage="1" sqref="A3:B3" type="list">
+    <dataValidation sqref="A3:B3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Rank" error="Value must be one of &quot;domain&quot;, &quot;kingdom&quot;, &quot;phylum&quot;, &quot;classis&quot;, &quot;order&quot;, &quot;family&quot;, &quot;tribe&quot;, &quot;genus&quot;, &quot;species&quot;, &quot;variety&quot;." promptTitle="Rank" prompt="Select one of &quot;domain&quot;, &quot;kingdom&quot;, &quot;phylum&quot;, &quot;classis&quot;, &quot;order&quot;, &quot;family&quot;, &quot;tribe&quot;, &quot;genus&quot;, &quot;species&quot;, &quot;variety&quot;." type="list" errorStyle="warning">
       <formula1>"domain,kingdom,phylum,classis,order,family,tribe,genus,species,variety"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="A2:B2" type="textLength">
+    <dataValidation sqref="A2:B2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="A4:B4"/>
+    <dataValidation sqref="A4:B4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -7829,21 +7829,21 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="2" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="1"/>
+    <col hidden="1" width="9" customWidth="1" min="2" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -7898,24 +7898,24 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="A7:B7"/>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;degC&quot; or blank." errorStyle="warning" errorTitle="Temperature units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;degC&quot; or blank." promptTitle="Temperature units" showErrorMessage="1" showInputMessage="1" sqref="A4:B4" type="list">
+    <dataValidation sqref="A7:B7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="A4:B4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Temperature units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;degC&quot; or blank." promptTitle="Temperature units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;degC&quot; or blank." type="list" errorStyle="warning">
       <formula1>"degC"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Temperature" operator="between" prompt="Enter a float or blank." promptTitle="Temperature" showErrorMessage="1" showInputMessage="1" sqref="A3:B3" type="decimal">
+    <dataValidation sqref="A3:B3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Temperature" error="Value must be a float or blank." promptTitle="Temperature" prompt="Enter a float or blank." type="decimal" errorStyle="warning" operator="between">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="A2:B2" type="textLength">
+    <dataValidation sqref="A2:B2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="A5:B5"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="A6:B6" type="textLength">
+    <dataValidation sqref="A5:B5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="A6:B6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" prompt="Enter a string.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A1:B1"/>
+    <dataValidation sqref="A1:B1" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be unique." errorStyle="warning"/>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -7929,21 +7929,21 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="8" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="9" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="8"/>
+    <col hidden="1" width="9" customWidth="1" min="9" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8010,25 +8010,25 @@
   </sheetData>
   <autoFilter ref="A1:H2"/>
   <dataValidations count="8">
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="H2"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="G2" type="textLength">
+    <dataValidation sqref="H2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="G2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="F2"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="D2"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." errorStyle="warning" errorTitle="Framework" prompt="Enter a comma-separated list of WC ontology terms &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." promptTitle="Framework" showErrorMessage="1" showInputMessage="1" sqref="C2" type="list">
+    <dataValidation sqref="F2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="D2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="C2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Framework" error="Value must be a comma-separated list of WC ontology terms &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." promptTitle="Framework" prompt="Enter a comma-separated list of WC ontology terms &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." type="list" errorStyle="warning">
       <formula1>"dynamic_flux_balance_analysis,ordinary_differential_equations,stochastic_simulation_algorithm"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B2" type="textLength">
+    <dataValidation sqref="B2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="E2"/>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A2" type="textLength">
+    <dataValidation sqref="E2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="A2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -8042,21 +8042,21 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="21" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="22" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="21"/>
+    <col hidden="1" width="9" customWidth="1" min="22" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8274,57 +8274,57 @@
     <mergeCell ref="M2:P2"/>
   </mergeCells>
   <dataValidations count="19">
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="T3" type="textLength">
+    <dataValidation sqref="T3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="R3"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="U3"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="Q3"/>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Parameters:A&quot; or blank." errorStyle="warning" errorTitle="Initial density" prompt="Select a value from &quot;Parameters:A&quot; or blank." promptTitle="Initial density" showErrorMessage="1" showInputMessage="1" sqref="L3" type="list">
+    <dataValidation sqref="R3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="U3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="Q3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="L3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Initial density" error="Value must be a value from &quot;Parameters:A&quot; or blank." promptTitle="Initial density" prompt="Select a value from &quot;Parameters:A&quot; or blank." type="list" errorStyle="warning">
       <formula1>Parameters!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;liter&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;liter&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="K3" type="list">
+    <dataValidation sqref="K3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;liter&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;liter&quot; or blank." type="list" errorStyle="warning">
       <formula1>"liter"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="P3" type="list">
+    <dataValidation sqref="P3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." type="list" errorStyle="warning">
       <formula1>"dimensionless"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Standard deviation" operator="greaterThanOrEqual" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." promptTitle="Standard deviation" showErrorMessage="1" showInputMessage="1" sqref="J3 O3" type="decimal">
+    <dataValidation sqref="J3 O3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Standard deviation" error="Value must be a float or blank." promptTitle="Standard deviation" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." type="decimal" errorStyle="warning" operator="greaterThanOrEqual">
       <formula1>-1E-100</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Mean" operator="greaterThanOrEqual" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." promptTitle="Mean" showErrorMessage="1" showInputMessage="1" sqref="I3" type="decimal">
+    <dataValidation sqref="I3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." type="decimal" errorStyle="warning" operator="greaterThanOrEqual">
       <formula1>-1E-100</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="S3"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;W ..." errorStyle="warning" errorTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_d ..." promptTitle="Distribution" showErrorMessage="1" showInputMessage="1" sqref="H3 M3"/>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;gram&quot; or blank." errorStyle="warning" errorTitle="Mass units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;gram&quot; or blank." promptTitle="Mass units" showErrorMessage="1" showInputMessage="1" sqref="G3" type="list">
+    <dataValidation sqref="S3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="H3 M3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Distribution" error="Value must be a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;W ..." promptTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_d ..." errorStyle="warning"/>
+    <dataValidation sqref="G3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Mass units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;gram&quot; or blank." promptTitle="Mass units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;gram&quot; or blank." type="list" errorStyle="warning">
       <formula1>"gram"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Compartments:A&quot; or blank." errorStyle="warning" errorTitle="Parent compartment" prompt="Select a value from &quot;Compartments:A&quot; or blank." promptTitle="Parent compartment" showErrorMessage="1" showInputMessage="1" sqref="F3" type="list">
+    <dataValidation sqref="F3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Parent compartment" error="Value must be a value from &quot;Compartments:A&quot; or blank." promptTitle="Parent compartment" prompt="Select a value from &quot;Compartments:A&quot; or blank." type="list" errorStyle="warning">
       <formula1>Compartments!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;fluid_compartment&quot;, &quot;membrane_compartment&quot; or blank." errorStyle="warning" errorTitle="Physical type" prompt="Enter a comma-separated list of WC ontology terms &quot;fluid_compartment&quot;, &quot;membrane_compartment&quot; or blank." promptTitle="Physical type" showErrorMessage="1" showInputMessage="1" sqref="D3" type="list">
+    <dataValidation sqref="D3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Physical type" error="Value must be a comma-separated list of WC ontology terms &quot;fluid_compartment&quot;, &quot;membrane_compartment&quot; or blank." promptTitle="Physical type" prompt="Enter a comma-separated list of WC ontology terms &quot;fluid_compartment&quot;, &quot;membrane_compartment&quot; or blank." type="list" errorStyle="warning">
       <formula1>"fluid_compartment,membrane_compartment"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;cellular_compartment&quot;, &quot;extracellular_compartment&quot; or blank." errorStyle="warning" errorTitle="Biological type" prompt="Enter a comma-separated list of WC ontology terms &quot;cellular_compartment&quot;, &quot;extracellular_compartment&quot; or blank." promptTitle="Biological type" showErrorMessage="1" showInputMessage="1" sqref="C3" type="list">
+    <dataValidation sqref="C3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Biological type" error="Value must be a comma-separated list of WC ontology terms &quot;cellular_compartment&quot;, &quot;extracellular_compartment&quot; or blank." promptTitle="Biological type" prompt="Enter a comma-separated list of WC ontology terms &quot;cellular_compartment&quot;, &quot;extracellular_compartment&quot; or blank." type="list" errorStyle="warning">
       <formula1>"cellular_compartment,extracellular_compartment"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B3" type="textLength">
+    <dataValidation sqref="B3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Mean" operator="between" prompt="Enter a float or blank." promptTitle="Mean" showErrorMessage="1" showInputMessage="1" sqref="N3" type="decimal">
+    <dataValidation sqref="N3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank." type="decimal" errorStyle="warning" operator="between">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;3D_compartment&quot; or blank." errorStyle="warning" errorTitle="Geometry" prompt="Enter a comma-separated list of WC ontology terms &quot;3D_compartment&quot; or blank." promptTitle="Geometry" showErrorMessage="1" showInputMessage="1" sqref="E3" type="list">
+    <dataValidation sqref="E3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Geometry" error="Value must be a comma-separated list of WC ontology terms &quot;3D_compartment&quot; or blank." promptTitle="Geometry" prompt="Enter a comma-separated list of WC ontology terms &quot;3D_compartment&quot; or blank." type="list" errorStyle="warning">
       <formula1>"3D_compartment"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A3" type="textLength">
+    <dataValidation sqref="A3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -8338,21 +8338,21 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="14" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="14"/>
+    <col hidden="1" width="9" customWidth="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -10461,40 +10461,40 @@
     <mergeCell ref="C2:H2"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="M3:M49" type="textLength">
+    <dataValidation sqref="M3:M49" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="K3:K49"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;I ..." errorStyle="warning" errorTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;Ion&quot;, &quot;am ..." promptTitle="Type" showErrorMessage="1" showInputMessage="1" sqref="I3:I49"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="L3:L49"/>
-    <dataValidation allowBlank="0" error="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Value must be an empirical formula (e.g. &quot;H2O&quot;)." errorStyle="warning" errorTitle="Empirical formula" prompt="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Enter an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="Empirical formula" showErrorMessage="1" showInputMessage="1" sqref="F3:F49"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="N3:N49"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="J3:J49"/>
-    <dataValidation allowBlank="0" error="Value must be one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." errorStyle="warning" errorTitle="Alphabet" prompt="Select one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." promptTitle="Alphabet" showErrorMessage="1" showInputMessage="1" sqref="E3:E49" type="list">
+    <dataValidation sqref="K3:K49" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="I3:I49" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;I ..." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;Ion&quot;, &quot;am ..." errorStyle="warning"/>
+    <dataValidation sqref="L3:L49" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="F3:F49" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Empirical formula" error="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Value must be an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="Empirical formula" prompt="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Enter an empirical formula (e.g. &quot;H2O&quot;)." errorStyle="warning"/>
+    <dataValidation sqref="N3:N49" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="J3:J49" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="E3:E49" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Alphabet" error="Value must be one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." promptTitle="Alphabet" prompt="Select one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." type="list" errorStyle="warning">
       <formula1>"dna,rna,protein,canonical_dna,canonical_rna,canonical_protein"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." errorStyle="warning" errorTitle="Format" prompt="Select one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." promptTitle="Format" showErrorMessage="1" showInputMessage="1" sqref="D3:D49" type="list">
+    <dataValidation sqref="D3:D49" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Format" error="Value must be one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." promptTitle="Format" prompt="Select one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." type="list" errorStyle="warning">
       <formula1>"smiles,bpforms"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be an integer." errorStyle="warning" errorTitle="Charge" operator="between" prompt="Enter an integer." promptTitle="Charge" showErrorMessage="1" showInputMessage="1" sqref="H3:H49" type="whole">
+    <dataValidation sqref="H3:H49" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Charge" error="Value must be an integer." promptTitle="Charge" prompt="Enter an integer." type="whole" errorStyle="warning" operator="between">
       <formula1>-32768</formula1>
       <formula2>32767</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Value" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Value" showErrorMessage="1" showInputMessage="1" sqref="C3:C49" type="textLength">
+    <dataValidation sqref="C3:C49" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Value" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Value" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Molecular weight" operator="greaterThanOrEqual" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." promptTitle="Molecular weight" showErrorMessage="1" showInputMessage="1" sqref="G3:G49" type="decimal">
+    <dataValidation sqref="G3:G49" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Molecular weight" error="Value must be a float or blank." promptTitle="Molecular weight" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." type="decimal" errorStyle="warning" operator="greaterThanOrEqual">
       <formula1>-1E-100</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B3:B49" type="textLength">
+    <dataValidation sqref="B3:B49" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A3:A49" type="textLength">
+    <dataValidation sqref="A3:A49" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value mu ..." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -10508,21 +10508,21 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="10" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="11" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="10"/>
+    <col hidden="1" width="9" customWidth="1" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -11897,30 +11897,30 @@
   </sheetData>
   <autoFilter ref="A1:J48"/>
   <dataValidations count="10">
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="H2:H48"/>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="G2:G48"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="F2:F48"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="I2:I48" type="textLength">
+    <dataValidation sqref="H2:H48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="G2:G48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="F2:F48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="I2:I48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="E2:E48" type="list">
+    <dataValidation sqref="E2:E48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." type="list" errorStyle="warning">
       <formula1>"molecule"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Compartments:A&quot;." errorStyle="warning" errorTitle="Compartment" prompt="Select a value from &quot;Compartments:A&quot;." promptTitle="Compartment" showErrorMessage="1" showInputMessage="1" sqref="D2:D48" type="list">
+    <dataValidation sqref="D2:D48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Compartment" error="Value must be a value from &quot;Compartments:A&quot;." promptTitle="Compartment" prompt="Select a value from &quot;Compartments:A&quot;." type="list" errorStyle="warning">
       <formula1>Compartments!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Species types:A&quot;." errorStyle="warning" errorTitle="Species type" prompt="Select a value from &quot;Species types:A&quot;." promptTitle="Species type" showErrorMessage="1" showInputMessage="1" sqref="C2:C48" type="list">
+    <dataValidation sqref="C2:C48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Species type" error="Value must be a value from &quot;Species types:A&quot;." promptTitle="Species type" prompt="Select a value from &quot;Species types:A&quot;." type="list" errorStyle="warning">
       <formula1>'Species types'!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B2:B48" type="textLength">
+    <dataValidation sqref="B2:B48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="J2:J48"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A2:A48" type="textLength">
+    <dataValidation sqref="J2:J48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="A2:A48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -11934,21 +11934,21 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="12" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="13" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="12"/>
+    <col hidden="1" width="9" customWidth="1" min="13" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -13521,34 +13521,34 @@
   </sheetData>
   <autoFilter ref="A1:L48"/>
   <dataValidations count="12">
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A2:A48" type="textLength">
+    <dataValidation sqref="A2:A48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="K2:K48" type="textLength">
+    <dataValidation sqref="K2:K48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;W ..." errorStyle="warning" errorTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_d ..." promptTitle="Distribution" showErrorMessage="1" showInputMessage="1" sqref="D2:D48"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="J2:J48"/>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="I2:I48"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="L2:L48"/>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Species:A&quot;." errorStyle="warning" errorTitle="Species" prompt="Select a value from &quot;Species:A&quot;." promptTitle="Species" showErrorMessage="1" showInputMessage="1" sqref="C2:C48" type="list">
+    <dataValidation sqref="D2:D48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Distribution" error="Value must be a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;W ..." promptTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_d ..." errorStyle="warning"/>
+    <dataValidation sqref="J2:J48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="I2:I48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="L2:L48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="C2:C48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Species" error="Value must be a value from &quot;Species:A&quot;." promptTitle="Species" prompt="Select a value from &quot;Species:A&quot;." type="list" errorStyle="warning">
       <formula1>Species!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="H2:H48"/>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Standard deviation" operator="greaterThanOrEqual" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." promptTitle="Standard deviation" showErrorMessage="1" showInputMessage="1" sqref="F2:F48" type="decimal">
+    <dataValidation sqref="H2:H48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="F2:F48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Standard deviation" error="Value must be a float or blank." promptTitle="Standard deviation" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." type="decimal" errorStyle="warning" operator="greaterThanOrEqual">
       <formula1>-1E-100</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Mean" operator="greaterThanOrEqual" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." promptTitle="Mean" showErrorMessage="1" showInputMessage="1" sqref="E2:E48" type="decimal">
+    <dataValidation sqref="E2:E48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." type="decimal" errorStyle="warning" operator="greaterThanOrEqual">
       <formula1>-1E-100</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="G2:G48" type="list">
+    <dataValidation sqref="G2:G48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." type="list" errorStyle="warning">
       <formula1>"molecule,molar,millimolar,micromolar,nanomolar,picomolar,femtomolar,attomolar"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B2:B48" type="textLength">
+    <dataValidation sqref="B2:B48" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/rand_wc_model_gen/model_gen/model_2.xlsx
+++ b/rand_wc_model_gen/model_gen/model_2.xlsx
@@ -3354,7 +3354,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4272,7 +4272,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4872,7 +4872,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5107,7 +5107,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5226,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6480,7 +6480,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6581,7 +6581,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6833,7 +6833,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -7106,7 +7106,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -7270,7 +7270,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -7451,7 +7451,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -7587,7 +7587,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -7754,7 +7754,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -7843,7 +7843,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -7943,7 +7943,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8352,7 +8352,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -10522,7 +10522,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -11948,7 +11948,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
